--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06274475832281941</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.01785559355394588</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.01593053737391109</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0004084309309549325</v>
+        <v>0.001246785640626108</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007727015274263167</v>
+        <v>0.0007990270486157861</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001569704370634195</v>
+        <v>0.003945461605057127</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007286911094290339</v>
+        <v>0.0007841357572183294</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003514545370470218</v>
+        <v>0.006626980671208371</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007239056505492173</v>
+        <v>0.0007886217473452899</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006526379757413603</v>
+        <v>0.001246785640626108</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007739968755500633</v>
+        <v>0.0007990270486157861</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002764050956522657</v>
+        <v>0.002762307606571215</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001545403054852633</v>
+        <v>0.001598054097231572</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00298901508345209</v>
+        <v>0.007999999999999979</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001457382218858068</v>
+        <v>0.001556464174454824</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007264332978223348</v>
+        <v>0.01405355109481771</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001447811301098435</v>
+        <v>0.00157724349469058</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01297863888710388</v>
+        <v>0.002762307606571215</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001547993751100127</v>
+        <v>0.001598054097231572</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003030864742513392</v>
+        <v>0.004223664586763314</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00231810458227895</v>
+        <v>0.002397081145847358</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004551069437043163</v>
+        <v>0.01077141097956294</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002186073328287102</v>
+        <v>0.002352407271654988</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01099999999999998</v>
+        <v>0.0207132706083053</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002180902777777774</v>
+        <v>0.00236586524203587</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02035460525716093</v>
+        <v>0.004223664586763314</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00232199062665019</v>
+        <v>0.002397081145847358</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005172876954737352</v>
+        <v>0.005507955270130385</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003090806109705267</v>
+        <v>0.003196108194463144</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005749004729996912</v>
+        <v>0.0142162950150021</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002914764437716136</v>
+        <v>0.003136543028873318</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01304909568320201</v>
+        <v>0.02643969854914852</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002895622602196869</v>
+        <v>0.00315448698938116</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02615210673567492</v>
+        <v>0.005507955270130385</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003095987502200253</v>
+        <v>0.003196108194463144</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.004996250000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.006392278345600438</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.003995135243078931</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006975958260902804</v>
+        <v>0.01697339242337159</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003643455547145169</v>
+        <v>0.003920678786091647</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01648169466080707</v>
+        <v>0.03136639425482446</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003619528252746086</v>
+        <v>0.00394310873672645</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.006392278345600438</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003638046116504858</v>
+        <v>0.003995135243078931</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005013118829467547</v>
+        <v>0.008</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.0046362091645579</v>
+        <v>0.004996250000000001</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008225067328350356</v>
+        <v>0.0204309180470699</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004372146656574203</v>
+        <v>0.004704814543309977</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01847595496465732</v>
+        <v>0.03682691706281044</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004343433903295304</v>
+        <v>0.004731730484071739</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03469750479906308</v>
+        <v>0.008</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004643981253300379</v>
+        <v>0.004996250000000001</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007798615697115208</v>
+        <v>0.008498641641403203</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005408910691984217</v>
+        <v>0.005593189340310503</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009389469230929037</v>
+        <v>0.02377708672849568</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005100837766003237</v>
+        <v>0.005488950300528306</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02164769676026196</v>
+        <v>0.04135482631058368</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005067339553844521</v>
+        <v>0.005520352231417029</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03984358680950922</v>
+        <v>0.008498641641403203</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005417978128850443</v>
+        <v>0.005593189340310503</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008523390091599838</v>
+        <v>0.009390058522841235</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006181612219410534</v>
+        <v>0.006392216388926289</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01066230126722835</v>
+        <v>0.02590011331004738</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005829528875432271</v>
+        <v>0.006273086057746635</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02351274021313007</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005791245204393738</v>
+        <v>0.006384097222222221</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04349396245382281</v>
+        <v>0.009390058522841235</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006191975004400507</v>
+        <v>0.006392216388926289</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009199762022290864</v>
+        <v>0.01013527658160347</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006954313746836851</v>
+        <v>0.007191243437542075</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01163670073583779</v>
+        <v>0.02928821263412371</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006558219984861305</v>
+        <v>0.007057221814964965</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02608690548877093</v>
+        <v>0.04821342936330114</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006515150854942956</v>
+        <v>0.007097595726107609</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04670768259916869</v>
+        <v>0.01013527658160347</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006965971879950569</v>
+        <v>0.007191243437542075</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007840051498557696</v>
+        <v>0.01103852906185878</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007727015274263167</v>
+        <v>0.007990270486157861</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01230580493534681</v>
+        <v>0.03122959954312315</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007286911094290339</v>
+        <v>0.007841357572183294</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0282860127526936</v>
+        <v>0.05119265870728551</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007239056505492172</v>
+        <v>0.007886217473452899</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04994379811271182</v>
+        <v>0.01103852906185878</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007739968755500633</v>
+        <v>0.007990270486157861</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01045657852976973</v>
+        <v>0.01190404920777597</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008499716801689483</v>
+        <v>0.008789297534773647</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01306275116434495</v>
+        <v>0.03361248887944426</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008015602203719371</v>
+        <v>0.008625493329401624</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02982588217040735</v>
+        <v>0.05368346243450933</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00796296215604139</v>
+        <v>0.008674839220798189</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05286135986161722</v>
+        <v>0.01190404920777597</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008513965631050696</v>
+        <v>0.008789297534773647</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009061663125296403</v>
+        <v>0.01263607026352391</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0092724183291158</v>
+        <v>0.009588324583389433</v>
       </c>
       <c r="J77" t="n">
-        <v>0.014</v>
+        <v>0.03632509548548563</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008743437499999999</v>
+        <v>0.009409629086619953</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03202233390742121</v>
+        <v>0.05624628098020978</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008686867806590608</v>
+        <v>0.009463460968143479</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05681941871304991</v>
+        <v>0.01263607026352391</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009287962506600758</v>
+        <v>0.009588324583389433</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009667625294507098</v>
+        <v>0.01333882547327141</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01004511985654212</v>
+        <v>0.01038735163200522</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0142254452709888</v>
+        <v>0.03825563420364581</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00947298442257744</v>
+        <v>0.01019376484383828</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03469118812924446</v>
+        <v>0.05764155477962402</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009410773457139825</v>
+        <v>0.01025208271548877</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05947702553417472</v>
+        <v>0.01333882547327141</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01006195938215082</v>
+        <v>0.01038735163200522</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01128678504677125</v>
+        <v>0.01391654808118735</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01081782138396843</v>
+        <v>0.01118637868062101</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01496217001931081</v>
+        <v>0.03999231987632343</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01020167553200647</v>
+        <v>0.01097790060105661</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03614826500138615</v>
+        <v>0.05952972426798925</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01013467910768904</v>
+        <v>0.01104070446283406</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06249323119215666</v>
+        <v>0.01391654808118735</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01083595625770089</v>
+        <v>0.01118637868062101</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.01477347133144057</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.01198540572923679</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01513291814948668</v>
+        <v>0.04143581062090834</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01093036664143551</v>
+        <v>0.01151667049481048</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03820938468935553</v>
+        <v>0.06207122988054259</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01085858475823826</v>
+        <v>0.01182932621017935</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06501602768787074</v>
+        <v>0.01477347133144057</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01126339557335382</v>
+        <v>0.01198540572923679</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01362566532773757</v>
+        <v>0.01541382846819987</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01236322443882107</v>
+        <v>0.01278443277785258</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01565975683375334</v>
+        <v>0.04291963145191385</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01165905775086454</v>
+        <v>0.01254617211549327</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04143581062090834</v>
+        <v>0.06501602768787074</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01173603564709259</v>
+        <v>0.01289033048950492</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0698150808423284</v>
+        <v>0.01541382846819987</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01238395000880101</v>
+        <v>0.01278443277785258</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01236451658175654</v>
+        <v>0.01574185273563414</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01313592596624739</v>
+        <v>0.01358345982646836</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01586475324434765</v>
+        <v>0.04429729116318631</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01238774886029358</v>
+        <v>0.0133303078727116</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04313915285105932</v>
+        <v>0.06554381040514562</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01230639605933669</v>
+        <v>0.01340656970486993</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07379956154270279</v>
+        <v>0.01574185273563414</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01315794688435108</v>
+        <v>0.01358345982646836</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01513924139385909</v>
+        <v>0.01646177737791217</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0139086274936737</v>
+        <v>0.01438248687508415</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01616997455350647</v>
+        <v>0.04596493967972395</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01311643996972261</v>
+        <v>0.01411444362992993</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04541831121157874</v>
+        <v>0.06771217611221186</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01303030170988591</v>
+        <v>0.01419519145221522</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07684462442176948</v>
+        <v>0.01646177737791217</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01393194375990114</v>
+        <v>0.01438248687508415</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01394019550102933</v>
+        <v>0.01697783563920287</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01468132902110002</v>
+        <v>0.01518151392369993</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01639748793346671</v>
+        <v>0.04782096159201529</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01384513107915164</v>
+        <v>0.01489857938714826</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04780447471830054</v>
+        <v>0.07042412248817692</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01375420736043513</v>
+        <v>0.01498381319956051</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08090341976790377</v>
+        <v>0.01697783563920287</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0147059406354512</v>
+        <v>0.01518151392369993</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01575773464025144</v>
+        <v>0.01785559355394588</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01545403054852633</v>
+        <v>0.01593053737391109</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01696936055646528</v>
+        <v>0.0492637414905488</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01457382218858068</v>
+        <v>0.01568271514436659</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04947163420719974</v>
+        <v>0.07177425040328678</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01447811301098434</v>
+        <v>0.0157724349469058</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08592909786948094</v>
+        <v>0.01785559355394588</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01547993751100127</v>
+        <v>0.01593053737391109</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01658221454850952</v>
+        <v>0.01822213185826815</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01622673207595265</v>
+        <v>0.01677956802093151</v>
       </c>
       <c r="J86" t="n">
-        <v>0.017407659594739</v>
+        <v>0.05059166396581299</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01530251329800971</v>
+        <v>0.01646685090158492</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05249378051425127</v>
+        <v>0.07475716072778743</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01520201866153356</v>
+        <v>0.01656105669425109</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08987480901487604</v>
+        <v>0.01822213185826815</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01625393438655133</v>
+        <v>0.01677956802093151</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0164039909627877</v>
+        <v>0.01916642539757017</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01699943360337897</v>
+        <v>0.01757859506954729</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01785559355394588</v>
+        <v>0.05220311360829633</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01593053737391109</v>
+        <v>0.01725098665880325</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05514490447543016</v>
+        <v>0.07596745433192481</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01592592431208278</v>
+        <v>0.01734967844159638</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0930937034924646</v>
+        <v>0.01916642539757017</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01702793126210139</v>
+        <v>0.01757859506954729</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01721341962007014</v>
+        <v>0.01962503668969311</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01777213513080528</v>
+        <v>0.01837762211816308</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01858563646337276</v>
+        <v>0.05399647500848728</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01675989551686778</v>
+        <v>0.01803512241602158</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05749899692671129</v>
+        <v>0.07889973208594486</v>
       </c>
       <c r="M88" t="n">
-        <v>0.016649829962632</v>
+        <v>0.01813830018894166</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09833893159062168</v>
+        <v>0.01962503668969311</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01780192813765146</v>
+        <v>0.01837762211816308</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02000085625734094</v>
+        <v>0.02049583314198167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0185448366582316</v>
+        <v>0.01917664916677887</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01949057614915457</v>
+        <v>0.05567013275687446</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01748858662629681</v>
+        <v>0.01881925817323991</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05983004870406969</v>
+        <v>0.08074859486009356</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01737373561318122</v>
+        <v>0.01892692193628696</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1017636435977224</v>
+        <v>0.02049583314198167</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01857592501320152</v>
+        <v>0.01917664916677887</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02075665661158425</v>
+        <v>0.02107668216178057</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01931753818565792</v>
+        <v>0.01997567621539465</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02080375081692604</v>
+        <v>0.05672247144394624</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01821727773572585</v>
+        <v>0.01960339393045824</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06281205064348028</v>
+        <v>0.08290864352461674</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01809764126373043</v>
+        <v>0.01971554368363225</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1056209898021424</v>
+        <v>0.02107668216178057</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01934992188875158</v>
+        <v>0.01997567621539465</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0214711764197842</v>
+        <v>0.02156545115643452</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02009023971308424</v>
+        <v>0.02077470326401044</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02207774191892219</v>
+        <v>0.05795187566019117</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01894596884515488</v>
+        <v>0.02038752968767657</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06471899358091807</v>
+        <v>0.08577447894976042</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01882154691427965</v>
+        <v>0.02050416543097754</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1095641204922566</v>
+        <v>0.02156545115643452</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02012391876430165</v>
+        <v>0.02077470326401044</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02013477141892493</v>
+        <v>0.02236000753328819</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02086294124051055</v>
+        <v>0.02157373031262623</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02376513090737804</v>
+        <v>0.0592567299960978</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01967465995458392</v>
+        <v>0.02117166544489489</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06762486835235795</v>
+        <v>0.08734070200577065</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01954545256482887</v>
+        <v>0.02129278717832283</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1123461859564403</v>
+        <v>0.02236000753328819</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02089791563985171</v>
+        <v>0.02157373031262623</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02073779734599056</v>
+        <v>0.02295821869968635</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02163564276793687</v>
+        <v>0.02237275736124201</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0250184992345287</v>
+        <v>0.06103541904215451</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02040335106401295</v>
+        <v>0.02195580120211323</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06930366579377498</v>
+        <v>0.09060191356289321</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02026935821537808</v>
+        <v>0.02208140892566812</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1156203364830689</v>
+        <v>0.02295821869968635</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02167191251540177</v>
+        <v>0.02237275736124201</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02127060993796523</v>
+        <v>0.02395795206297366</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02240834429536319</v>
+        <v>0.0231717844098578</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02669042835260918</v>
+        <v>0.06248632738884988</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02113204217344198</v>
+        <v>0.02273993695933155</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07162937674114406</v>
+        <v>0.09215271449137419</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0209932638659273</v>
+        <v>0.0228700306730134</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1179397223605173</v>
+        <v>0.02395795206297366</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02244590939095184</v>
+        <v>0.0231717844098578</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02372356493183309</v>
+        <v>0.02445707503049482</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0231810458227895</v>
+        <v>0.02397081145847358</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02833349971385457</v>
+        <v>0.0639078396266724</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02186073328287102</v>
+        <v>0.02352407271654989</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07347599203044014</v>
+        <v>0.09408770566145941</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02171716951647652</v>
+        <v>0.02365865242035869</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1196574938771611</v>
+        <v>0.02445707503049482</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0232199062665019</v>
+        <v>0.02397081145847358</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02208701806457822</v>
+        <v>0.0252534550095946</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02395374735021582</v>
+        <v>0.02476983850708937</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02960029477049987</v>
+        <v>0.06509834034611056</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02258942439230005</v>
+        <v>0.02430820847376821</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07491750249763823</v>
+        <v>0.09640148794339487</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02244107516702573</v>
+        <v>0.02444727416770399</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1219268013213754</v>
+        <v>0.0252534550095946</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02399390314205196</v>
+        <v>0.02476983850708937</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0233513250731848</v>
+        <v>0.02604495940761764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02472644887764213</v>
+        <v>0.02556886555570516</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03094339497478019</v>
+        <v>0.06635621413765289</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02331811550172909</v>
+        <v>0.02509234423098654</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0761278989787133</v>
+        <v>0.09818866220742645</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02316498081757495</v>
+        <v>0.02523589591504928</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1236007949815354</v>
+        <v>0.02604495940761764</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02476790001760203</v>
+        <v>0.02556886555570516</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02350684169463696</v>
+        <v>0.02672945563190868</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02549915040506845</v>
+        <v>0.02636789260432094</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03221538177893052</v>
+        <v>0.06757984559178781</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02404680661115812</v>
+        <v>0.02587647998820487</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07728117230964032</v>
+        <v>0.1012438293238003</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02388888646812417</v>
+        <v>0.02602451766239456</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1241326251460164</v>
+        <v>0.02672945563190868</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02554189689315209</v>
+        <v>0.02636789260432094</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02254576339642871</v>
+        <v>0.02710481108981241</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02627185193249477</v>
+        <v>0.02716691965293673</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03306883663518596</v>
+        <v>0.06896761929900388</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02477549772058715</v>
+        <v>0.0266606157454232</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07865131332639419</v>
+        <v>0.1035615901627622</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02461279211867339</v>
+        <v>0.02681313940973986</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1243812109598394</v>
+        <v>0.02710481108981241</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02631589376870215</v>
+        <v>0.02716691965293673</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02352243960935821</v>
+        <v>0.02806889318867357</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02704455345992108</v>
+        <v>0.02796594670155251</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03375634099578155</v>
+        <v>0.06941791984978957</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02550418883001618</v>
+        <v>0.02744475150264153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07881231286494988</v>
+        <v>0.105836545594558</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0253366977692226</v>
+        <v>0.02760176115708514</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1239409604697814</v>
+        <v>0.02806889318867357</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02708989064425222</v>
+        <v>0.02796594670155251</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02246791207306711</v>
+        <v>0.0287195693358368</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0278172549873474</v>
+        <v>0.0287649737501683</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03443047631295233</v>
+        <v>0.07112913183463335</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02623287993944522</v>
+        <v>0.02822888725985986</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07893816176128243</v>
+        <v>0.1077632964894338</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02606060341977182</v>
+        <v>0.02839038290443044</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1226033934838309</v>
+        <v>0.0287195693358368</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02786388751980228</v>
+        <v>0.0287649737501683</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02338489351905337</v>
+        <v>0.02925470693864689</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02858995651477372</v>
+        <v>0.02956400079878408</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03418107900581217</v>
+        <v>0.07229963984402377</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02696157104887425</v>
+        <v>0.02901302301707819</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0790562010337508</v>
+        <v>0.1093364437176356</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02678450907032104</v>
+        <v>0.02917900465177573</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1219252892280798</v>
+        <v>0.02925470693864689</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02863788439535234</v>
+        <v>0.02956400079878408</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02427609667881486</v>
+        <v>0.0296721734044485</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02936265804220003</v>
+        <v>0.03036302784739987</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03434199552433068</v>
+        <v>0.07282782846844935</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02769026215830329</v>
+        <v>0.02979715877429652</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07905896508816682</v>
+        <v>0.1115505881494092</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02750841472087026</v>
+        <v>0.02996762639912101</v>
       </c>
       <c r="N103" t="n">
-        <v>0.12056342692862</v>
+        <v>0.0296721734044485</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02941188127090241</v>
+        <v>0.03036302784739987</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02214423428384948</v>
+        <v>0.03056983614058634</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03013535956962635</v>
+        <v>0.03116205489601566</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03416525316037143</v>
+        <v>0.07401208229839848</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02841895326773232</v>
+        <v>0.03058129453151485</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07817358938945898</v>
+        <v>0.1134003306550007</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02823232037141947</v>
+        <v>0.0307562481464663</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1189745858115432</v>
+        <v>0.03056983614058634</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03018587814645247</v>
+        <v>0.03116205489601566</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02299201906565515</v>
+        <v>0.03094556255440511</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03090806109705267</v>
+        <v>0.03196108194463144</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03415410015828638</v>
+        <v>0.07455078592435982</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02914764437716135</v>
+        <v>0.03136543028873318</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07732603412896605</v>
+        <v>0.1150802721046557</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02895622602196869</v>
+        <v>0.0315448698938116</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1175155451029415</v>
+        <v>0.03094556255440511</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03095987502200253</v>
+        <v>0.03196108194463144</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02282216375572978</v>
+        <v>0.03139722005324953</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03168076262447898</v>
+        <v>0.03276010899324723</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03391178476242745</v>
+        <v>0.0757423239368217</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02987633548659039</v>
+        <v>0.03214956604595151</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07674225949802674</v>
+        <v>0.1157850133686206</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02968013167251791</v>
+        <v>0.03233349164115688</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1158430840289066</v>
+        <v>0.03139722005324953</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03173387189755259</v>
+        <v>0.03276010899324723</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02363738108557124</v>
+        <v>0.03202267604446432</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0324534641519053</v>
+        <v>0.03355913604186302</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03394155521714665</v>
+        <v>0.0770850809262727</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03060502659601942</v>
+        <v>0.03293370180316984</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07554822568797981</v>
+        <v>0.1174091553171412</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03040403732306713</v>
+        <v>0.03312211338850218</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1128139818155303</v>
+        <v>0.03202267604446432</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03250786877310265</v>
+        <v>0.03355913604186302</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02244038378667747</v>
+        <v>0.03261979793539417</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03322616567933162</v>
+        <v>0.0343581630904788</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03354665976679587</v>
+        <v>0.07757744148320131</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03133371770544845</v>
+        <v>0.03371783756038817</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07496989289016404</v>
+        <v>0.1196472988204633</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03112794297361634</v>
+        <v>0.03391073513584747</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1118850176889046</v>
+        <v>0.03261979793539417</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03328186564865272</v>
+        <v>0.0343581630904788</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02323388459054636</v>
+        <v>0.03308645313338379</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03399886720675793</v>
+        <v>0.03515719013909459</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0334303466557271</v>
+        <v>0.078617790198096</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03206240881487749</v>
+        <v>0.03450197331760649</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07413322129591815</v>
+        <v>0.1207940447488329</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03185184862416556</v>
+        <v>0.03469935688319276</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1088129708751213</v>
+        <v>0.03308645313338379</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03405586252420278</v>
+        <v>0.03515719013909459</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0220205962286758</v>
+        <v>0.0334205090457779</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03477156873418425</v>
+        <v>0.03595621718771037</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03299586412829228</v>
+        <v>0.07890451166144533</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03279109992430652</v>
+        <v>0.03528610907482482</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0727641710965809</v>
+        <v>0.1229439939724961</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03257575427471478</v>
+        <v>0.03548797863053804</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1077546206002722</v>
+        <v>0.0334205090457779</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03482985939975285</v>
+        <v>0.03595621718771037</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02080323143256373</v>
+        <v>0.03371983307992119</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03554427026161057</v>
+        <v>0.03675524423632616</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03294646042884335</v>
+        <v>0.07963599046373773</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03351979103373556</v>
+        <v>0.03607024483204315</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07188870248349102</v>
+        <v>0.1237917473616987</v>
       </c>
       <c r="M111" t="n">
-        <v>0.033299659925264</v>
+        <v>0.03627660037788333</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1067667460904493</v>
+        <v>0.03371983307992119</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03560385627530292</v>
+        <v>0.03675524423632616</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02058450293370802</v>
+        <v>0.03418229264315834</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03631697178903689</v>
+        <v>0.03755427128494195</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03248538380173227</v>
+        <v>0.07981061119546173</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03424848214316459</v>
+        <v>0.03685438058926149</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07103277564798727</v>
+        <v>0.1250319057866865</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03402356557581322</v>
+        <v>0.03706522212522862</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1053061265717443</v>
+        <v>0.03418229264315834</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03637785315085298</v>
+        <v>0.03755427128494195</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02236712346360659</v>
+        <v>0.03440575514283413</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0370896733164632</v>
+        <v>0.03835329833355773</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03221588249131101</v>
+        <v>0.08042675844710584</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03497717325259363</v>
+        <v>0.03763851634647981</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06952235078140837</v>
+        <v>0.1253590701177059</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03474747122636243</v>
+        <v>0.03785384387257391</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1033295412702491</v>
+        <v>0.03440575514283413</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03715185002640303</v>
+        <v>0.03835329833355773</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02215380575375733</v>
+        <v>0.03478808798629318</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03786237484388952</v>
+        <v>0.03915232538217352</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03204120474193146</v>
+        <v>0.08118281680915854</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03570586436202267</v>
+        <v>0.03842265210369814</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06868338807509305</v>
+        <v>0.1268678412250024</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03547137687691165</v>
+        <v>0.0386424656199192</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1033937694120557</v>
+        <v>0.03478808798629318</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0379258469019531</v>
+        <v>0.03915232538217352</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02194726253565817</v>
+        <v>0.0352271585808803</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03863507637131584</v>
+        <v>0.0399513524307893</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03176459879794565</v>
+        <v>0.08187717087210833</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0364345554714517</v>
+        <v>0.03920678786091648</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06804184772038016</v>
+        <v>0.1280528199788221</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03619528252746087</v>
+        <v>0.03943108736726449</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1025555902232557</v>
+        <v>0.0352271585808803</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03869984377750316</v>
+        <v>0.0399513524307893</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.021750206540807</v>
+        <v>0.03532083433394009</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03940777789874215</v>
+        <v>0.04075037947940509</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03158931290370548</v>
+        <v>0.0820082052264437</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03716324658088073</v>
+        <v>0.0399909236181348</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06762368990860831</v>
+        <v>0.128208607249411</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03691918817801008</v>
+        <v>0.04021970911460979</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1031911954981452</v>
+        <v>0.03532083433394009</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03947384065305323</v>
+        <v>0.04075037947940509</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02056535050070171</v>
+        <v>0.03526698265281734</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04018047942616847</v>
+        <v>0.04154940652802087</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03141859530356292</v>
+        <v>0.08227430446265308</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03789193769030976</v>
+        <v>0.04077505937535313</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06625487483111633</v>
+        <v>0.128229803907015</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0376430938285593</v>
+        <v>0.04100833086195507</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1026176966499208</v>
+        <v>0.03526698265281734</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04024783752860329</v>
+        <v>0.04154940652802087</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02039540714684022</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04095318095359479</v>
+        <v>0.04234843357663666</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03105569424186992</v>
+        <v>0.08257385317122518</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0386206287997388</v>
+        <v>0.04155919513257147</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06666136267924294</v>
+        <v>0.1285110108218802</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03836699947910852</v>
+        <v>0.04179695260930037</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1033126399185105</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04102183440415336</v>
+        <v>0.04234843357663666</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02124308921072045</v>
+        <v>0.03570816661740292</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0417258824810211</v>
+        <v>0.04314746062525245</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03060385796297843</v>
+        <v>0.08287162124181666</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03934931990916783</v>
+        <v>0.04234333088978979</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06626911364432692</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03909090512965773</v>
+        <v>0.04258557435664565</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1037628147459889</v>
+        <v>0.03570816661740292</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04179583127970342</v>
+        <v>0.04314746062525245</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02011110942384027</v>
+        <v>0.03570792027698874</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04249858400844742</v>
+        <v>0.04394648767386824</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03056633471124039</v>
+        <v>0.08226683736741094</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04007801101859686</v>
+        <v>0.04312746664700812</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06587194738950991</v>
+        <v>0.1300318589043772</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03981481078020695</v>
+        <v>0.04337419610399094</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1043550105744304</v>
+        <v>0.03570792027698874</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04256982815525348</v>
+        <v>0.04394648767386824</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0190021805176976</v>
+        <v>0.03539106837969525</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04327128553587373</v>
+        <v>0.04474551472248402</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03044637273100777</v>
+        <v>0.08246518872852043</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0408067021280259</v>
+        <v>0.04391160240422645</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06616811222760033</v>
+        <v>0.1293087473264429</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04053871643075617</v>
+        <v>0.04416281785133623</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1049760168459096</v>
+        <v>0.03539106837969525</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04334382503080354</v>
+        <v>0.04474551472248402</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02091901522379035</v>
+        <v>0.03566044193055817</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04404398706330005</v>
+        <v>0.04554454177109981</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03004722026663249</v>
+        <v>0.08222962775031781</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04153539323745493</v>
+        <v>0.04469573816144478</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06594318718482539</v>
+        <v>0.1296351994009411</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04126262208130538</v>
+        <v>0.04495143959868152</v>
       </c>
       <c r="N122" t="n">
-        <v>0.106312623002501</v>
+        <v>0.03566044193055817</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04411782190635361</v>
+        <v>0.04554454177109981</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02086432627361641</v>
+        <v>0.0355166792876493</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04481668859072637</v>
+        <v>0.0463435688197156</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02987212556246654</v>
+        <v>0.08216425401954427</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04226408434688397</v>
+        <v>0.04547987391866311</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06649206592120194</v>
+        <v>0.1293134943150376</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04198652773185461</v>
+        <v>0.04574006134602681</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1073516184862792</v>
+        <v>0.0355166792876493</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04489181878190367</v>
+        <v>0.0463435688197156</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01884082639867371</v>
+        <v>0.03546041880904049</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04558939011815268</v>
+        <v>0.04714259586833138</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02962433686286187</v>
+        <v>0.08267054254397133</v>
       </c>
       <c r="K124" t="n">
-        <v>0.042992775456313</v>
+        <v>0.04626400967588144</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06650964209674695</v>
+        <v>0.1289457806015456</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04271043338240382</v>
+        <v>0.0465286830933721</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1078797927393187</v>
+        <v>0.03546041880904049</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04566581565745374</v>
+        <v>0.04714259586833138</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02085634236079639</v>
+        <v>0.03539229885280355</v>
       </c>
       <c r="G125" t="n">
-        <v>0.046362091645579</v>
+        <v>0.04794162291694717</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0295071024121704</v>
+        <v>0.08194996833137061</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04372146656574203</v>
+        <v>0.04704814543309977</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06729080937147733</v>
+        <v>0.1288342067932783</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04343433903295304</v>
+        <v>0.04731730484071739</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1101839352036939</v>
+        <v>0.03539229885280355</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0464398125330038</v>
+        <v>0.04794162291694717</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02092048291931887</v>
+        <v>0.0351129577770103</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04713479317300532</v>
+        <v>0.04874064996556295</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02952367045474409</v>
+        <v>0.08180400638951366</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04445015767517107</v>
+        <v>0.0478322811903181</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06743046140541012</v>
+        <v>0.1290809214230492</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04415824468350225</v>
+        <v>0.04810592658806268</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1108508353214794</v>
+        <v>0.0351129577770103</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04721380940855386</v>
+        <v>0.04874064996556295</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02002922515681184</v>
+        <v>0.03532303393973259</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04790749470043163</v>
+        <v>0.04953967701417874</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02937728923493491</v>
+        <v>0.08163413172617195</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0451788487846001</v>
+        <v>0.04861641694753643</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06822349185856219</v>
+        <v>0.1283880730236717</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04488215033405147</v>
+        <v>0.04889454833540798</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1116672825347498</v>
+        <v>0.03532303393973259</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04798780628410392</v>
+        <v>0.04953967701417874</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02117815698801122</v>
+        <v>0.03492316569904222</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04868019622785796</v>
+        <v>0.05033870406279452</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02967279712918579</v>
+        <v>0.08174181934911715</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04590753989402913</v>
+        <v>0.04940055270475476</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0683647943909505</v>
+        <v>0.1279578101279591</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04560605598460069</v>
+        <v>0.04968317008275326</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1134200662855794</v>
+        <v>0.03492316569904222</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04876180315965399</v>
+        <v>0.05033870406279452</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01936286632765289</v>
+        <v>0.03501399141301099</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04945289775528427</v>
+        <v>0.05113773111141031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02962926085966296</v>
+        <v>0.08112854426612071</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04663623100345817</v>
+        <v>0.05018468846197308</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06924926266259204</v>
+        <v>0.1280922812687247</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04632996163514991</v>
+        <v>0.05047179183009855</v>
       </c>
       <c r="N129" t="n">
-        <v>0.115195976016043</v>
+        <v>0.03501399141301099</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04953580003520405</v>
+        <v>0.05113773111141031</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02057894109047274</v>
+        <v>0.03489614943971078</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05022559928271059</v>
+        <v>0.0519367581600261</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02984669793132037</v>
+        <v>0.08149578148495429</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0473649221128872</v>
+        <v>0.05096882421919141</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06987179033350369</v>
+        <v>0.1269936349787819</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04705386728569912</v>
+        <v>0.05126041357744384</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1158818011682149</v>
+        <v>0.03489614943971078</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05030979691075411</v>
+        <v>0.0519367581600261</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01982196919120667</v>
+        <v>0.0345702781372134</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05099830081013691</v>
+        <v>0.05273578520864188</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0297191165141011</v>
+        <v>0.08104500601338935</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04809361322231624</v>
+        <v>0.05175295997640975</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07032727106370246</v>
+        <v>0.126864019790944</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04777777293624835</v>
+        <v>0.05204903532478913</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1171643311841699</v>
+        <v>0.0345702781372134</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05108379378630418</v>
+        <v>0.05273578520864188</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02208753854459057</v>
+        <v>0.03473701586359065</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05177100233756322</v>
+        <v>0.05353481225725767</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03024052477794816</v>
+        <v>0.08077769285919753</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04882230433174527</v>
+        <v>0.05253709573362807</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07101059851320529</v>
+        <v>0.1263055842380245</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04850167858679756</v>
+        <v>0.05283765707213442</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1186303555059822</v>
+        <v>0.03473701586359065</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05185779066185424</v>
+        <v>0.05353481225725767</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02137123706536034</v>
+        <v>0.03429700097691439</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05254370386498954</v>
+        <v>0.05433383930587345</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03050493089280464</v>
+        <v>0.0807953170301503</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04955099544117431</v>
+        <v>0.05332123149084641</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07211666634202912</v>
+        <v>0.1256204768528365</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04922558423734678</v>
+        <v>0.05362627881947971</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1205666635757264</v>
+        <v>0.03429700097691439</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05263178753740431</v>
+        <v>0.05433383930587345</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02166865266825185</v>
+        <v>0.0343508718352564</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05331640539241585</v>
+        <v>0.05513286635448924</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03050634302861356</v>
+        <v>0.0796993535340193</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05027968655060334</v>
+        <v>0.05410536724806473</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07304036821019086</v>
+        <v>0.1251108461681935</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04994948988789599</v>
+        <v>0.05441490056682501</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1222600448354772</v>
+        <v>0.0343508718352564</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05340578441295436</v>
+        <v>0.05513286635448924</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02297537326800102</v>
+        <v>0.03419926679668854</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05408910691984217</v>
+        <v>0.05593189340310502</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03083876935531799</v>
+        <v>0.07949127737857603</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05100837766003237</v>
+        <v>0.05488950300528306</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07337659777770753</v>
+        <v>0.1241788407169089</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05067339553844521</v>
+        <v>0.05520352231417028</v>
       </c>
       <c r="N135" t="n">
-        <v>0.123297288727309</v>
+        <v>0.03419926679668854</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05417978128850443</v>
+        <v>0.05593189340310502</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02128698677934371</v>
+        <v>0.03404282421928262</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05486180844726849</v>
+        <v>0.05673092045172081</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03139621804286094</v>
+        <v>0.07977256357159207</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0517370687694614</v>
+        <v>0.0556736387625014</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07382024870459603</v>
+        <v>0.123626609031796</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05139730118899443</v>
+        <v>0.05599214406151558</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1235651846932962</v>
+        <v>0.03404282421928262</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0549537781640545</v>
+        <v>0.05673092045172081</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02259908111701586</v>
+        <v>0.03378218246111046</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05563450997469481</v>
+        <v>0.0575299475003366</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03187269726118552</v>
+        <v>0.07914468712083891</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05246575987889044</v>
+        <v>0.05645777451971972</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07486621465087329</v>
+        <v>0.1235562996456681</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05212120683954365</v>
+        <v>0.05678076580886087</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1257505221755136</v>
+        <v>0.03378218246111046</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05572777503960456</v>
+        <v>0.0575299475003366</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0239072441957533</v>
+        <v>0.03371797988024391</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05640721150212111</v>
+        <v>0.05832897454895238</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03196221518023475</v>
+        <v>0.07900912303408822</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05319445098831947</v>
+        <v>0.05724191027693806</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07590938927655633</v>
+        <v>0.1231700610913386</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05284511249009286</v>
+        <v>0.05756938755620616</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1258400906160356</v>
+        <v>0.03371797988024391</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05650177191515462</v>
+        <v>0.05832897454895238</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02420706393029198</v>
+        <v>0.03355085483475478</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05717991302954744</v>
+        <v>0.05912800159756817</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03265877996995166</v>
+        <v>0.07836734631911149</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0539231420977485</v>
+        <v>0.05802604603415638</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07604466624166203</v>
+        <v>0.1219700419016209</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05356901814064208</v>
+        <v>0.05835800930355145</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1268206794569365</v>
+        <v>0.03355085483475478</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05727576879070469</v>
+        <v>0.05912800159756817</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02349412823536777</v>
+        <v>0.03318144568271489</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05795261455697376</v>
+        <v>0.05992702864618395</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03305639980027933</v>
+        <v>0.07832083198368028</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05465183320717754</v>
+        <v>0.0588101817913747</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07686693920620738</v>
+        <v>0.1211583906093281</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05429292379119129</v>
+        <v>0.05914663105089674</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1272790781402912</v>
+        <v>0.03318144568271489</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05804976566625474</v>
+        <v>0.05992702864618395</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02476402502571655</v>
+        <v>0.03301039078219606</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05872531608440007</v>
+        <v>0.06072605569479974</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03314908284116079</v>
+        <v>0.07787105503556613</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05538052431660657</v>
+        <v>0.05959431754859304</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07747110183020933</v>
+        <v>0.1206372557472739</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05501682944174052</v>
+        <v>0.05993525279824202</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1289020761081739</v>
+        <v>0.03301039078219606</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05882376254180481</v>
+        <v>0.06072605569479974</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02301234221607423</v>
+        <v>0.0331383284912701</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05949801761182639</v>
+        <v>0.06152508274341553</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0338308372625391</v>
+        <v>0.07731949048254061</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05610921542603561</v>
+        <v>0.06037845330581137</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07885204777368476</v>
+        <v>0.1201087858482714</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05574073509228974</v>
+        <v>0.06072387454558732</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1286764628026593</v>
+        <v>0.0331383284912701</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05959775941735488</v>
+        <v>0.06152508274341553</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0232346677211767</v>
+        <v>0.03296589716800889</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06027071913925271</v>
+        <v>0.06232410979203131</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03389567123435731</v>
+        <v>0.0770676133323753</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05683790653546464</v>
+        <v>0.0611625890630297</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07890467069665069</v>
+        <v>0.1196751294451341</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05646464074283895</v>
+        <v>0.06151249629293261</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1285890276658219</v>
+        <v>0.03296589716800889</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06037175629290494</v>
+        <v>0.06232410979203131</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.03249373517048422</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06104342066667902</v>
+        <v>0.0631231368406471</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03453759292655847</v>
+        <v>0.07691689859284173</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05756659764489367</v>
+        <v>0.06194672482024803</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0801238642591241</v>
+        <v>0.1186384350706752</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05718854639338816</v>
+        <v>0.0623011180402779</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1300320553757415</v>
+        <v>0.03249373517048422</v>
       </c>
       <c r="O144" t="n">
-        <v>0.061145753168455</v>
+        <v>0.0631231368406471</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02359154467130706</v>
+        <v>0.0325224808567679</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06181612219410534</v>
+        <v>0.06392216388926289</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03485061050908562</v>
+        <v>0.07626882127171145</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05829528875432271</v>
+        <v>0.06273086057746635</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08050452212112183</v>
+        <v>0.1193008512577082</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05791245204393738</v>
+        <v>0.06308973978762319</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1300272465347094</v>
+        <v>0.0325224808567679</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06191975004400507</v>
+        <v>0.06392216388926289</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02475614040703118</v>
+        <v>0.03245277258493177</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06258882372153166</v>
+        <v>0.06472119093787868</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03482873215188183</v>
+        <v>0.07602485637675602</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05902397986375174</v>
+        <v>0.06351499633468469</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08104153794266092</v>
+        <v>0.1174645265390464</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05863635769448661</v>
+        <v>0.06387836153496847</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1291066196620553</v>
+        <v>0.03245277258493177</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06269374691955512</v>
+        <v>0.06472119093787868</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02492251264752998</v>
+        <v>0.03218524871304766</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06336152524895797</v>
+        <v>0.06552021798649446</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03536596602489012</v>
+        <v>0.07608647891574702</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05975267097318077</v>
+        <v>0.06429913209190302</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08162980538375825</v>
+        <v>0.1177316094475032</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05936026334503582</v>
+        <v>0.06466698328231377</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1286703930073858</v>
+        <v>0.03218524871304766</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06346774379510518</v>
+        <v>0.06552021798649446</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02409010613264566</v>
+        <v>0.03192054759918739</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06413422677638429</v>
+        <v>0.06631924503511025</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03535632029805355</v>
+        <v>0.07565516389645596</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06048136208260981</v>
+        <v>0.06508326784912134</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08186421810443081</v>
+        <v>0.1172042485158917</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06008416899558504</v>
+        <v>0.06545560502965905</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1297192726514213</v>
+        <v>0.03192054759918739</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06424174067065526</v>
+        <v>0.06631924503511025</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02625836560222029</v>
+        <v>0.03175930760142277</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0649069283038106</v>
+        <v>0.06711827208372603</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03571118710789177</v>
+        <v>0.07533238632665445</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06121005319203884</v>
+        <v>0.06586740360633968</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08233966976469559</v>
+        <v>0.1154845922770256</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06080807464613425</v>
+        <v>0.06624422677700435</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1285539646748823</v>
+        <v>0.03175930760142277</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06501573754620531</v>
+        <v>0.06711827208372603</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02442673579609607</v>
+        <v>0.03180216707782565</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06567962983123692</v>
+        <v>0.06791729913234182</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03559321541355755</v>
+        <v>0.07451962121411398</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06193874430146788</v>
+        <v>0.06665153936355801</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08287162124181666</v>
+        <v>0.1154747892637181</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06153198029668347</v>
+        <v>0.06703284852434964</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1297751751584895</v>
+        <v>0.03180216707782565</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06578973442175538</v>
+        <v>0.06791729913234182</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02659466145411514</v>
+        <v>0.03144976438646785</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06645233135866324</v>
+        <v>0.0687163261809576</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03589019953543292</v>
+        <v>0.07461834356660613</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06266743541089691</v>
+        <v>0.06743567512077633</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08295039140704422</v>
+        <v>0.1152769880087823</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06225588594723269</v>
+        <v>0.06782147027169494</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1287836101829633</v>
+        <v>0.03144976438646785</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06656373129730545</v>
+        <v>0.0687163261809576</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02476158731611965</v>
+        <v>0.03140273788542119</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06722503288608955</v>
+        <v>0.06951535322957339</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03568552562723266</v>
+        <v>0.07393002839190252</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06339612652032595</v>
+        <v>0.06821981087799467</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08344689615056983</v>
+        <v>0.113693337045032</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06297979159778191</v>
+        <v>0.06861009201904021</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1291799758290242</v>
+        <v>0.03140273788542119</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06733772817285551</v>
+        <v>0.06951535322957339</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02592695812195177</v>
+        <v>0.03136172593275749</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06799773441351586</v>
+        <v>0.07031438027818918</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03607915600152836</v>
+        <v>0.07375615069777458</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06412481762975497</v>
+        <v>0.06900394663521299</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08364274460069229</v>
+        <v>0.1139259563132704</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06370369724833112</v>
+        <v>0.06939871376638551</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1294649781773927</v>
+        <v>0.03136172593275749</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06811172504840557</v>
+        <v>0.07031438027818918</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02709021861145361</v>
+        <v>0.03092736688654858</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06877043594094219</v>
+        <v>0.07111340732680496</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03587105297089153</v>
+        <v>0.0739936410422784</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06485350873918401</v>
+        <v>0.06978808239243132</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08393749031693049</v>
+        <v>0.1133608516775086</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06442760289888035</v>
+        <v>0.0701873355137308</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1283393233087894</v>
+        <v>0.03092736688654858</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06888572192395563</v>
+        <v>0.07111340732680496</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02525081352446736</v>
+        <v>0.03100029910486628</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0695431374683685</v>
+        <v>0.07191243437542075</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03596117884789372</v>
+        <v>0.07303808319449501</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06558219984861305</v>
+        <v>0.07057221814964965</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08443068685880334</v>
+        <v>0.1125852929097581</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06515150854942955</v>
+        <v>0.07097595726107608</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1280037173039347</v>
+        <v>0.03100029910486628</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06965971879950569</v>
+        <v>0.07191243437542075</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02640818760083515</v>
+        <v>0.03098116094578242</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07031583899579483</v>
+        <v>0.07271146142403653</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03604949594510651</v>
+        <v>0.07278900639603481</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06631089095804207</v>
+        <v>0.07135635390686798</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08452188778582972</v>
+        <v>0.111799578305299</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06587541419997878</v>
+        <v>0.07176457900842138</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1290588662435492</v>
+        <v>0.03098116094578242</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07043371567505576</v>
+        <v>0.07271146142403653</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02756178558039914</v>
+        <v>0.03056882635832629</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07108854052322114</v>
+        <v>0.07351048847265232</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03613596657510136</v>
+        <v>0.07274593992493364</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06703958206747111</v>
+        <v>0.0721404896640863</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08471064665752859</v>
+        <v>0.1109040061594122</v>
       </c>
       <c r="M157" t="n">
-        <v>0.066599319850528</v>
+        <v>0.07255320075576666</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1280054762083534</v>
+        <v>0.03056882635832629</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07120771255060583</v>
+        <v>0.07351048847265232</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02571105220300146</v>
+        <v>0.03076026170275754</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07186124205064745</v>
+        <v>0.0743095155212681</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03652055305044986</v>
+        <v>0.0727084130592274</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06776827317690015</v>
+        <v>0.07292462542130464</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08469651703341877</v>
+        <v>0.1112988747673778</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06732322550107721</v>
+        <v>0.07334182250311196</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1276442532790678</v>
+        <v>0.03076026170275754</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07198170942615588</v>
+        <v>0.0743095155212681</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02585543220848431</v>
+        <v>0.03055517417188647</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07263394357807378</v>
+        <v>0.07510854256988389</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03660321768372353</v>
+        <v>0.07277595507695192</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06849696428632918</v>
+        <v>0.07370876117852297</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08507905247301917</v>
+        <v>0.1108844824244763</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06804713115162643</v>
+        <v>0.07413044425045724</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1278759035364129</v>
+        <v>0.03055517417188647</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07275570630170596</v>
+        <v>0.07510854256988389</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02799437033668978</v>
+        <v>0.03055333198184221</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07340664510550009</v>
+        <v>0.07590756961849968</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03638392278749394</v>
+        <v>0.0724480952561431</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06922565539575821</v>
+        <v>0.07449289693574129</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08585780653584871</v>
+        <v>0.1101611274259882</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06877103680217564</v>
+        <v>0.07491906599780254</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1275011330611093</v>
+        <v>0.03055333198184221</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07352970317725602</v>
+        <v>0.07590756961849968</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02812731132746005</v>
+        <v>0.03015450334875391</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0741793466329264</v>
+        <v>0.07670659666711546</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03656263067433257</v>
+        <v>0.07162436287483676</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06995434650518725</v>
+        <v>0.07527703269295963</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08563233278142632</v>
+        <v>0.1086291080671939</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06949494245272486</v>
+        <v>0.07570768774514783</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1274206479338774</v>
+        <v>0.03015450334875391</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07430370005280607</v>
+        <v>0.07670659666711546</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02825369992063728</v>
+        <v>0.03015845648875064</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07495204816035272</v>
+        <v>0.07750562371573125</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03663930365681103</v>
+        <v>0.07130428721106877</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07068303761461629</v>
+        <v>0.07606116845017796</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08640218476927083</v>
+        <v>0.107788722643374</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07021884810327407</v>
+        <v>0.07649630949249313</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1280351542354378</v>
+        <v>0.03015845648875064</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07507769692835614</v>
+        <v>0.07750562371573125</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02837298085606361</v>
+        <v>0.03026495961796159</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07572474968777904</v>
+        <v>0.07830465076434703</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03661390404750084</v>
+        <v>0.071487397542875</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07141172872404533</v>
+        <v>0.07684530420739628</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08626691605890116</v>
+        <v>0.1071402694498087</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07094275375382331</v>
+        <v>0.0772849312398384</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1268453580465109</v>
+        <v>0.03026495961796159</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0758516938039062</v>
+        <v>0.07830465076434703</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02848459887358118</v>
+        <v>0.03017378095251587</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07649745121520535</v>
+        <v>0.07910367781296282</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03698639415897348</v>
+        <v>0.07097322314829135</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07214041983347436</v>
+        <v>0.07762943996461462</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08612608020983628</v>
+        <v>0.1072840467817785</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07166665940437252</v>
+        <v>0.0780735529871837</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1271519654478173</v>
+        <v>0.03017378095251587</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07662569067945628</v>
+        <v>0.07910367781296282</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02658799871303215</v>
+        <v>0.02978468870854259</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07727015274263167</v>
+        <v>0.07990270486157861</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03675673630380055</v>
+        <v>0.07116129330535367</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0728691109429034</v>
+        <v>0.07841357572183295</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08687923078159501</v>
+        <v>0.1068203529345638</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07239056505492174</v>
+        <v>0.07886217473452899</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1265556825200775</v>
+        <v>0.02978468870854259</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07739968755500633</v>
+        <v>0.07990270486157861</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02768262511425867</v>
+        <v>0.02969745110217085</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07804285427005798</v>
+        <v>0.08070173191019439</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03702489279455355</v>
+        <v>0.07125113729209781</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07359780205233242</v>
+        <v>0.07919771147905127</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08672592133369622</v>
+        <v>0.1059494862034452</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07311447070547095</v>
+        <v>0.07965079648187427</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1264572153440121</v>
+        <v>0.02969745110217085</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07817368443055639</v>
+        <v>0.08070173191019439</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02876792281710289</v>
+        <v>0.02991183634952982</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0788155557974843</v>
+        <v>0.08150075895881018</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03719082594380407</v>
+        <v>0.07084228438655962</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07432649316176146</v>
+        <v>0.07998184723626961</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08726570542565887</v>
+        <v>0.1050717448837031</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07383837635602016</v>
+        <v>0.08043941822921957</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1264572700003415</v>
+        <v>0.02991183634952982</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07894768130610647</v>
+        <v>0.08150075895881018</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02884333656140696</v>
+        <v>0.02982761266674862</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07958825732491062</v>
+        <v>0.08229978600742596</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03705449806412359</v>
+        <v>0.07043426386677498</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0750551842711905</v>
+        <v>0.08076598299348794</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08719813661700188</v>
+        <v>0.1048874272706177</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07456228200656939</v>
+        <v>0.08122803997656484</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1260565525697862</v>
+        <v>0.02982761266674862</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07972167818165651</v>
+        <v>0.08229978600742596</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02790831108701305</v>
+        <v>0.02964454826995638</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08036095885233695</v>
+        <v>0.08309881305604175</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03711587146808369</v>
+        <v>0.07052660501077981</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07578387538061952</v>
+        <v>0.08155011875070627</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08792276846724406</v>
+        <v>0.1031968316594697</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0752861876571186</v>
+        <v>0.08201666172391014</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1257557691330668</v>
+        <v>0.02964454826995638</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08049567505720659</v>
+        <v>0.08309881305604175</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02896229113376329</v>
+        <v>0.0295624113752822</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08113366037976326</v>
+        <v>0.08389784010465753</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0372749084682559</v>
+        <v>0.07021883709660987</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07651256649004856</v>
+        <v>0.0823342545079246</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08803915453590441</v>
+        <v>0.1036002563455394</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07601009330766782</v>
+        <v>0.08280528347125543</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1256556257709038</v>
+        <v>0.0295624113752822</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08126967193275665</v>
+        <v>0.08389784010465753</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02700472144149983</v>
+        <v>0.02958097019885528</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08190636190718957</v>
+        <v>0.08469686715327332</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03713157137721176</v>
+        <v>0.06951048940230103</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0772412575994776</v>
+        <v>0.08311839026514294</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08794684838250175</v>
+        <v>0.1016979996241074</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07673399895821703</v>
+        <v>0.08359390521860073</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1254568285640176</v>
+        <v>0.02958097019885528</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08204366880830671</v>
+        <v>0.08469686715327332</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02803504675006482</v>
+        <v>0.02949999295680464</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0826790634346159</v>
+        <v>0.08549589420188912</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03718582250752278</v>
+        <v>0.0692010912058893</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07796994870890663</v>
+        <v>0.08390252602236126</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08854540356655499</v>
+        <v>0.1013903597904539</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07745790460876625</v>
+        <v>0.08438252696594602</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1250595925324737</v>
+        <v>0.02949999295680464</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08281766568385678</v>
+        <v>0.08549589420188912</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02705271179930042</v>
+        <v>0.02911924786525948</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08345176496204221</v>
+        <v>0.08629492125050491</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03753762417176054</v>
+        <v>0.06899017178541042</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07869863981833566</v>
+        <v>0.08468666177957958</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08823437364758308</v>
+        <v>0.1002776351398594</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07818181025931546</v>
+        <v>0.0851711487132913</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1247564254742778</v>
+        <v>0.02911924786525948</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08359166255940684</v>
+        <v>0.08629492125050491</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02705701597153408</v>
+        <v>0.02903850314034889</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08422446648946852</v>
+        <v>0.08709394829912069</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03738693868249657</v>
+        <v>0.06877726041890025</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0794273309277647</v>
+        <v>0.08547079753679791</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08911331218510485</v>
+        <v>0.09966012396760449</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07890571590986468</v>
+        <v>0.08595977046063659</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1246446435554154</v>
+        <v>0.02903850314034889</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0843656594349569</v>
+        <v>0.08709394829912069</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02804139219958811</v>
+        <v>0.02925752699820203</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08499716801689484</v>
+        <v>0.08789297534773648</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03753372835230238</v>
+        <v>0.06906188638439473</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08015602203719373</v>
+        <v>0.08625493329401623</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08898177273863928</v>
+        <v>0.09873812456896947</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07962962156041391</v>
+        <v>0.08674839220798188</v>
       </c>
       <c r="N175" t="n">
-        <v>0.124324336069395</v>
+        <v>0.02925752699820203</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08513965631050696</v>
+        <v>0.08789297534773648</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02700335069922914</v>
+        <v>0.02917608765494799</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08576986954432116</v>
+        <v>0.08869200239635226</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03757795549374955</v>
+        <v>0.06904357895992966</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08088471314662277</v>
+        <v>0.08703906905123457</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08883930886770516</v>
+        <v>0.09831193523923487</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08035352721096312</v>
+        <v>0.08753701395532718</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1248955923097249</v>
+        <v>0.02917608765494799</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08591365318605704</v>
+        <v>0.08869200239635226</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02694402321686123</v>
+        <v>0.02879395332671594</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08654257107174747</v>
+        <v>0.08949102944496805</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03761958241940958</v>
+        <v>0.06842186742354089</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08161340425605179</v>
+        <v>0.0878232048084529</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08888547413182146</v>
+        <v>0.09858185427368105</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08107743286151234</v>
+        <v>0.08832563570267246</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1242585015699139</v>
+        <v>0.02879395332671594</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08668765006160709</v>
+        <v>0.08949102944496805</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02686454149888845</v>
+        <v>0.02871089222963498</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08731527259917379</v>
+        <v>0.09029005649358383</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03755857144185405</v>
+        <v>0.06829628105326435</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08234209536548083</v>
+        <v>0.08860734056567122</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08911982209050706</v>
+        <v>0.09704817996758835</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08180133851206155</v>
+        <v>0.08911425745001776</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1236131531434701</v>
+        <v>0.02871089222963498</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08746164693715715</v>
+        <v>0.09029005649358383</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02676603729171488</v>
+        <v>0.02862667257983421</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0880879741266001</v>
+        <v>0.09108908354219962</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03779488487365446</v>
+        <v>0.06806634912713586</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08307078647490987</v>
+        <v>0.08939147632288956</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08974190630328091</v>
+        <v>0.09691121061623753</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08252524416261077</v>
+        <v>0.08990287919736305</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1244596363239023</v>
+        <v>0.02862667257983421</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08823564381270722</v>
+        <v>0.09108908354219962</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02864964234174454</v>
+        <v>0.02864106259344282</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08886067565402642</v>
+        <v>0.09188811059081541</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03772848502738237</v>
+        <v>0.06803160092319133</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08379947758433889</v>
+        <v>0.09017561208010788</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08915128032966183</v>
+        <v>0.09537124451490864</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08324914981315999</v>
+        <v>0.09069150094470833</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1234980404047188</v>
+        <v>0.02864106259344282</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08900964068825727</v>
+        <v>0.09188811059081541</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02751648839538151</v>
+        <v>0.02855383048658987</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08963337718145274</v>
+        <v>0.09268713763943119</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0378593342156093</v>
+        <v>0.06759156571946656</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08452816869376793</v>
+        <v>0.09095974783732622</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09004749772916873</v>
+        <v>0.09442857995888237</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08397305546370921</v>
+        <v>0.09148012269205362</v>
       </c>
       <c r="N181" t="n">
-        <v>0.122828454679428</v>
+        <v>0.02855383048658987</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08978363756380735</v>
+        <v>0.09268713763943119</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02736770719902987</v>
+        <v>0.02856474447540454</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09040607870887905</v>
+        <v>0.09348616468804698</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03788739475090683</v>
+        <v>0.06754577279399748</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08525685980319697</v>
+        <v>0.09174388359454455</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08963011206132054</v>
+        <v>0.09358351524343905</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08469696111425842</v>
+        <v>0.09226874443939892</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1236509684415386</v>
+        <v>0.02856474447540454</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09055763443935741</v>
+        <v>0.09348616468804698</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02820443049909367</v>
+        <v>0.02847357277601593</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09117878023630537</v>
+        <v>0.09428519173666276</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03781262894584646</v>
+        <v>0.06669375142481995</v>
       </c>
       <c r="K183" t="n">
-        <v>0.085985550912626</v>
+        <v>0.09252801935176287</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08949867688563617</v>
+        <v>0.09413634866385917</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08542086676480765</v>
+        <v>0.09305736618674421</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1230656709845587</v>
+        <v>0.02847357277601593</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09133163131490747</v>
+        <v>0.09428519173666276</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02602779004197694</v>
+        <v>0.02838008360455319</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09195148176373169</v>
+        <v>0.09508421878527855</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03763499911299972</v>
+        <v>0.06673503088996977</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08671424202205504</v>
+        <v>0.09331215510898121</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09025274576163447</v>
+        <v>0.09278737851542312</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08614477241535685</v>
+        <v>0.09384598793408949</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1229726516019973</v>
+        <v>0.02838008360455319</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09210562819045753</v>
+        <v>0.09508421878527855</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02583891757408381</v>
+        <v>0.02838404517714543</v>
       </c>
       <c r="G185" t="n">
-        <v>0.092724183291158</v>
+        <v>0.09588324583389433</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03775446756493819</v>
+        <v>0.06616914046748285</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08744293313148406</v>
+        <v>0.09409629086619954</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08979187224883436</v>
+        <v>0.09203690309341134</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08686867806590608</v>
+        <v>0.09463460968143478</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1221719995873624</v>
+        <v>0.02838404517714543</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0928796250660076</v>
+        <v>0.09588324583389433</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02763894484181831</v>
+        <v>0.02828522570992177</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09349688481858431</v>
+        <v>0.09668227288251012</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03797099661423339</v>
+        <v>0.06639560943539508</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0881716242409131</v>
+        <v>0.09488042662341786</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08971560990675478</v>
+        <v>0.09058522069310432</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0875925837164553</v>
+        <v>0.09542323142878006</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1222638042341626</v>
+        <v>0.02828522570992177</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09365362194155766</v>
+        <v>0.09668227288251012</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02642900359158448</v>
+        <v>0.02788339341901135</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09426958634601064</v>
+        <v>0.09748129993112591</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03768454857345685</v>
+        <v>0.0663139670717422</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08890031535034214</v>
+        <v>0.0956645623806362</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09002350956481661</v>
+        <v>0.09093262960978254</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08831648936700451</v>
+        <v>0.09621185317612536</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1210481548359065</v>
+        <v>0.02788339341901135</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09442761881710772</v>
+        <v>0.09748129993112591</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0262102255697864</v>
+        <v>0.02787831652054326</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09504228787343696</v>
+        <v>0.09828032697974169</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03779508575518012</v>
+        <v>0.06582374265456026</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08962900645977116</v>
+        <v>0.09644869813785453</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08968834324625752</v>
+        <v>0.08957942813872616</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08904039501755373</v>
+        <v>0.09700047492347065</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1205251406861024</v>
+        <v>0.02787831652054326</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0952016156926578</v>
+        <v>0.09828032697974169</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02598374252282813</v>
+        <v>0.02786976323064669</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09581498940086326</v>
+        <v>0.09907935402835748</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03770257047197474</v>
+        <v>0.06552446546188498</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0903576975692002</v>
+        <v>0.09723283389507285</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09018645254651134</v>
+        <v>0.08952591457521603</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08976430066810294</v>
+        <v>0.09778909667081595</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1206948510782589</v>
+        <v>0.02786976323064669</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09597561256820784</v>
+        <v>0.09907935402835748</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02575068619711375</v>
+        <v>0.0276575017654507</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09658769092828959</v>
+        <v>0.09987838107697326</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03770696503641224</v>
+        <v>0.0648156647717523</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09108638867862924</v>
+        <v>0.09801696965229119</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08982113243649495</v>
+        <v>0.08877238721453223</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09048820631865216</v>
+        <v>0.09857771841816124</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1201573753058845</v>
+        <v>0.0276575017654507</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09674960944375792</v>
+        <v>0.09987838107697326</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02451218833904731</v>
+        <v>0.0274413003410845</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09736039245571591</v>
+        <v>0.100677408125589</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03770807850944863</v>
+        <v>0.06509686986219806</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09181507978805827</v>
+        <v>0.09880110540950952</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08929567788712514</v>
+        <v>0.08771914435195538</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09121211196920138</v>
+        <v>0.09936634016550652</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1195128026624875</v>
+        <v>0.0274413003410845</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09752360631930798</v>
+        <v>0.100677408125589</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02426938069503286</v>
+        <v>0.02732092717367714</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09813309398314222</v>
+        <v>0.1014764351742048</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03778750949062203</v>
+        <v>0.06416761001125812</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0925437708974873</v>
+        <v>0.09958524116672784</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08881338386931878</v>
+        <v>0.08616648428276591</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09193601761975061</v>
+        <v>0.1001549619128518</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1192612224415766</v>
+        <v>0.02732092717367714</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09829760319485803</v>
+        <v>0.1014764351742048</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02602339501147446</v>
+        <v>0.02729615047935775</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09890579551056854</v>
+        <v>0.1022754622228206</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0376341321751789</v>
+        <v>0.06402741449696836</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09327246200691634</v>
+        <v>0.1003693769239462</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08837754535399273</v>
+        <v>0.08601470530224414</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09265992327029982</v>
+        <v>0.1009435836601971</v>
       </c>
       <c r="N193" t="n">
-        <v>0.11880272393666</v>
+        <v>0.02729615047935775</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09907160007040811</v>
+        <v>0.1022754622228206</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0247753630347762</v>
+        <v>0.02716673847425551</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09967849703799486</v>
+        <v>0.1030744892714364</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03775013122530008</v>
+        <v>0.06387581259736461</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09400115311634537</v>
+        <v>0.1011535126811645</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08869145731206379</v>
+        <v>0.08516410570567068</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09338382892084902</v>
+        <v>0.1017322054075424</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1193373964412463</v>
+        <v>0.02716673847425551</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09984559694595817</v>
+        <v>0.1030744892714364</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02352641651134214</v>
+        <v>0.0270324593744995</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1004511985654212</v>
+        <v>0.1038735163200522</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03753769130316639</v>
+        <v>0.0633123335904828</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09472984422577441</v>
+        <v>0.1019376484383828</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08795841471444876</v>
+        <v>0.08451498378832578</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09410773457139825</v>
+        <v>0.1025208271548877</v>
       </c>
       <c r="N195" t="n">
-        <v>0.118065329248844</v>
+        <v>0.0270324593744995</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1006195938215082</v>
+        <v>0.1038735163200522</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02527768718757632</v>
+        <v>0.02689308139621889</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1012239000928475</v>
+        <v>0.104672543368668</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03759899707095875</v>
+        <v>0.06333650675435873</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09545853533520343</v>
+        <v>0.1027217841956012</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08768171253206455</v>
+        <v>0.08346763784548999</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09483164022194747</v>
+        <v>0.103309448902233</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1180866116529616</v>
+        <v>0.02689308139621889</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1013935906970583</v>
+        <v>0.104672543368668</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0250303068098828</v>
+        <v>0.02664837275554276</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1019966016202738</v>
+        <v>0.1054715704172838</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03713623319085796</v>
+        <v>0.06234786136702827</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09618722644463247</v>
+        <v>0.1035059199528195</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08716464573582797</v>
+        <v>0.08342236617244381</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09555554587249669</v>
+        <v>0.1040980706495783</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1176013329471075</v>
+        <v>0.02664837275554276</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1021675875726084</v>
+        <v>0.1054715704172838</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02378540712466566</v>
+        <v>0.02649810166860025</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1027693031477001</v>
+        <v>0.1062705974658995</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03715158432504485</v>
+        <v>0.06224592670652734</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09691591755406151</v>
+        <v>0.1042900557100378</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08681050929665585</v>
+        <v>0.08157946706446745</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0962794515230459</v>
+        <v>0.1048866923969236</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1178095824247901</v>
+        <v>0.02649810166860025</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1029415844481584</v>
+        <v>0.1062705974658995</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02354411987832897</v>
+        <v>0.02634203635152053</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1035420046751264</v>
+        <v>0.1070696245145153</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03684723513570033</v>
+        <v>0.06193023205089179</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09764460866349053</v>
+        <v>0.1050741914672561</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08622259818546504</v>
+        <v>0.08173923881684164</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09700335717359512</v>
+        <v>0.1056753141442688</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1169114493795181</v>
+        <v>0.02634203635152053</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1037155813237085</v>
+        <v>0.1070696245145153</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02330757681727677</v>
+        <v>0.02636610744189294</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1043147062025528</v>
+        <v>0.1078686515631311</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03682537028500522</v>
+        <v>0.06130030667815745</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09837329977291957</v>
+        <v>0.1058583272244745</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08520420737317233</v>
+        <v>0.08110196789505097</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09772726282414433</v>
+        <v>0.1064639358916141</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1171070231047997</v>
+        <v>0.02636610744189294</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1044895781992586</v>
+        <v>0.1078686515631311</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02207690968791312</v>
+        <v>0.02615544798355991</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1050874077299791</v>
+        <v>0.1086676786117469</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03658817443514038</v>
+        <v>0.06075552264186723</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09910199088234861</v>
+        <v>0.1066424629816928</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08485863183069467</v>
+        <v>0.08065652171222465</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09845116847469355</v>
+        <v>0.1072525576389594</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1163963928941436</v>
+        <v>0.02615544798355991</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1052635750748086</v>
+        <v>0.1086676786117469</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0228532502366421</v>
+        <v>0.02571299833656741</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1058601092574054</v>
+        <v>0.1094667056603627</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03623783224828667</v>
+        <v>0.06012469501129586</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09983068199177764</v>
+        <v>0.1074265987389111</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08388916652894876</v>
+        <v>0.07969472536731909</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09917507412524278</v>
+        <v>0.1080411793863047</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1153796480410582</v>
+        <v>0.02571299833656741</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1060375719503587</v>
+        <v>0.1094667056603627</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02363773020986779</v>
+        <v>0.0254417355020676</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1066328107848317</v>
+        <v>0.1102657327089785</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03587652838662489</v>
+        <v>0.06005795162522146</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1005593731012067</v>
+        <v>0.1082107344961295</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08339910643885151</v>
+        <v>0.07841919006869408</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09989897977579199</v>
+        <v>0.10882980113365</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1155568778390518</v>
+        <v>0.0254417355020676</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1068115688259087</v>
+        <v>0.1102657327089785</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0214314813539942</v>
+        <v>0.02534463648121281</v>
       </c>
       <c r="G204" t="n">
-        <v>0.107405512312258</v>
+        <v>0.1110647597575943</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03580644751233597</v>
+        <v>0.05926804575763669</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1012880642106357</v>
+        <v>0.1089948702533478</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08259174653131979</v>
+        <v>0.07813252702470941</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1006228854263412</v>
+        <v>0.1096184228809953</v>
       </c>
       <c r="N204" t="n">
-        <v>0.115128171581633</v>
+        <v>0.02534463648121281</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1075855657014588</v>
+        <v>0.1110647597575943</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02323563541542543</v>
+        <v>0.02492467827515529</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1081782138396843</v>
+        <v>0.11186378680621</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03552977428760071</v>
+        <v>0.05766773068253442</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1020167553200647</v>
+        <v>0.1097790060105661</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08187038177727035</v>
+        <v>0.07653734744372487</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1013467910768904</v>
+        <v>0.1104070446283406</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1144936185623104</v>
+        <v>0.02492467827515529</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1083595625770089</v>
+        <v>0.11186378680621</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02205132414056553</v>
+        <v>0.02478483788504726</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1089509153671107</v>
+        <v>0.1126628138548258</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03514869337459997</v>
+        <v>0.05676975967390721</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1027454464294938</v>
+        <v>0.1105631417677845</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08093830714762007</v>
+        <v>0.07663626253410016</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1020706967274396</v>
+        <v>0.1111956663756859</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1148533080745923</v>
+        <v>0.02478483788504726</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1091335594525589</v>
+        <v>0.1126628138548258</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02187967927581858</v>
+        <v>0.02422809231204098</v>
       </c>
       <c r="G207" t="n">
-        <v>0.109723616894537</v>
+        <v>0.1134618409034416</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0347653894355146</v>
+        <v>0.05618688600574787</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1034741375389228</v>
+        <v>0.1113472775250028</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08039881761328582</v>
+        <v>0.0755318835041951</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1027946023779889</v>
+        <v>0.1119842881230312</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1139073294119872</v>
+        <v>0.02422809231204098</v>
       </c>
       <c r="O207" t="n">
-        <v>0.109907556328109</v>
+        <v>0.1134618409034416</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02172182641231124</v>
+        <v>0.02395741855728876</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1104963184219633</v>
+        <v>0.1142608679520574</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03458204713252545</v>
+        <v>0.05503186295204912</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1042028286483518</v>
+        <v>0.1121314132822211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07955520814518438</v>
+        <v>0.07432682156236936</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1035185080285381</v>
+        <v>0.1127729098703764</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1129553454800075</v>
+        <v>0.02395741855728876</v>
       </c>
       <c r="O208" t="n">
-        <v>0.110681553203659</v>
+        <v>0.1142608679520574</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02157112368500536</v>
+        <v>0.02357579362194279</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1112690199493896</v>
+        <v>0.1150598950006732</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0341008511278134</v>
+        <v>0.05341744378680371</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1049315197577809</v>
+        <v>0.1129155490394394</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07921077371423263</v>
+        <v>0.07332368791698274</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1042424136790873</v>
+        <v>0.1135615316177217</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1123920251076382</v>
+        <v>0.02357579362194279</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1114555500792091</v>
+        <v>0.1150598950006732</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02242101108532409</v>
+        <v>0.02308619450715536</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1120417214768159</v>
+        <v>0.115858922049289</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03412398608355927</v>
+        <v>0.05255638178400424</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1056602108672099</v>
+        <v>0.1136996847966578</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07766880929134737</v>
+        <v>0.07282509377639507</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1049663193296365</v>
+        <v>0.114350153365067</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1126158182111724</v>
+        <v>0.02308619450715536</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1122295469547592</v>
+        <v>0.115858922049289</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0222715099171555</v>
+        <v>0.02269159821407873</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1128144230042422</v>
+        <v>0.1166579490979048</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03385363666194391</v>
+        <v>0.05076143021764354</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1063889019766389</v>
+        <v>0.1144838205538761</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07763260984744547</v>
+        <v>0.07193365034896604</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1056902249801857</v>
+        <v>0.1151387751124123</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1121268207106546</v>
+        <v>0.02269159821407873</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1130035438303092</v>
+        <v>0.1166579490979048</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0221226414843876</v>
+        <v>0.02229498174386516</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1135871245316686</v>
+        <v>0.1174569761465206</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0332919875251482</v>
+        <v>0.05014534236171431</v>
       </c>
       <c r="K212" t="n">
-        <v>0.107117593086068</v>
+        <v>0.1152679563110944</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07680547035344376</v>
+        <v>0.07185196884305545</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1064141306307349</v>
+        <v>0.1159273968597576</v>
       </c>
       <c r="N212" t="n">
-        <v>0.111925128526129</v>
+        <v>0.02229498174386516</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1137775407058593</v>
+        <v>0.1174569761465206</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02097442709090842</v>
+        <v>0.02179932209766688</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1143598260590949</v>
+        <v>0.1182560031951363</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03324122333535294</v>
+        <v>0.04852087149020928</v>
       </c>
       <c r="K213" t="n">
-        <v>0.107846284195497</v>
+        <v>0.1160520920683128</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07549068578025908</v>
+        <v>0.07078266046702297</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1071380362812842</v>
+        <v>0.1167160186071029</v>
       </c>
       <c r="N213" t="n">
-        <v>0.11091083757764</v>
+        <v>0.02179932209766688</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1145515375814094</v>
+        <v>0.1182560031951363</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02182688804060601</v>
+        <v>0.02150759627663616</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1151325275865212</v>
+        <v>0.1190550302437521</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03290352875473905</v>
+        <v>0.04740077087712116</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1085749753049261</v>
+        <v>0.1168362278255311</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07489155109880821</v>
+        <v>0.06912833642922844</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1078619419318334</v>
+        <v>0.1175046403544482</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1099840437852319</v>
+        <v>0.02150759627663616</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1153255344569594</v>
+        <v>0.1190550302437521</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02068004563736839</v>
+        <v>0.02122278128192527</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1159052291139475</v>
+        <v>0.1198540572923679</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03268108844548732</v>
+        <v>0.04609779379644266</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1093036664143551</v>
+        <v>0.1176203635827494</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0742113612800081</v>
+        <v>0.06859160793803171</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1085858475823826</v>
+        <v>0.1182932621017935</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1104448430689491</v>
+        <v>0.02122278128192527</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1160995313325095</v>
+        <v>0.1198540572923679</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0205339211850836</v>
+        <v>0.02084785411468645</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1166779306413738</v>
+        <v>0.1206530843409837</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03267608706977865</v>
+        <v>0.04422469352216649</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1100323575237841</v>
+        <v>0.1184044993399678</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07405341129477544</v>
+        <v>0.0676750862017923</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1093097532329318</v>
+        <v>0.1190818838491388</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1098933313488359</v>
+        <v>0.02084785411468645</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1168735282080596</v>
+        <v>0.1206530843409837</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02138853598763966</v>
+        <v>0.02038579177607198</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1174506321688001</v>
+        <v>0.1214521113895995</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03239070928979385</v>
+        <v>0.04309422332828541</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1107610486332131</v>
+        <v>0.1191886350971861</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07332099611402723</v>
+        <v>0.06798138242887014</v>
       </c>
       <c r="M217" t="n">
-        <v>0.110033658883481</v>
+        <v>0.119870505596484</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1088296045449368</v>
+        <v>0.02038579177607198</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1176475250836096</v>
+        <v>0.1214521113895995</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02124391134892461</v>
+        <v>0.0199395712672341</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1182233336962265</v>
+        <v>0.1222511384382153</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03202713976771381</v>
+        <v>0.04201913648879213</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1114897397426422</v>
+        <v>0.1199727708544044</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07291695793411196</v>
+        <v>0.066413107827625</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1107575645340303</v>
+        <v>0.1206591273438293</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1079537585772959</v>
+        <v>0.0199395712672341</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1184215219591597</v>
+        <v>0.1222511384382153</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01910006857282649</v>
+        <v>0.01961216958932505</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1189960352236528</v>
+        <v>0.1230501654868311</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03188756316571935</v>
+        <v>0.04131218627767938</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1122184308520712</v>
+        <v>0.1207569066116227</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07182240209467364</v>
+        <v>0.06566948437361214</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1114814701845795</v>
+        <v>0.1214477490911746</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1076658893659579</v>
+        <v>0.01961216958932505</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1191955188347098</v>
+        <v>0.1230501654868311</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02095702896323332</v>
+        <v>0.0196065637434971</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1197687367510791</v>
+        <v>0.1238491925354468</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03187158519536244</v>
+        <v>0.04028612596893982</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1129471219615003</v>
+        <v>0.1215410423688411</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07172594504590335</v>
+        <v>0.06603179773034551</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1122053758351287</v>
+        <v>0.1222363708385199</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1070660928309668</v>
+        <v>0.0196065637434971</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1199695157102598</v>
+        <v>0.1238491925354468</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02081481382403313</v>
+        <v>0.0191257307309025</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1205414382785054</v>
+        <v>0.1246482195840626</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03196015005903038</v>
+        <v>0.03915370883656627</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1136758130709293</v>
+        <v>0.1223251781260594</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07042757931356369</v>
+        <v>0.06529689537909922</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1129292814856779</v>
+        <v>0.1230249925858652</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1069544648923672</v>
+        <v>0.0191257307309025</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1207435125858099</v>
+        <v>0.1246482195840626</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02067344445911398</v>
+        <v>0.01887264755269354</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1213141398059317</v>
+        <v>0.1254472466326784</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03174904441149637</v>
+        <v>0.03792768815455136</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1144045041803583</v>
+        <v>0.1231093138832777</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07032729742341737</v>
+        <v>0.06396493522703367</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1136531871362271</v>
+        <v>0.1238136143332105</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1051311014702033</v>
+        <v>0.01887264755269354</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1215175094613599</v>
+        <v>0.1254472466326784</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01953294217236387</v>
+        <v>0.01865029121002243</v>
       </c>
       <c r="G223" t="n">
-        <v>0.122086841333358</v>
+        <v>0.1262462736812942</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03153837330401207</v>
+        <v>0.0376208171968879</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1151331952897873</v>
+        <v>0.1238934496404961</v>
       </c>
       <c r="L223" t="n">
-        <v>0.069225091901227</v>
+        <v>0.0641360751813092</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1143770927867763</v>
+        <v>0.1246022360805558</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1051960984845195</v>
+        <v>0.01865029121002243</v>
       </c>
       <c r="O223" t="n">
-        <v>0.12229150633691</v>
+        <v>0.1262462736812942</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01839332826767084</v>
+        <v>0.01866163870404147</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1228595428607843</v>
+        <v>0.12704530072991</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03132824178782918</v>
+        <v>0.03654584923756854</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1158618863992164</v>
+        <v>0.1246775853977144</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06872095527275521</v>
+        <v>0.06291047314908649</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1151009984373255</v>
+        <v>0.1253908578279011</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1039495518553603</v>
+        <v>0.01866163870404147</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1230655032124601</v>
+        <v>0.12704530072991</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01925462404892293</v>
+        <v>0.0184096670359029</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1236322443882107</v>
+        <v>0.1278443277785258</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0312187549141993</v>
+        <v>0.03611553755058605</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1165905775086454</v>
+        <v>0.1254617211549327</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06841488006376467</v>
+        <v>0.06258828703752584</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1158249040878748</v>
+        <v>0.1261794795752464</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1038915575027697</v>
+        <v>0.0184096670359029</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1238395000880101</v>
+        <v>0.1278443277785258</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02011685082000818</v>
+        <v>0.01827790566765072</v>
       </c>
       <c r="G226" t="n">
-        <v>0.124404945915637</v>
+        <v>0.1286433548271415</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0312100177343741</v>
+        <v>0.03582775667342344</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1173192686180745</v>
+        <v>0.126245856912151</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06750685880001805</v>
+        <v>0.06156967475378772</v>
       </c>
       <c r="M226" t="n">
-        <v>0.116548809738424</v>
+        <v>0.1269681013225917</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1029222113467924</v>
+        <v>0.01827790566765072</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1246134969635602</v>
+        <v>0.1286433548271415</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01998002988481461</v>
+        <v>0.01814755850123533</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1251776474430633</v>
+        <v>0.1294423818757574</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03100213529960527</v>
+        <v>0.03577078026698066</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1180479597275035</v>
+        <v>0.1270299926693694</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0675968840072779</v>
+        <v>0.0612547942050326</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1172727153889732</v>
+        <v>0.1277567230699369</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1026416093074725</v>
+        <v>0.01814755850123533</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1253874938391102</v>
+        <v>0.1294423818757574</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01984418254723024</v>
+        <v>0.01801873211578407</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1259503489704896</v>
+        <v>0.1302414089243731</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03089521266114444</v>
+        <v>0.03561913507946152</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1187766508369325</v>
+        <v>0.1278141284265877</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06648494821130699</v>
+        <v>0.06004380329842091</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1179966210395224</v>
+        <v>0.1285453448172822</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1015498473048545</v>
+        <v>0.01801873211578407</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1261614907146603</v>
+        <v>0.1302414089243731</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01870933011114314</v>
+        <v>0.01799153364896901</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1267230504979159</v>
+        <v>0.1310404359729889</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03098935487024326</v>
+        <v>0.03527290448499676</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1195053419463615</v>
+        <v>0.128598264183806</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06557104393786795</v>
+        <v>0.05973685994111305</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1187205266900716</v>
+        <v>0.1293339665646275</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1010470212589828</v>
+        <v>0.01799153364896901</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1269354875902104</v>
+        <v>0.1310404359729889</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0185754938804413</v>
+        <v>0.01776607023846223</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1274957520253422</v>
+        <v>0.1318394630216047</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03078466697815342</v>
+        <v>0.03543217185771708</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1202340330557906</v>
+        <v>0.1293823999410244</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06545516371272334</v>
+        <v>0.05923412204026962</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1194444323406209</v>
+        <v>0.1301225883119728</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1001332270899016</v>
+        <v>0.01776607023846223</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1277094844657604</v>
+        <v>0.1318394630216047</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01844269515901278</v>
+        <v>0.01774244902193584</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1282684535527686</v>
+        <v>0.1326384900702205</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03088125403612657</v>
+        <v>0.03489702057175331</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1209627241652196</v>
+        <v>0.1301665356982427</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06513730006163587</v>
+        <v>0.05853574750305096</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1201683379911701</v>
+        <v>0.1309112100593181</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1002085607176553</v>
+        <v>0.01774244902193584</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1284834813413105</v>
+        <v>0.1326384900702205</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01831095525074561</v>
+        <v>0.01752077713706189</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1290411550801949</v>
+        <v>0.1334375171188363</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03047922109541437</v>
+        <v>0.03466753400123618</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1216914152746487</v>
+        <v>0.130950671455461</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06411744551036816</v>
+        <v>0.05864189423661748</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1208922436417193</v>
+        <v>0.1316998318066634</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09927311806228839</v>
+        <v>0.01752077713706189</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1292574782168606</v>
+        <v>0.1334375171188363</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0181802954595278</v>
+        <v>0.0172011617215125</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1298138566076212</v>
+        <v>0.1342365441674521</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03037867320726846</v>
+        <v>0.0348437955202964</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1224201063840777</v>
+        <v>0.1317348072126794</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06309559258468292</v>
+        <v>0.05725272014812971</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1216161492922685</v>
+        <v>0.1324884535540087</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09762699504384509</v>
+        <v>0.0172011617215125</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1300314750924106</v>
+        <v>0.1342365441674521</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01905073708924741</v>
+        <v>0.0170837099129597</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1305865581350475</v>
+        <v>0.1350355712160678</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03027971542294051</v>
+        <v>0.03392588850306469</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1231487974935067</v>
+        <v>0.1325189429698977</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06327173381034273</v>
+        <v>0.05666838314474798</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1223400549428177</v>
+        <v>0.133277075301354</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09767028758236962</v>
+        <v>0.0170837099129597</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1308054719679607</v>
+        <v>0.1350355712160678</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01692230144379246</v>
+        <v>0.0169685288490756</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1313592596624738</v>
+        <v>0.1358345982646836</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03048245279368218</v>
+        <v>0.03371389632367189</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1238774886029358</v>
+        <v>0.133303078727116</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06234586171311021</v>
+        <v>0.05618904113363288</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1230639605933669</v>
+        <v>0.1340656970486993</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09720309159790663</v>
+        <v>0.0169685288490756</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1315794688435108</v>
+        <v>0.1358345982646836</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01679500982705099</v>
+        <v>0.01715572566753228</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1321319611899001</v>
+        <v>0.1366336253132994</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03038699037074515</v>
+        <v>0.03360790235624864</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1246061797123648</v>
+        <v>0.1340872144843343</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06161796881874809</v>
+        <v>0.05661485202194477</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1237878662439161</v>
+        <v>0.1348543187960446</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0962255030105002</v>
+        <v>0.01715572566753228</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1323534657190608</v>
+        <v>0.1366336253132994</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01866888354291103</v>
+        <v>0.0168454075060018</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1329046627173265</v>
+        <v>0.1374326523619152</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03019343320538102</v>
+        <v>0.03340798997492575</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1253348708217938</v>
+        <v>0.1348713502415527</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06098804765301896</v>
+        <v>0.05574597371684409</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1245117718944654</v>
+        <v>0.1356429405433899</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09523761774019485</v>
+        <v>0.0168454075060018</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1331274625946109</v>
+        <v>0.1374326523619152</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01654394389526059</v>
+        <v>0.01683768150215628</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1336773642447528</v>
+        <v>0.138231679410531</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02990188634884153</v>
+        <v>0.03391424255383396</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1260635619312229</v>
+        <v>0.135655485998771</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06015609074168551</v>
+        <v>0.05518256412549138</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1252356775450146</v>
+        <v>0.1364315622907351</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09353953170703488</v>
+        <v>0.01683768150215628</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1339014594701609</v>
+        <v>0.138231679410531</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01842021218798774</v>
+        <v>0.01653265479366776</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1344500657721791</v>
+        <v>0.1390307064591468</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03011245485237826</v>
+        <v>0.03352674346710399</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1267922530406519</v>
+        <v>0.1364396217559893</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06002209061051036</v>
+        <v>0.05492478115504701</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1259595831955638</v>
+        <v>0.1372201840380804</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09363134083106467</v>
+        <v>0.01653265479366776</v>
       </c>
       <c r="O239" t="n">
-        <v>0.134675456345711</v>
+        <v>0.1390307064591468</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01629770972498049</v>
+        <v>0.01643043451820836</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1352227672996054</v>
+        <v>0.1398297335077626</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02982524376724292</v>
+        <v>0.03344557608886661</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1275209441500809</v>
+        <v>0.1372237575132076</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05868603978525616</v>
+        <v>0.05367278271267145</v>
       </c>
       <c r="M240" t="n">
-        <v>0.126683488846113</v>
+        <v>0.1380088057854257</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09241314103232845</v>
+        <v>0.01643043451820836</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1354494532212611</v>
+        <v>0.1398297335077626</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01717645781012688</v>
+        <v>0.01643112781345012</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1359954688270317</v>
+        <v>0.1406287605563784</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02984035814468715</v>
+        <v>0.03327082379325255</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1282496352595099</v>
+        <v>0.138007893270426</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05834793079168554</v>
+        <v>0.05302672670552505</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1274073944966622</v>
+        <v>0.138797427532771</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09208502823087078</v>
+        <v>0.01643112781345012</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1362234500968111</v>
+        <v>0.1406287605563784</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01805647774731493</v>
+        <v>0.01623484181706514</v>
       </c>
       <c r="G242" t="n">
-        <v>0.136768170354458</v>
+        <v>0.1414277876049941</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02975790303596261</v>
+        <v>0.03320256995439252</v>
       </c>
       <c r="K242" t="n">
-        <v>0.128978326368939</v>
+        <v>0.1387920290276443</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05760775615556121</v>
+        <v>0.05318677104076847</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1281313001472115</v>
+        <v>0.1395860492801163</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09134709834673593</v>
+        <v>0.01623484181706514</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1369974469723612</v>
+        <v>0.1414277876049941</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01693779084043269</v>
+        <v>0.0162416836667255</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1375408718818844</v>
+        <v>0.1422268146536099</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02967798349232097</v>
+        <v>0.03244089794641733</v>
       </c>
       <c r="K243" t="n">
-        <v>0.129707017478368</v>
+        <v>0.1395761647848626</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0571655084026457</v>
+        <v>0.052553073625562</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1288552057977607</v>
+        <v>0.1403746710274616</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08969944729996809</v>
+        <v>0.0162416836667255</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1377714438479113</v>
+        <v>0.1422268146536099</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01782041839336818</v>
+        <v>0.01605176050010329</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1383135734093107</v>
+        <v>0.1430258417022257</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02940070456501388</v>
+        <v>0.0320858911434577</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1304357085877971</v>
+        <v>0.140360300542081</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05632118005870182</v>
+        <v>0.05202579236706606</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1295791114483099</v>
+        <v>0.1411632927748069</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08944217101061186</v>
+        <v>0.01605176050010329</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1385454407234613</v>
+        <v>0.1430258417022257</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01570438171000944</v>
+        <v>0.01606517945487057</v>
       </c>
       <c r="G245" t="n">
-        <v>0.139086274936737</v>
+        <v>0.1438248687508415</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02942617130529299</v>
+        <v>0.03253763291964437</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1311643996972261</v>
+        <v>0.1411444362992993</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05587476364949201</v>
+        <v>0.05130508517244114</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1303030170988591</v>
+        <v>0.1419519145221522</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08827536539871139</v>
+        <v>0.01606517945487057</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1393194375990114</v>
+        <v>0.1438248687508415</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0175897020942445</v>
+        <v>0.01598204766869944</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1398589764641633</v>
+        <v>0.1446238957994573</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02925448876440997</v>
+        <v>0.03189620664910808</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1318930908066551</v>
+        <v>0.1419285720565176</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05552625170077913</v>
+        <v>0.05009110994884775</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1310269227494083</v>
+        <v>0.1427405362694975</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0871991263843111</v>
+        <v>0.01598204766869944</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1400934344745615</v>
+        <v>0.1446238957994573</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01547640084996139</v>
+        <v>0.01600247227926198</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1406316779915897</v>
+        <v>0.1454229228480731</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0291857619936165</v>
+        <v>0.03216169570597957</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1326217819160841</v>
+        <v>0.142712707813736</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05427563673832567</v>
+        <v>0.04938402460344626</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1317508283999576</v>
+        <v>0.1435291580168428</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08671354988745539</v>
+        <v>0.01600247227926198</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1408674313501115</v>
+        <v>0.1454229228480731</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01736449928104813</v>
+        <v>0.01572656042423025</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1414043795190159</v>
+        <v>0.1462219498966889</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02942009604416417</v>
+        <v>0.03163418346438956</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1333504730255132</v>
+        <v>0.1434968435709543</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05432291128789438</v>
+        <v>0.04968398704339722</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1324747340505067</v>
+        <v>0.1443177797641881</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08531873182818867</v>
+        <v>0.01572656042423025</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1416414282256616</v>
+        <v>0.1462219498966889</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01725401869139279</v>
+        <v>0.01575441924127632</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1421770810464423</v>
+        <v>0.1470209769453046</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02915759596730472</v>
+        <v>0.03191375329846893</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1340791641349422</v>
+        <v>0.1442809793281726</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0529680678752478</v>
+        <v>0.04919115517586092</v>
       </c>
       <c r="M249" t="n">
-        <v>0.133198639701056</v>
+        <v>0.1451064015115333</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08531476812655503</v>
+        <v>0.01575441924127632</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1424154251012117</v>
+        <v>0.1470209769453046</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01614498038488336</v>
+        <v>0.01578615586807233</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1429497825738686</v>
+        <v>0.1478200039939204</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02919836681428975</v>
+        <v>0.03160048858234824</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1348078552443713</v>
+        <v>0.145065115085391</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05281109902614869</v>
+        <v>0.04860568690799799</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1339225453516052</v>
+        <v>0.1458950232588786</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08400175470259913</v>
+        <v>0.01578615586807233</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1431894219767617</v>
+        <v>0.1478200039939204</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0160374056654079</v>
+        <v>0.01562187744229032</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1437224841012949</v>
+        <v>0.1486190310425362</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02914251363637096</v>
+        <v>0.03199447269015834</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1355365463538003</v>
+        <v>0.1458492508426093</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05215199726635961</v>
+        <v>0.04872774014696868</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1346464510021544</v>
+        <v>0.1466836450062239</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0829797874763652</v>
+        <v>0.01562187744229032</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1439634188523118</v>
+        <v>0.1486190310425362</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01493131583685443</v>
+        <v>0.01546169110160237</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1444951856287212</v>
+        <v>0.149418058091152</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02889014148479999</v>
+        <v>0.03189578899602996</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1362652374632293</v>
+        <v>0.1466333865998276</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05119075512164328</v>
+        <v>0.04795747279993351</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1353703566527036</v>
+        <v>0.1474722667535692</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08184896236789746</v>
+        <v>0.01546169110160237</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1447374157278618</v>
+        <v>0.149418058091152</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01482673220311098</v>
+        <v>0.01570570398368057</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1452678871561476</v>
+        <v>0.1502170851397678</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02884135541082848</v>
+        <v>0.03110452087409382</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1369939285726584</v>
+        <v>0.1474175223570459</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0507273651177623</v>
+        <v>0.04679504277405305</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1360942623032529</v>
+        <v>0.1482608885009145</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08040937529724046</v>
+        <v>0.01570570398368057</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1455114126034119</v>
+        <v>0.1502170851397678</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01672367606806562</v>
+        <v>0.01555402322619699</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1460405886835738</v>
+        <v>0.1510161121883836</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02879626046570812</v>
+        <v>0.03102075169848068</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1377226196820874</v>
+        <v>0.1482016581142643</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0497618197804793</v>
+        <v>0.0467406079764876</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1368181679538021</v>
+        <v>0.1490495102482598</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08016112218443838</v>
+        <v>0.01555402322619699</v>
       </c>
       <c r="O254" t="n">
-        <v>0.146285409478962</v>
+        <v>0.1510161121883836</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01662216873560632</v>
+        <v>0.01540675596682373</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1468132902110002</v>
+        <v>0.1518151392369994</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02895496170069053</v>
+        <v>0.03094456484332131</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1384513107915164</v>
+        <v>0.1489857938714826</v>
       </c>
       <c r="L255" t="n">
-        <v>0.048994111635557</v>
+        <v>0.04689432631439761</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1375420736043513</v>
+        <v>0.1498381319956051</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07970429894953573</v>
+        <v>0.01540675596682373</v>
       </c>
       <c r="O255" t="n">
-        <v>0.147059406354512</v>
+        <v>0.1518151392369994</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01552223150962115</v>
+        <v>0.01526400934323285</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1475859917384265</v>
+        <v>0.1526141662856151</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02871756416702745</v>
+        <v>0.03157604368274641</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1391800019009455</v>
+        <v>0.1497699296287009</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04862423320875794</v>
+        <v>0.04555635569494365</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1382659792549005</v>
+        <v>0.1506267537429504</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07793900151257677</v>
+        <v>0.01526400934323285</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1478334032300621</v>
+        <v>0.1526141662856151</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01642388569399814</v>
+        <v>0.01542589049309644</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1483586932658528</v>
+        <v>0.1534131933342309</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02878417291597044</v>
+        <v>0.03111527159088678</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1399086930103745</v>
+        <v>0.1505540653859193</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04755217702584491</v>
+        <v>0.04502685402528611</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1389898849054497</v>
+        <v>0.1514153754902957</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07756532579360587</v>
+        <v>0.01542589049309644</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1486074001056121</v>
+        <v>0.1534131933342309</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01532715259262531</v>
+        <v>0.01549250655408656</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1491313947932791</v>
+        <v>0.1542122203828467</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02895489299877121</v>
+        <v>0.03096233194187312</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1406373841198035</v>
+        <v>0.1513382011431376</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04737793561258041</v>
+        <v>0.04430597921258533</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1397137905559989</v>
+        <v>0.1522039972376409</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07688336771266735</v>
+        <v>0.01549250655408656</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1493813969811622</v>
+        <v>0.1542122203828467</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01623205350939071</v>
+        <v>0.01546396466387534</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1499040963207054</v>
+        <v>0.1550112474314625</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02882982946668142</v>
+        <v>0.03141730810983617</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1413660752292326</v>
+        <v>0.1521223369003559</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04700150149472715</v>
+        <v>0.04519388916400197</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1404376962065481</v>
+        <v>0.1529926189849863</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07589322318980568</v>
+        <v>0.01546396466387534</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1501553938567123</v>
+        <v>0.1550112474314625</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01413860974818236</v>
+        <v>0.01524037196013479</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1506767978481318</v>
+        <v>0.1558102744800783</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02890908737095273</v>
+        <v>0.03108028346890671</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1420947663386616</v>
+        <v>0.1529064726575743</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0455228671980478</v>
+        <v>0.04399074178669621</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1411616018570974</v>
+        <v>0.1537812407323315</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07489498814506507</v>
+        <v>0.01524037196013479</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1509293907322624</v>
+        <v>0.1558102744800783</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0140468426128883</v>
+        <v>0.01542183558053706</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1514494993755581</v>
+        <v>0.1566093015286941</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02869277176283676</v>
+        <v>0.03115134139321543</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1428234574480907</v>
+        <v>0.1536906084147926</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04514202524830496</v>
+        <v>0.04379669498782868</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1418855075076466</v>
+        <v>0.1545698624796768</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07288875849848997</v>
+        <v>0.01542183558053706</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1517033876078124</v>
+        <v>0.1566093015286941</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01395677340739655</v>
+        <v>0.01530846266275421</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1522222009029844</v>
+        <v>0.1574083285773099</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02858098769358523</v>
+        <v>0.03123056525689316</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1435521485575197</v>
+        <v>0.1544747441720109</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04485896817126134</v>
+        <v>0.04361190667455977</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1426094131581958</v>
+        <v>0.1553584842270221</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07167463017012476</v>
+        <v>0.01530846266275421</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1524773844833625</v>
+        <v>0.1574083285773099</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01486842343559516</v>
+        <v>0.01540036034445831</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1529949024304107</v>
+        <v>0.1582073556259256</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02887384021444975</v>
+        <v>0.03071803843407056</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1442808396669487</v>
+        <v>0.1552588799292292</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04427368849267954</v>
+        <v>0.04273653475405004</v>
       </c>
       <c r="M263" t="n">
-        <v>0.143333318808745</v>
+        <v>0.1561471059743674</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07155269908001349</v>
+        <v>0.01540036034445831</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1532513813589126</v>
+        <v>0.1582073556259256</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01378181400137215</v>
+        <v>0.01519763576332143</v>
       </c>
       <c r="G264" t="n">
-        <v>0.153767603957837</v>
+        <v>0.1590063826745414</v>
       </c>
       <c r="J264" t="n">
-        <v>0.028571434376682</v>
+        <v>0.03131384429887843</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1450095307763777</v>
+        <v>0.1560430156864475</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04318617873832217</v>
+        <v>0.04307073713345977</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1440572244592943</v>
+        <v>0.1569357277217127</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07032306114820103</v>
+        <v>0.01519763576332143</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1540253782344626</v>
+        <v>0.1590063826745414</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08427573013870365</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01785559355394588</v>
+        <v>0.03427573013870365</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01593053737391109</v>
+        <v>0.01975112649156233</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001246785640626108</v>
+        <v>0.0008345254555332249</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007990270486157861</v>
+        <v>0.0007041780453693166</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003945461605057127</v>
+        <v>0.001377142347992098</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007841357572183294</v>
+        <v>0.0007990270486157861</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006626980671208371</v>
+        <v>0.00385074998673865</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007886217473452899</v>
+        <v>0.0007867661772624755</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001246785640626108</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007990270486157861</v>
+        <v>0.0006813068181818187</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002762307606571215</v>
+        <v>0.001706311101605781</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001598054097231572</v>
+        <v>0.001408356090738633</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007999999999999979</v>
+        <v>0.002819168357434135</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001556464174454824</v>
+        <v>0.001598054097231572</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01405355109481771</v>
+        <v>0.007562134475467081</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00157724349469058</v>
+        <v>0.001573532354524951</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002762307606571215</v>
+        <v>0.01200397454970809</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001598054097231572</v>
+        <v>0.001562158007060375</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004223664586763314</v>
+        <v>0.002614018059456762</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002397081145847358</v>
+        <v>0.002112534136107949</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01077141097956294</v>
+        <v>0.004307951425124357</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002352407271654988</v>
+        <v>0.002397081145847358</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0207132706083053</v>
+        <v>0.01186526277542496</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00236586524203587</v>
+        <v>0.002360298531787427</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004223664586763314</v>
+        <v>0.01736722644441169</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002397081145847358</v>
+        <v>0.002343237010590562</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005507955270130385</v>
+        <v>0.003556307450325244</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003196108194463144</v>
+        <v>0.002816712181477266</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0142162950150021</v>
+        <v>0.005325364947860949</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003136543028873318</v>
+        <v>0.003196108194463144</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02643969854914852</v>
+        <v>0.01499999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00315448698938116</v>
+        <v>0.003122656249999997</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005507955270130385</v>
+        <v>0.02280801262254606</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003196108194463144</v>
+        <v>0.00312431601412075</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.01516095208818727</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006392278345600438</v>
+        <v>0.004531840395450314</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003995135243078931</v>
+        <v>0.003520890226846583</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01697339242337159</v>
+        <v>0.00655328232244215</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003920678786091647</v>
+        <v>0.003995135243078931</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03136639425482446</v>
+        <v>0.01798284344876674</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00394310873672645</v>
+        <v>0.003933830886312377</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006392278345600438</v>
+        <v>0.02839244888953918</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003995135243078931</v>
+        <v>0.003905395017650937</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008</v>
+        <v>0.005539278016071049</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.004225068272215898</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0204309180470699</v>
+        <v>0.007973576945666132</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004704814543309977</v>
+        <v>0.004794162291694716</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03682691706281044</v>
+        <v>0.02016062702912344</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004731730484071739</v>
+        <v>0.004720597063574854</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008</v>
+        <v>0.03478665105081924</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.004686474021181125</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008498641641403203</v>
+        <v>0.006577281433426528</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005593189340310503</v>
+        <v>0.004929246317585216</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02377708672849568</v>
+        <v>0.008999999999999994</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005488950300528306</v>
+        <v>0.005620781249999996</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04135482631058368</v>
+        <v>0.02292327474388151</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005520352231417029</v>
+        <v>0.005507363240837329</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008498641641403203</v>
+        <v>0.03875673491181425</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005593189340310503</v>
+        <v>0.005467553024711312</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009390058522841235</v>
+        <v>0.00764451176875585</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006392216388926289</v>
+        <v>0.005633424362954532</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02590011331004738</v>
+        <v>0.009861783197000269</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006273086057746635</v>
+        <v>0.006392216388926289</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.02516921105915729</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006384097222222221</v>
+        <v>0.006294129418099804</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009390058522841235</v>
+        <v>0.04336881627795219</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006392216388926289</v>
+        <v>0.006248632028241499</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01013527658160347</v>
+        <v>0.00873963014329808</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007191243437542075</v>
+        <v>0.006337602408323848</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02928821263412371</v>
+        <v>0.01050082395496441</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007057221814964965</v>
+        <v>0.007191243437542075</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04821342936330114</v>
+        <v>0.02839686044106729</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007097595726107609</v>
+        <v>0.00708089559536228</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01013527658160347</v>
+        <v>0.04808901095466134</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007191243437542075</v>
+        <v>0.007029711031771688</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01103852906185878</v>
+        <v>0.009861297678292295</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007990270486157861</v>
+        <v>0.007041780453693166</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03122959954312315</v>
+        <v>0.01129076592953997</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007841357572183294</v>
+        <v>0.007990270486157861</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05119265870728551</v>
+        <v>0.03050464735572789</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007886217473452899</v>
+        <v>0.007867661772624754</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01103852906185878</v>
+        <v>0.05268343474736942</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007990270486157861</v>
+        <v>0.007810790035301874</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01190404920777597</v>
+        <v>0.0110081754949776</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008789297534773647</v>
+        <v>0.007745958499062481</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03361248887944426</v>
+        <v>0.01193708025363208</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008625493329401624</v>
+        <v>0.008789297534773647</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05368346243450933</v>
+        <v>0.03219099626925559</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008674839220798189</v>
+        <v>0.008654427949887231</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01190404920777597</v>
+        <v>0.0566182034615047</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008789297534773647</v>
+        <v>0.008591869038832061</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01263607026352391</v>
+        <v>0.01217892471459305</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008450136544431797</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01274523806014589</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009588324583389433</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03632509548548563</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009409629086619953</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05624628098020978</v>
+        <v>0.03425433164776676</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009463460968143479</v>
+        <v>0.009441194127149707</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01263607026352391</v>
+        <v>0.0601594329024952</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009588324583389433</v>
+        <v>0.00937294804236225</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01333882547327141</v>
+        <v>0.01337220645837774</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009154314589801114</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01362071048198654</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01038735163200522</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03825563420364581</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01019376484383828</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05764155477962402</v>
+        <v>0.03659307795737779</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01025208271548877</v>
+        <v>0.01022796030441218</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01333882547327141</v>
+        <v>0.0628732388757689</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01038735163200522</v>
+        <v>0.01015402704589244</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01391654808118735</v>
+        <v>0.01458668184757075</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009858492635170432</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01426896865205918</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01118637868062101</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03999231987632343</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01097790060105661</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05952972426798925</v>
+        <v>0.03850565966420513</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01104070446283406</v>
+        <v>0.01101472648167466</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01391654808118735</v>
+        <v>0.06501602768787074</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01118637868062101</v>
+        <v>0.01054663403686767</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01477347133144057</v>
+        <v>0.01582101200341117</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01056267068053975</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01479548370326893</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01198540572923679</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04143581062090834</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01151667049481048</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06207122988054259</v>
+        <v>0.04029050123436526</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01182932621017935</v>
+        <v>0.01180149265893713</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01477347133144057</v>
+        <v>0.06761217450107715</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01198540572923679</v>
+        <v>0.01171618505295281</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01541382846819987</v>
+        <v>0.01707385804713808</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01126684872590906</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01520572676852094</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01278443277785258</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04291963145191385</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01254617211549327</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06501602768787074</v>
+        <v>0.04143581062090834</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01289033048950492</v>
+        <v>0.01232283742944722</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01541382846819987</v>
+        <v>0.0700164893014899</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01278443277785258</v>
+        <v>0.012497264056483</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01574185273563414</v>
+        <v>0.01834388109999055</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01197102677127838</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01600516898072034</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01358345982646836</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04429729116318631</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.0133303078727116</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06554381040514562</v>
+        <v>0.04329048080664605</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01340656970486993</v>
+        <v>0.01337502501346208</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01574185273563414</v>
+        <v>0.07289391558493014</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01358345982646836</v>
+        <v>0.01327834306001319</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01646177737791217</v>
+        <v>0.01962974228320766</v>
       </c>
       <c r="G83" t="n">
+        <v>0.0126752048166477</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01649928147277228</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01438248687508415</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04596493967972395</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01411444362992993</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06771217611221186</v>
+        <v>0.04452829567538102</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01419519145221522</v>
+        <v>0.01416179119072456</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01646177737791217</v>
+        <v>0.07544263185771088</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01438248687508415</v>
+        <v>0.01405942206354338</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01697783563920287</v>
+        <v>0.0209301027180285</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01337938286201701</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01729353537758192</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01518151392369993</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04782096159201529</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01489857938714826</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07042412248817692</v>
+        <v>0.04616494542663824</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01498381319956051</v>
+        <v>0.01494855736798704</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01697783563920287</v>
+        <v>0.0780608166261455</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01518151392369993</v>
+        <v>0.01484050106707356</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02224362352569217</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01408356090738633</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.01785559355394588</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01593053737391109</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0492637414905488</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01568271514436659</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07177425040328678</v>
+        <v>0.04729826812758256</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0157724349469058</v>
+        <v>0.01573532354524951</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01785559355394588</v>
+        <v>0.0803466483965472</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01593053737391109</v>
+        <v>0.01562158007060375</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01822213185826815</v>
+        <v>0.02356896582743773</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01478773895275565</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0184082339846454</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01677956802093151</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05059166396581299</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01646685090158492</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07475716072778743</v>
+        <v>0.04882610184537869</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01656105669425109</v>
+        <v>0.01652208972251198</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01822213185826815</v>
+        <v>0.08269830567522912</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01677956802093151</v>
+        <v>0.01640265907413394</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01916642539757017</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01516095208818727</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01894104252340685</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01757859506954729</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05220311360829633</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01725098665880325</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07596745433192481</v>
+        <v>0.05074628464719144</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01734967844159638</v>
+        <v>0.01730885589977446</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01916642539757017</v>
+        <v>0.08451396696850461</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01757859506954729</v>
+        <v>0.01718373807766412</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01962503668969311</v>
+        <v>0.02653222088172132</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01619609504349428</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01958964269722105</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01837762211816308</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05399647500848728</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01803512241602158</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07889973208594486</v>
+        <v>0.05235665460018557</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01813830018894166</v>
+        <v>0.01809562207703694</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01962503668969311</v>
+        <v>0.08749181078268681</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01837762211816308</v>
+        <v>0.01796481708119431</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02049583314198167</v>
+        <v>0.02827459193243123</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01690027308886359</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02025183128450053</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01917664916677887</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05567013275687446</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01881925817323991</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08074859486009356</v>
+        <v>0.05405504977152589</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01892692193628696</v>
+        <v>0.01888238825429941</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02049583314198167</v>
+        <v>0.09003001562408897</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01917664916677887</v>
+        <v>0.0187458960847245</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02107668216178057</v>
+        <v>0.03004063780364409</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01760445113423291</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02092540506365774</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01997567621539465</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05672247144394624</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01960339393045824</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08290864352461674</v>
+        <v>0.05533930822837715</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01971554368363225</v>
+        <v>0.01966915443156189</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02107668216178057</v>
+        <v>0.09172675999902447</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01997567621539465</v>
+        <v>0.01952697508825469</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02156545115643452</v>
+        <v>0.03170567624474785</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01830862917960223</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02170816081310523</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02077470326401044</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05795187566019117</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02038752968767657</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.08577447894976042</v>
+        <v>0.05700726803790421</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02050416543097754</v>
+        <v>0.02045592060882436</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02156545115643452</v>
+        <v>0.09358022241380637</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02077470326401044</v>
+        <v>0.02030805409178487</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02236000753328819</v>
+        <v>0.03314502500513052</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01901280722497155</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02219789531125542</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02157373031262623</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.0592567299960978</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02117166544489489</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08734070200577065</v>
+        <v>0.0580567672672718</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02129278717832283</v>
+        <v>0.02124268678608684</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02236000753328819</v>
+        <v>0.09648858137474797</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02157373031262623</v>
+        <v>0.02108913309531506</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02295821869968635</v>
+        <v>0.03427573013870365</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01975112649156233</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02309240533652084</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02237275736124201</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06103541904215451</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02195580120211323</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09060191356289321</v>
+        <v>0.0599856439836447</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02208140892566812</v>
+        <v>0.02202945296334931</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02295821869968635</v>
+        <v>0.09845001538816245</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02237275736124201</v>
+        <v>0.02187021209884525</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02395795206297366</v>
+        <v>0.03506681219332747</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02042116331571018</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02358948766731397</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.0231717844098578</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06248632738884988</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02273993695933155</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09215271449137419</v>
+        <v>0.06089173625418773</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0228700306730134</v>
+        <v>0.02281621914061179</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02395795206297366</v>
+        <v>0.1004627029603631</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0231717844098578</v>
+        <v>0.02265129110237543</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02445707503049482</v>
+        <v>0.03586236851932936</v>
       </c>
       <c r="G95" t="n">
+        <v>0.0211253413610795</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02438693908204731</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02397081145847358</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.0639078396266724</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02352407271654989</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09408770566145941</v>
+        <v>0.06227288214606563</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02365865242035869</v>
+        <v>0.02360298531787427</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02445707503049482</v>
+        <v>0.1025248225976632</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02397081145847358</v>
+        <v>0.02343237010590562</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0252534550095946</v>
+        <v>0.03662179710858833</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02182951940644881</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02528255635913335</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02476983850708937</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06509834034611056</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02430820847376821</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09640148794339487</v>
+        <v>0.06382691972644328</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02444727416770399</v>
+        <v>0.02438975149513674</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0252534550095946</v>
+        <v>0.1034345528063759</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02476983850708937</v>
+        <v>0.02421344910943581</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02604495940761764</v>
+        <v>0.03734570503744729</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02253369745181813</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02587413627698457</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02556886555570516</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.06635621413765289</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02509234423098654</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09818866220742645</v>
+        <v>0.06515168706248531</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02523589591504928</v>
+        <v>0.02517651767239922</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02604495940761764</v>
+        <v>0.1062900720928145</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02556886555570516</v>
+        <v>0.024994528112966</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02672945563190868</v>
+        <v>0.03803469938224921</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02323787549718745</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02645947561401345</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02636789260432094</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06757984559178781</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02587647998820487</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1012438293238003</v>
+        <v>0.06674502222135664</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02602451766239456</v>
+        <v>0.02596328384966169</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02672945563190868</v>
+        <v>0.1081895589632921</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02636789260432094</v>
+        <v>0.02577560711649619</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02710481108981241</v>
+        <v>0.038689387219337</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02394205354255676</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02703637114863253</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02716691965293673</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06896761929900388</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.0266606157454232</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1035615901627622</v>
+        <v>0.06780476327022195</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02681313940973986</v>
+        <v>0.02675005002692417</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02710481108981241</v>
+        <v>0.108731191924122</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02716691965293673</v>
+        <v>0.02655668612002637</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02806889318867357</v>
+        <v>0.03931037562505364</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02464623158792608</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02800261965925423</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02796594670155251</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06941791984978957</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02744475150264153</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.105836545594558</v>
+        <v>0.06922874827624612</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02760176115708514</v>
+        <v>0.02753681620418664</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02806889318867357</v>
+        <v>0.1105131494816176</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02796594670155251</v>
+        <v>0.02733776512355656</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0287195693358368</v>
+        <v>0.0398982716757421</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02535040963329539</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0285560179242911</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.0287649737501683</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.07112913183463335</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02822888725985986</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1077632964894338</v>
+        <v>0.07031481530659392</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02839038290443044</v>
+        <v>0.02832358238144912</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0287195693358368</v>
+        <v>0.1122336101420919</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0287649737501683</v>
+        <v>0.02811884412708675</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02925470693864689</v>
+        <v>0.04045368244774528</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02605458767866471</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02919436272215561</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02956400079878408</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.07229963984402377</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02901302301707819</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1093364437176356</v>
+        <v>0.07146080242843006</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02917900465177573</v>
+        <v>0.0291103485587116</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02925470693864689</v>
+        <v>0.1144907524118582</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02956400079878408</v>
+        <v>0.02889992313061693</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0296721734044485</v>
+        <v>0.04097721501740616</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02675876572403403</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02971545083126023</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03036302784739987</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.07282782846844935</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02979715877429652</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1115505881494092</v>
+        <v>0.07226454770891941</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02996762639912101</v>
+        <v>0.02989711473597407</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0296721734044485</v>
+        <v>0.1150827547972297</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03036302784739987</v>
+        <v>0.02968100213414712</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03056983614058634</v>
+        <v>0.04146947646106769</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02746294376940335</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0303170790300175</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03116205489601566</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.07401208229839848</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03058129453151485</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1134003306550007</v>
+        <v>0.07352388921522668</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0307562481464663</v>
+        <v>0.03068388091323654</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03056983614058634</v>
+        <v>0.1172077958045198</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03116205489601566</v>
+        <v>0.03046208113767731</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03094556255440511</v>
+        <v>0.0419310738550728</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02816712181477266</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03089704409683985</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03196108194463144</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.07455078592435982</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03136543028873318</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1150802721046557</v>
+        <v>0.07463666501451677</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0315448698938116</v>
+        <v>0.03147064709049902</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03094556255440511</v>
+        <v>0.1187640539400416</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03196108194463144</v>
+        <v>0.0312431601412075</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03139722005324953</v>
+        <v>0.04236261427576446</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02887129986014198</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03135314281013984</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03276010899324723</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.0757423239368217</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03214956604595151</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1157850133686206</v>
+        <v>0.0752007131739543</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03233349164115688</v>
+        <v>0.03225741326776149</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03139722005324953</v>
+        <v>0.1196497077101084</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03276010899324723</v>
+        <v>0.03202423914473768</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03202267604446432</v>
+        <v>0.0427647047994856</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02957547790551129</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03218317194832988</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03355913604186302</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.0770850809262727</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03293370180316984</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1174091553171412</v>
+        <v>0.07601387176070423</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03312211338850218</v>
+        <v>0.03304417944502397</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03202267604446432</v>
+        <v>0.1216629356210334</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03355913604186302</v>
+        <v>0.03280531814826787</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03261979793539417</v>
+        <v>0.04313795250257922</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03027965595088061</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03238492828982255</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.0343581630904788</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07757744148320131</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03371783756038817</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1196472988204633</v>
+        <v>0.07717397884193117</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03391073513584747</v>
+        <v>0.03383094562228645</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03261979793539417</v>
+        <v>0.1216019161791298</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0343581630904788</v>
+        <v>0.03358639715179806</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03308645313338379</v>
+        <v>0.04348296446138818</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03098383399624993</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03295620861303024</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03515719013909459</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.078617790198096</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03450197331760649</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1207940447488329</v>
+        <v>0.07757887248480005</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03469935688319276</v>
+        <v>0.03461771179954892</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03308645313338379</v>
+        <v>0.1227648278907108</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03515719013909459</v>
+        <v>0.03436747615532824</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0334205090457779</v>
+        <v>0.0438003477522555</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03168801204161924</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03349480969636551</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03595621718771037</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07890451166144533</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03528610907482482</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1229439939724961</v>
+        <v>0.07832639075647557</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03548797863053804</v>
+        <v>0.0354044779768114</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0334205090457779</v>
+        <v>0.1242498492620897</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03595621718771037</v>
+        <v>0.03514855515885843</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03371983307992119</v>
+        <v>0.0440907094515241</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03239219008698856</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03379852831824086</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03675524423632616</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07963599046373773</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03607024483204315</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1237917473616987</v>
+        <v>0.07901437172412257</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03627660037788333</v>
+        <v>0.03619124415407388</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03371983307992119</v>
+        <v>0.1250551587995798</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03675524423632616</v>
+        <v>0.03592963416238862</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03418229264315834</v>
+        <v>0.04435465663553695</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03309636813235788</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03406516125706874</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03755427128494195</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07981061119546173</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03685438058926149</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1250319057866865</v>
+        <v>0.0802406534549058</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03706522212522862</v>
+        <v>0.03697801033133635</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03418229264315834</v>
+        <v>0.1255789350094941</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03755427128494195</v>
+        <v>0.03671071316591881</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03440575514283413</v>
+        <v>0.04459424633005554</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03380054617772719</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03439250529126164</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03835329833355773</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.08042675844710584</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03763851634647981</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1253590701177059</v>
+        <v>0.08090307401599006</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03785384387257391</v>
+        <v>0.03776477650859883</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03440575514283413</v>
+        <v>0.1265193563981462</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03835329833355773</v>
+        <v>0.037491792169449</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03478808798629318</v>
+        <v>0.04482649084045151</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03450472422309651</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03477835719923207</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03915232538217352</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.08118281680915854</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03842265210369814</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1268678412250024</v>
+        <v>0.08119947147454015</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0386424656199192</v>
+        <v>0.0385515426858613</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03478808798629318</v>
+        <v>0.127074601471849</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03915232538217352</v>
+        <v>0.03827287117297919</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0352271585808803</v>
+        <v>0.04505607039676941</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03520890226846583</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03522051375939253</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0399513524307893</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.08187717087210833</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03920678786091648</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1280528199788221</v>
+        <v>0.08112768389772082</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03943108736726449</v>
+        <v>0.03933830886312378</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0352271585808803</v>
+        <v>0.1283428487369159</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0399513524307893</v>
+        <v>0.03905395017650937</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03532083433394009</v>
+        <v>0.04528290685712676</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03591308031383514</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03541677175015551</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04075037947940509</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.0820082052264437</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.0399909236181348</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.128208607249411</v>
+        <v>0.08218554935269687</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04021970911460979</v>
+        <v>0.04012507504038625</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03532083433394009</v>
+        <v>0.1284222766996601</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04075037947940509</v>
+        <v>0.03983502918003956</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03526698265281734</v>
+        <v>0.04550692207964106</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03661725835920446</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03536492794993344</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04154940652802087</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.08227430446265308</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04077505937535313</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.128229803907015</v>
+        <v>0.08197090590663306</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04100833086195507</v>
+        <v>0.04091184121764873</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03526698265281734</v>
+        <v>0.1281110638663947</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04154940652802087</v>
+        <v>0.04061610818356975</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03571118710789177</v>
+        <v>0.04572803792242985</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03732143640457377</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03556277913713891</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04234843357663666</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.08257385317122518</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04155919513257147</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1285110108218802</v>
+        <v>0.08218159162669425</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04179695260930037</v>
+        <v>0.0416986073949112</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03571118710789177</v>
+        <v>0.1284073887434332</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04234843357663666</v>
+        <v>0.04139718718709993</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03570816661740292</v>
+        <v>0.04594617624361066</v>
       </c>
       <c r="G119" t="n">
+        <v>0.0380256144499431</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03571118710789177</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04314746062525245</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.08287162124181666</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04234333088978979</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1300320553757415</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.04258557435664565</v>
+        <v>0.04248537357217368</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03570816661740292</v>
+        <v>0.1286094298370886</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04314746062525245</v>
+        <v>0.04217826619063012</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03570792027698874</v>
+        <v>0.046161258901301</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03872979249531241</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03560932358190029</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04394648767386824</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.08226683736741094</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04312746664700812</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1300318589043772</v>
+        <v>0.0823703028338505</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04337419610399094</v>
+        <v>0.04327213974943615</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03570792027698874</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04394648767386824</v>
+        <v>0.04295934519416031</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03539106837969525</v>
+        <v>0.04637320775361836</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03943397054068173</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03549967296050778</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04474551472248402</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.08246518872852043</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04391160240422645</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1293087473264429</v>
+        <v>0.0824590495918662</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04416281785133623</v>
+        <v>0.04405890592669863</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03539106837969525</v>
+        <v>0.1288291914058261</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04474551472248402</v>
+        <v>0.0437404241976905</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03566044193055817</v>
+        <v>0.04658194465868032</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04013814858605105</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03538204734173239</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04554454177109981</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.08222962775031781</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04469573816144478</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1296351994009411</v>
+        <v>0.08281060990402514</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04495143959868152</v>
+        <v>0.04484567210396111</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03566044193055817</v>
+        <v>0.1290995163959324</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04554454177109981</v>
+        <v>0.04452150320122068</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0355166792876493</v>
+        <v>0.04678739147460434</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04084232663142036</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03565672955233855</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0463435688197156</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.08216425401954427</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04547987391866311</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1293134943150376</v>
+        <v>0.08222734788621006</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04574006134602681</v>
+        <v>0.04563243828122358</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0355166792876493</v>
+        <v>0.1297385893942953</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0463435688197156</v>
+        <v>0.04530258220475087</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03546041880904049</v>
+        <v>0.04698947005950797</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04154650467678968</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03532400241909073</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04714259586833138</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.08267054254397133</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04626400967588144</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1289457806015456</v>
+        <v>0.08231092368240939</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0465286830933721</v>
+        <v>0.04641920445848605</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03546041880904049</v>
+        <v>0.1296475754076609</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04714259586833138</v>
+        <v>0.04608366120828106</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03539229885280355</v>
+        <v>0.04718810227150874</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04225068272215899</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03548414876875335</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04794162291694717</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.08194996833137061</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04704814543309977</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1288342067932783</v>
+        <v>0.08166299743661151</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04731730484071739</v>
+        <v>0.04720597063574853</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03539229885280355</v>
+        <v>0.129427639442775</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04794162291694717</v>
+        <v>0.04686474021181124</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0351129577770103</v>
+        <v>0.04738320996872414</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04295486076752831</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.0352374514280909</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04874064996556295</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.08180400638951366</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0478322811903181</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1290809214230492</v>
+        <v>0.08168522929280492</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04810592658806268</v>
+        <v>0.04799273681301101</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0351129577770103</v>
+        <v>0.1288799465063839</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04874064996556295</v>
+        <v>0.04764581921534143</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03532303393973259</v>
+        <v>0.04757471500927173</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04365903881289762</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03528419322386783</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04953967701417874</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.08163413172617195</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04861641694753643</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1283880730236717</v>
+        <v>0.08137927939497799</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04889454833540798</v>
+        <v>0.04877950299027348</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03532303393973259</v>
+        <v>0.1288056616052336</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04953967701417874</v>
+        <v>0.04842689821887162</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03492316569904222</v>
+        <v>0.04776253925126897</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04436321685826694</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0352246569828486</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05033870406279452</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.08174181934911715</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04940055270475476</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1279578101279591</v>
+        <v>0.08124680788711919</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04968317008275326</v>
+        <v>0.04956626916753595</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03492316569904222</v>
+        <v>0.1280059497460701</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05033870406279452</v>
+        <v>0.04920797722240181</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03501399141301099</v>
+        <v>0.04794660455283342</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04506739490363626</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03525912553179765</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05113773111141031</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.08112854426612071</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05018468846197308</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1280922812687247</v>
+        <v>0.08078947491321689</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05047179183009855</v>
+        <v>0.05035303534479843</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03501399141301099</v>
+        <v>0.1289819759356395</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05113773111141031</v>
+        <v>0.04998905622593199</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03489614943971078</v>
+        <v>0.04812683277208261</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04577157294900557</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03498788169747945</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0519367581600261</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.08149578148495429</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05096882421919141</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1269936349787819</v>
+        <v>0.08060894061725954</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05126041357744384</v>
+        <v>0.05113980152206091</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03489614943971078</v>
+        <v>0.1277349051806879</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0519367581600261</v>
+        <v>0.05077013522946219</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0345702781372134</v>
+        <v>0.04830314576713404</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04647575099437489</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03501120830665841</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05273578520864188</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.08104500601338935</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05175295997640975</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.126864019790944</v>
+        <v>0.0805068651432356</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05204903532478913</v>
+        <v>0.05192656769932338</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0345702781372134</v>
+        <v>0.1273659024879613</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05273578520864188</v>
+        <v>0.05155121423299237</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03473701586359065</v>
+        <v>0.04847546539610523</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0471799290397442</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03512938818609905</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05353481225725767</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.08077769285919753</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05253709573362807</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1263055842380245</v>
+        <v>0.08068490863513339</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05283765707213442</v>
+        <v>0.05271333387658586</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03473701586359065</v>
+        <v>0.1280761328642057</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05353481225725767</v>
+        <v>0.05233229323652256</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03429700097691439</v>
+        <v>0.04864371351711369</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04788410708511352</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03494270416256577</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05433383930587345</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.0807953170301503</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05332123149084641</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1256204768528365</v>
+        <v>0.07964473123694144</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05362627881947971</v>
+        <v>0.05350010005384834</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03429700097691439</v>
+        <v>0.1270667613161673</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05433383930587345</v>
+        <v>0.05311337224005275</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0343508718352564</v>
+        <v>0.04880781198827697</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04858828513048283</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03485143906282305</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05513286635448924</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0796993535340193</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05410536724806473</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1251108461681935</v>
+        <v>0.07918799309264815</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05441490056682501</v>
+        <v>0.05428686623111081</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0343508718352564</v>
+        <v>0.1262389528505921</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05513286635448924</v>
+        <v>0.05389445124358293</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03419926679668854</v>
+        <v>0.04896768266771256</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04929246317585215</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03475587571363534</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05593189340310502</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07949127737857603</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05488950300528306</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1241788407169089</v>
+        <v>0.0788163543462419</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05520352231417028</v>
+        <v>0.05507363240837328</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03419926679668854</v>
+        <v>0.1267938724742261</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05593189340310502</v>
+        <v>0.05467553024711312</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03404282421928262</v>
+        <v>0.04912324741353799</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04999664122122147</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03475629694176711</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05673092045172081</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07977256357159207</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0556736387625014</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.123626609031796</v>
+        <v>0.07863147514171115</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05599214406151558</v>
+        <v>0.05586039858563576</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03404282421928262</v>
+        <v>0.1258326851938154</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05673092045172081</v>
+        <v>0.05545660925064331</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03378218246111046</v>
+        <v>0.04927442808387079</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05070081926659079</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03445298557398277</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.0575299475003366</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07914468712083891</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05645777451971972</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1235562996456681</v>
+        <v>0.0782350156230443</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05678076580886087</v>
+        <v>0.05664716476289824</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03378218246111046</v>
+        <v>0.1252565560161061</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0575299475003366</v>
+        <v>0.0562376882541735</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03371797988024391</v>
+        <v>0.04942114653682846</v>
       </c>
       <c r="G138" t="n">
+        <v>0.0514049973119601</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03424622443704683</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05832897454895238</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07900912303408822</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05724191027693806</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1231700610913386</v>
+        <v>0.07802863593422976</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05756938755620616</v>
+        <v>0.05743393094016071</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03371797988024391</v>
+        <v>0.1258666499478442</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05832897454895238</v>
+        <v>0.05701876725770368</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03355085483475478</v>
+        <v>0.04956332463052854</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05210917535732942</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03413629635772371</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05912800159756817</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.07836734631911149</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05802604603415638</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1219700419016209</v>
+        <v>0.07771399621925604</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05835800930355145</v>
+        <v>0.05822069711742319</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03355085483475478</v>
+        <v>0.1248641319957757</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05912800159756817</v>
+        <v>0.05779984626123386</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03318144568271489</v>
+        <v>0.04970088422308853</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05281335340269874</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03422348416277785</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05992702864618395</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07832083198368028</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0588101817913747</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1211583906093281</v>
+        <v>0.07739275662211145</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05914663105089674</v>
+        <v>0.05900746329468567</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03318144568271489</v>
+        <v>0.1242501671666468</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05992702864618395</v>
+        <v>0.05858092526476405</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03301039078219606</v>
+        <v>0.04983374717262597</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05351753144806806</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03400807067897373</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06072605569479974</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07787105503556613</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05959431754859304</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1206372557472739</v>
+        <v>0.07676657728678449</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05993525279824202</v>
+        <v>0.05979422947194814</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03301039078219606</v>
+        <v>0.1246259204672036</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06072605569479974</v>
+        <v>0.05936200426829424</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0331383284912701</v>
+        <v>0.04996183533725837</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05422170949343737</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03379033873307581</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06152508274341553</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.07731949048254061</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06037845330581137</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1201087858482714</v>
+        <v>0.07653711835726354</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06072387454558732</v>
+        <v>0.06058099564921062</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0331383284912701</v>
+        <v>0.1234925569041919</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06152508274341553</v>
+        <v>0.06014308327182443</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03296589716800889</v>
+        <v>0.05008507057510325</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05492588753880669</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03387057115184852</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06232410979203131</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.0770676133323753</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0611625890630297</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1196751294451341</v>
+        <v>0.07580603997753707</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06151249629293261</v>
+        <v>0.06136776182647308</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03296589716800889</v>
+        <v>0.1238512414843579</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06232410979203131</v>
+        <v>0.06092416227535462</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03249373517048422</v>
+        <v>0.05020337474427812</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05563006558417601</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03364905076205633</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.0631231368406471</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.07691689859284173</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06194672482024803</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1186384350706752</v>
+        <v>0.0750750022915935</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0623011180402779</v>
+        <v>0.06215452800373556</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03249373517048422</v>
+        <v>0.1224031392144477</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0631231368406471</v>
+        <v>0.06170524127888481</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0325224808567679</v>
+        <v>0.05031666970290051</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05633424362954532</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0335260603904637</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06392216388926289</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.07626882127171145</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06273086057746635</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1193008512577082</v>
+        <v>0.07474566544342118</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06308973978762319</v>
+        <v>0.06294129418099803</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0325224808567679</v>
+        <v>0.1230494151012074</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06392216388926289</v>
+        <v>0.06248632028241499</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03245277258493177</v>
+        <v>0.05042487730908793</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05703842167491464</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03330188286383509</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06472119093787868</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.07602485637675602</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06351499633468469</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1174645265390464</v>
+        <v>0.07421968957700861</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06387836153496847</v>
+        <v>0.06372806035826051</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03245277258493177</v>
+        <v>0.1217912341513829</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06472119093787868</v>
+        <v>0.06326739928594519</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03218524871304766</v>
+        <v>0.05052791942095791</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05774259972028396</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03317680100893491</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06552021798649446</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.07608647891574702</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06429913209190302</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1177316094475032</v>
+        <v>0.07429873483634417</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06466698328231377</v>
+        <v>0.06451482653552298</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03218524871304766</v>
+        <v>0.1214297613717204</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06552021798649446</v>
+        <v>0.06404847828947537</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03192054759918739</v>
+        <v>0.05062571789662798</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05844677776565327</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03315109765252766</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06631924503511025</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.07565516389645596</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06508326784912134</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1172042485158917</v>
+        <v>0.07358446136541633</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06545560502965905</v>
+        <v>0.06530159271278546</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03192054759918739</v>
+        <v>0.1205661617689658</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06631924503511025</v>
+        <v>0.06482955729300556</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03175930760142277</v>
+        <v>0.05071819459421563</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05915095581102259</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03312505562137776</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06711827208372603</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.07533238632665445</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06586740360633968</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1154845922770256</v>
+        <v>0.07337852930821342</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06624422677700435</v>
+        <v>0.06608835889004794</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03175930760142277</v>
+        <v>0.1212016003498653</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06711827208372603</v>
+        <v>0.06561063629653574</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03180216707782565</v>
+        <v>0.05080527137183841</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05985513385639191</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03279895774224971</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06791729913234182</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.07451962121411398</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06665153936355801</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1154747892637181</v>
+        <v>0.07268259880872396</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06703284852434964</v>
+        <v>0.06687512506731041</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03180216707782565</v>
+        <v>0.119837242121165</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06791729913234182</v>
+        <v>0.06639171530006593</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03144976438646785</v>
+        <v>0.05088687008761382</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06055931190176122</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03267308684190792</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0687163261809576</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.07461834356660613</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06743567512077633</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1152769880087823</v>
+        <v>0.07279833001093633</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06782147027169494</v>
+        <v>0.06766189124457289</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03144976438646785</v>
+        <v>0.1202742520896108</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0687163261809576</v>
+        <v>0.06717279430359613</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03140273788542119</v>
+        <v>0.05096291259965939</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06126348994713054</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03264772574711684</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06951535322957339</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.07393002839190252</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06821981087799467</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.113693337045032</v>
+        <v>0.071927383058839</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06861009201904021</v>
+        <v>0.06844865742183537</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03140273788542119</v>
+        <v>0.1192137952619488</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06951535322957339</v>
+        <v>0.06795387330712631</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03136172593275749</v>
+        <v>0.05103332076609263</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06196766799249985</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03252315728464097</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07031438027818918</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.07375615069777458</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06900394663521299</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1139259563132704</v>
+        <v>0.07147141809642032</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06939871376638551</v>
+        <v>0.06923542359909785</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03136172593275749</v>
+        <v>0.1188570366449251</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07031438027818918</v>
+        <v>0.06873495231065649</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03092736688654858</v>
+        <v>0.05109801644503106</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06267184603786917</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03239966428124473</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07111340732680496</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.0739936410422784</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06978808239243132</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1133608516775086</v>
+        <v>0.07113209526766878</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0701873355137308</v>
+        <v>0.07002218977636032</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03092736688654858</v>
+        <v>0.1186051412452857</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07111340732680496</v>
+        <v>0.06951603131418667</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03100029910486628</v>
+        <v>0.05115692149459224</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06337602408323849</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03227752956369261</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07191243437542075</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.07303808319449501</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07057221814964965</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1125852929097581</v>
+        <v>0.07151107471657275</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07097595726107608</v>
+        <v>0.0708089559536228</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03100029910486628</v>
+        <v>0.1179592740697768</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07191243437542075</v>
+        <v>0.07029711031771686</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03098116094578242</v>
+        <v>0.0512099577728936</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06408020212860781</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.032257035958749</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07271146142403653</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.07278900639603481</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07135635390686798</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.111799578305299</v>
+        <v>0.07101001658712069</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07176457900842138</v>
+        <v>0.07159572213088528</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03098116094578242</v>
+        <v>0.1172206001251443</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07271146142403653</v>
+        <v>0.07107818932124706</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03056882635832629</v>
+        <v>0.05125704713805275</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06478438017397711</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03193846629317842</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07351048847265232</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.07274593992493364</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0721404896640863</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1109040061594122</v>
+        <v>0.070330581023301</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07255320075576666</v>
+        <v>0.07238248830814775</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03056882635832629</v>
+        <v>0.1166902844181343</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07351048847265232</v>
+        <v>0.07185926832477724</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03076026170275754</v>
+        <v>0.05129811144818716</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06548855821934643</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03212021803768045</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.0743095155212681</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.0727084130592274</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07292462542130464</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1112988747673778</v>
+        <v>0.07056886333349419</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07334182250311196</v>
+        <v>0.07316925448541023</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03076026170275754</v>
+        <v>0.1171641233502539</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0743095155212681</v>
+        <v>0.07264034732830743</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03055517417188647</v>
+        <v>0.05133307256141437</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06619273626471575</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03199932824943121</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07510854256988389</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.07277595507695192</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07370876117852297</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1108844824244763</v>
+        <v>0.06981609704529032</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07413044425045724</v>
+        <v>0.07395602066267271</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03055517417188647</v>
+        <v>0.1162333264484952</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07510854256988389</v>
+        <v>0.07342142633183761</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03055333198184221</v>
+        <v>0.05136185233585189</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06689691431008507</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03157577938310804</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07590756961849968</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.0724480952561431</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07449289693574129</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1101611274259882</v>
+        <v>0.06977154593877313</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07491906599780254</v>
+        <v>0.07474278683993518</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03055333198184221</v>
+        <v>0.1156974883323171</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07590756961849968</v>
+        <v>0.0742025053353678</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03015450334875391</v>
+        <v>0.05138437262961723</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06760109235545438</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03144959825230204</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07670659666711546</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.07162436287483676</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07527703269295963</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1086291080671939</v>
+        <v>0.06933459776671372</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07570768774514783</v>
+        <v>0.07552955301719766</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03015450334875391</v>
+        <v>0.1152563510571535</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07670659666711546</v>
+        <v>0.074983584338898</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03015845648875064</v>
+        <v>0.05140055530082793</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06830527040082369</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03152081167060433</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07750562371573125</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.07130428721106877</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07606116845017796</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.107788722643374</v>
+        <v>0.06980464028188321</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07649630949249313</v>
+        <v>0.07631631919446012</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03015845648875064</v>
+        <v>0.1143096566784378</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07750562371573125</v>
+        <v>0.07576466334242818</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03026495961796159</v>
+        <v>0.0514103222076015</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06900944844619301</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03128944645160606</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07830465076434703</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.071487397542875</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07684530420739628</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1071402694498087</v>
+        <v>0.06908106123705265</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0772849312398384</v>
+        <v>0.0771030853717226</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03026495961796159</v>
+        <v>0.1136571472516036</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07830465076434703</v>
+        <v>0.07654574234595837</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03017378095251587</v>
+        <v>0.05141359520805547</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06971362649156233</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03105552940889829</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07910367781296282</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.07097322314829135</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07762943996461462</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1072840467817785</v>
+        <v>0.06926324838499318</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0780735529871837</v>
+        <v>0.07788985154898508</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03017378095251587</v>
+        <v>0.1142985648320851</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07910367781296282</v>
+        <v>0.07732682134948855</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02978468870854259</v>
+        <v>0.05141359520805545</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06971362649156233</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03091908735607217</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07990270486157861</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.07116129330535367</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07841357572183295</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1068203529345638</v>
+        <v>0.06855058947847589</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07886217473452899</v>
+        <v>0.07867661772624755</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02978468870854259</v>
+        <v>0.1136336514753153</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07990270486157861</v>
+        <v>0.07810790035301875</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02969745110217085</v>
+        <v>0.05054360677112152</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06971335796309831</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0310801471067188</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08070173191019439</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.07125113729209781</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07919771147905127</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1059494862034452</v>
+        <v>0.06854247227027185</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07965079648187427</v>
+        <v>0.07946338390351003</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02969745110217085</v>
+        <v>0.1133621492367282</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08070173191019439</v>
+        <v>0.07888897935654893</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02991183634952982</v>
+        <v>0.04968336592848223</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06971308943463431</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0307387354744293</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08150075895881018</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.07084228438655962</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07998184723626961</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1050717448837031</v>
+        <v>0.0682382845131522</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08043941822921957</v>
+        <v>0.08025015008077251</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02991183634952982</v>
+        <v>0.1118838001717575</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08150075895881018</v>
+        <v>0.07967005836007912</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02982761266674862</v>
+        <v>0.04883333201921841</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06971282090617027</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03049487927279484</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08229978600742596</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.07043426386677498</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08076598299348794</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1048874272706177</v>
+        <v>0.06823741395988803</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08122803997656484</v>
+        <v>0.08103691625803498</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02982761266674862</v>
+        <v>0.1118983463358366</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08229978600742596</v>
+        <v>0.08045113736360932</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02964454826995638</v>
+        <v>0.04799396438252167</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06971255237770627</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03044860531540644</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08309881305604175</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.07052660501077981</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08155011875070627</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1031968316594697</v>
+        <v>0.06753924836325043</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08201666172391014</v>
+        <v>0.08182368243529746</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02964454826995638</v>
+        <v>0.1111055297843995</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08309881305604175</v>
+        <v>0.0812322163671395</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0295624113752822</v>
+        <v>0.04716572235747234</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06971228384924225</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03029994041585529</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08389784010465753</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07021883709660987</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0823342545079246</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1036002563455394</v>
+        <v>0.06814317547601051</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08280528347125543</v>
+        <v>0.08261044861255994</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0295624113752822</v>
+        <v>0.1111050925728796</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08389784010465753</v>
+        <v>0.08201329537066968</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02958097019885528</v>
+        <v>0.04634906528318801</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06971201532077824</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0302489113877325</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08469686715327332</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06951048940230103</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08311839026514294</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1016979996241074</v>
+        <v>0.06764858305093932</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08359390521860073</v>
+        <v>0.0833972147898224</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02958097019885528</v>
+        <v>0.1099967767567108</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08469686715327332</v>
+        <v>0.08279437437419986</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02949999295680464</v>
+        <v>0.04554445249875154</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06971174679231421</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03019554504462915</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08549589420188912</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0692010912058893</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08390252602236126</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1013903597904539</v>
+        <v>0.06745485884080804</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08438252696594602</v>
+        <v>0.08418398096708488</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02949999295680464</v>
+        <v>0.1103803243913265</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08549589420188912</v>
+        <v>0.08357545337773005</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02911924786525948</v>
+        <v>0.04475234334335054</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0697114782638502</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02973986820013641</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08629492125050491</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06899017178541042</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08468666177957958</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1002776351398594</v>
+        <v>0.0675613905983877</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0851711487132913</v>
+        <v>0.08497074714434735</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02911924786525948</v>
+        <v>0.1093554775321605</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08629492125050491</v>
+        <v>0.08435653238126024</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02903850314034889</v>
+        <v>0.0439731971560673</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06971120973538618</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02958190766784535</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08709394829912069</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06877726041890025</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08547079753679791</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.09966012396760449</v>
+        <v>0.06686756607644945</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08595977046063659</v>
+        <v>0.08575751332160983</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02903850314034889</v>
+        <v>0.1085219782346465</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08709394829912069</v>
+        <v>0.08513761138479042</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02925752699820203</v>
+        <v>0.04320747327601943</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06971094120692216</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0294216902613471</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08789297534773648</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.06906188638439473</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08625493329401623</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.09873812456896947</v>
+        <v>0.0669727730277643</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08674839220798188</v>
+        <v>0.08654427949887231</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02925752699820203</v>
+        <v>0.108479568554218</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08789297534773648</v>
+        <v>0.08591869038832062</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02917608765494799</v>
+        <v>0.04245563104229207</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06971067267845814</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02945924279423277</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08869200239635226</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06904357895992966</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08703906905123457</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.09831193523923487</v>
+        <v>0.06697639920510345</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08753701395532718</v>
+        <v>0.08733104567613478</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02917608765494799</v>
+        <v>0.107327990546309</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08869200239635226</v>
+        <v>0.0866997693918508</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02879395332671594</v>
+        <v>0.04171812979406828</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06971040414999412</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02919459208009348</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08949102944496805</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.06842186742354089</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0878232048084529</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.09858185427368105</v>
+        <v>0.06667783236123798</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08832563570267246</v>
+        <v>0.08811781185339726</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02879395332671594</v>
+        <v>0.1075669862663527</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08949102944496805</v>
+        <v>0.08748084839538099</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02871089222963498</v>
+        <v>0.04099542887043259</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06971013562153011</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02912776493252038</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09029005649358383</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.06829628105326435</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08860734056567122</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.09704817996758835</v>
+        <v>0.065976460248939</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08911425745001776</v>
+        <v>0.08890457803065974</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02871089222963498</v>
+        <v>0.1067962977697832</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09029005649358383</v>
+        <v>0.08826192739891119</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02862667257983421</v>
+        <v>0.04028798761050262</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06970986709306609</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02875878816510456</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09108908354219962</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.06806634912713586</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08939147632288956</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.09691121061623753</v>
+        <v>0.06617167062097751</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08990287919736305</v>
+        <v>0.08969134420792221</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02862667257983421</v>
+        <v>0.1062156671120338</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09108908354219962</v>
+        <v>0.08904300640244137</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02864106259344282</v>
+        <v>0.03959626535336618</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06970959856460207</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02888768859143714</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09188811059081541</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.06803160092319133</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09017561208010788</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.09537124451490864</v>
+        <v>0.0660628512301247</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09069150094470833</v>
+        <v>0.09047811038518468</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02864106259344282</v>
+        <v>0.1051248363485385</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09188811059081541</v>
+        <v>0.08982408540597156</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02855383048658987</v>
+        <v>0.03892072143820108</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06970933003613805</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02861449302510921</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09268713763943119</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.06759156571946656</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09095974783732622</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.09442857995888237</v>
+        <v>0.06514938982915164</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09148012269205362</v>
+        <v>0.09126487656244715</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02855383048658987</v>
+        <v>0.1042235475347307</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09268713763943119</v>
+        <v>0.09060516440950174</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02856474447540454</v>
+        <v>0.03826181520409443</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06970906150767404</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02843922827971192</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09348616468804698</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.06754577279399748</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09174388359454455</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.09358351524343905</v>
+        <v>0.06543067417082948</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09226874443939892</v>
+        <v>0.09205164273970963</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02856474447540454</v>
+        <v>0.1036115427260442</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09348616468804698</v>
+        <v>0.09138624341303193</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02847357277601593</v>
+        <v>0.03762000599016382</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06970879297921002</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0282619211688364</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09428519173666276</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.06669375142481995</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09252801935176287</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.09413634866385917</v>
+        <v>0.0653060920079292</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09305736618674421</v>
+        <v>0.09283840891697211</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02847357277601593</v>
+        <v>0.1030885639779127</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09428519173666276</v>
+        <v>0.09216732241656211</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02838008360455319</v>
+        <v>0.03699575313550009</v>
       </c>
       <c r="G184" t="n">
+        <v>0.069708524450746</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02798259850607372</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09508421878527855</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.06673503088996977</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09331215510898121</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09278737851542312</v>
+        <v>0.064475031093222</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09384598793408949</v>
+        <v>0.09362517509423458</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02838008360455319</v>
+        <v>0.1025543533457696</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09508421878527855</v>
+        <v>0.09294840142009231</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02838404517714543</v>
+        <v>0.03638951597927513</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06970825592228198</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02800128710501504</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09588324583389433</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.06616914046748285</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09409629086619954</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.09203690309341134</v>
+        <v>0.06423687917947896</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09463460968143478</v>
+        <v>0.09441194127149706</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02838404517714543</v>
+        <v>0.1030086528850488</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09588324583389433</v>
+        <v>0.09372948042362249</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02828522570992177</v>
+        <v>0.03580175386057899</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06970798739381796</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02751801377925145</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09668227288251012</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.06639560943539508</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09488042662341786</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.09058522069310432</v>
+        <v>0.06399102401947118</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09542323142878006</v>
+        <v>0.09519870744875954</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02828522570992177</v>
+        <v>0.101351204651184</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09668227288251012</v>
+        <v>0.09451055942715267</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02788339341901135</v>
+        <v>0.03523292611852923</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06970771886535396</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02763280534237407</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09748129993112591</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.0663139670717422</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0956645623806362</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.09093262960978254</v>
+        <v>0.06403685336596973</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09621185317612536</v>
+        <v>0.09598547362602201</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02788339341901135</v>
+        <v>0.1009817506996087</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09748129993112591</v>
+        <v>0.09529163843068286</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02787831652054326</v>
+        <v>0.03468349209221998</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06970745033688992</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02714568860797405</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09828032697974169</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06582374265456026</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09644869813785453</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.08957942813872616</v>
+        <v>0.06417375497174574</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09700047492347065</v>
+        <v>0.09677223980328449</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02787831652054326</v>
+        <v>0.1003000330857567</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09828032697974169</v>
+        <v>0.09607271743421304</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02786976323064669</v>
+        <v>0.03415391112081663</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06970718180842592</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02725669038964246</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09907935402835748</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06552446546188498</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09723283389507285</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.08952591457521603</v>
+        <v>0.06390111658957029</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09778909667081595</v>
+        <v>0.09755900598054695</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02786976323064669</v>
+        <v>0.09900579386506153</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09907935402835748</v>
+        <v>0.09685379643774324</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0276575017654507</v>
+        <v>0.03364276690868215</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0697069132799619</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02686583750097041</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09987838107697326</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0648156647717523</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09801696965229119</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.08877238721453223</v>
+        <v>0.06301832597221449</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09857771841816124</v>
+        <v>0.09834577215780943</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0276575017654507</v>
+        <v>0.099098775092957</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09987838107697326</v>
+        <v>0.09763487544127343</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0274413003410845</v>
+        <v>0.03313926498655324</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06970664475149789</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02677315675554907</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.100677408125589</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06509686986219806</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09880110540950952</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.08771914435195538</v>
+        <v>0.0632247708724494</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09936634016550652</v>
+        <v>0.09913253833507191</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0274413003410845</v>
+        <v>0.0982787188248766</v>
       </c>
       <c r="O191" t="n">
-        <v>0.100677408125589</v>
+        <v>0.09841595444480361</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02732092717367714</v>
+        <v>0.03264198905879602</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06970637622303386</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02667867496696953</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1014764351742048</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06416761001125812</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09958524116672784</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.08616648428276591</v>
+        <v>0.06241983904304618</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1001549619128518</v>
+        <v>0.09991930451233438</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02732092717367714</v>
+        <v>0.09804536711625417</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1014764351742048</v>
+        <v>0.0991970334483338</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02729615047935775</v>
+        <v>0.03215139846457137</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06970610769456985</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02647590751785525</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1022754622228206</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06402741449696836</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1003693769239462</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.08601470530224414</v>
+        <v>0.06199384236962185</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1009435836601971</v>
+        <v>0.1007060706895969</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02729615047935775</v>
+        <v>0.09697402683863088</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1022754622228206</v>
+        <v>0.09997811245186398</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02716673847425551</v>
+        <v>0.03166795254297508</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06970583916610583</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0259575985794849</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1030744892714364</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.06387581259736461</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1011535126811645</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.08516410570567068</v>
+        <v>0.0619362128057023</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1017322054075424</v>
+        <v>0.1014928368668593</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02716673847425551</v>
+        <v>0.09613755749780645</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1030744892714364</v>
+        <v>0.1007591914553942</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0270324593744995</v>
+        <v>0.03119211063312474</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06970557063764182</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02582479065236581</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1038735163200522</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0633123335904828</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1019376484383828</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.08451498378832578</v>
+        <v>0.06184872674128661</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1025208271548877</v>
+        <v>0.1022796030441218</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0270324593744995</v>
+        <v>0.09523975182247807</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1038735163200522</v>
+        <v>0.1015402704589244</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02689308139621889</v>
+        <v>0.03072433207411773</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06970530210917779</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02567854570225508</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.104672543368668</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.06333650675435873</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1027217841956012</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.08346763784548999</v>
+        <v>0.06103320053376882</v>
       </c>
       <c r="M196" t="n">
-        <v>0.103309448902233</v>
+        <v>0.1030663692213843</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02689308139621889</v>
+        <v>0.09408446800085646</v>
       </c>
       <c r="O196" t="n">
-        <v>0.104672543368668</v>
+        <v>0.1023213494624546</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02664837275554276</v>
+        <v>0.03026507620511239</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06970503358071378</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02551992569490974</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1054715704172838</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06234786136702827</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1035059199528195</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.08342236617244381</v>
+        <v>0.06049145054054289</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1040980706495783</v>
+        <v>0.1038531353986468</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02664837275554276</v>
+        <v>0.092975564221152</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1054715704172838</v>
+        <v>0.1031024284659847</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02649810166860025</v>
+        <v>0.02981480236520577</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06970476505224976</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02494999259608681</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1062705974658995</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.06224592670652734</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1042900557100378</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.08157946706446745</v>
+        <v>0.06002529311900295</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1048866923969236</v>
+        <v>0.1046399015759092</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02649810166860025</v>
+        <v>0.09191689867157532</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1062705974658995</v>
+        <v>0.1038835074695149</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02634203635152053</v>
+        <v>0.0293739698935154</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06970449652378574</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02476980837154333</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1070696245145153</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.06193023205089179</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1050741914672561</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.08173923881684164</v>
+        <v>0.0595365446265429</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1056753141442688</v>
+        <v>0.1054266677531717</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02634203635152053</v>
+        <v>0.09071232954033698</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1070696245145153</v>
+        <v>0.1046645864730451</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02636610744189294</v>
+        <v>0.02894303812914038</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06970422799532172</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02438043498703638</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1078686515631311</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.06130030667815745</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1058583272244745</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.08110196789505097</v>
+        <v>0.05912702142055684</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1064639358916141</v>
+        <v>0.1062134339304342</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02636610744189294</v>
+        <v>0.08966571501564752</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1078686515631311</v>
+        <v>0.1054456654765753</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02615544798355991</v>
+        <v>0.02852246641123582</v>
       </c>
       <c r="G201" t="n">
+        <v>0.0697039594668577</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02408293440832297</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1086676786117469</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.06075552264186723</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1066424629816928</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.08065652171222465</v>
+        <v>0.05879853985843878</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1072525576389594</v>
+        <v>0.1070002001076967</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02615544798355991</v>
+        <v>0.08818091328571748</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1086676786117469</v>
+        <v>0.1062267444801055</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02571299833656741</v>
+        <v>0.02811271407890027</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06970369093839369</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02377836860116019</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1094667056603627</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.06012469501129586</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1074265987389111</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.07969472536731909</v>
+        <v>0.05805291629758275</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1080411793863047</v>
+        <v>0.1077869662849591</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02571299833656741</v>
+        <v>0.08676178253875733</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1094667056603627</v>
+        <v>0.1070078234836357</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0254417355020676</v>
+        <v>0.02771424047125136</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06970342240992967</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02356779953130499</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1102657327089785</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.06005795162522146</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1082107344961295</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07841919006869408</v>
+        <v>0.05789196709538277</v>
       </c>
       <c r="M203" t="n">
-        <v>0.10882980113365</v>
+        <v>0.1085737324622216</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0254417355020676</v>
+        <v>0.08591218096297781</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1102657327089785</v>
+        <v>0.1077889024871659</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02534463648121281</v>
+        <v>0.02732750492739007</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06970315388146565</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02325228916451451</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1110647597575943</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05926804575763669</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1089948702533478</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.07813252702470941</v>
+        <v>0.05741750860923286</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1096184228809953</v>
+        <v>0.1093604986394841</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02534463648121281</v>
+        <v>0.08483596674658933</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1110647597575943</v>
+        <v>0.1085699814906961</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02492467827515529</v>
+        <v>0.02695296678646771</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06970288535300163</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02283289946654575</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.11186378680621</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05766773068253442</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1097790060105661</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.07653734744372487</v>
+        <v>0.05683135719652707</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1104070446283406</v>
+        <v>0.1101472648167466</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02492467827515529</v>
+        <v>0.0836369980778025</v>
       </c>
       <c r="O205" t="n">
-        <v>0.11186378680621</v>
+        <v>0.1093510604942262</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02478483788504726</v>
+        <v>0.0265910853875847</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06970261682453763</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02261069240315576</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1126628138548258</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.05676975967390721</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1105631417677845</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.07663626253410016</v>
+        <v>0.05553532921465934</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1111956663756859</v>
+        <v>0.110934030994009</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02478483788504726</v>
+        <v>0.08281913314482786</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1126628138548258</v>
+        <v>0.1101321394977564</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02422809231204098</v>
+        <v>0.02624232006985867</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06970234829607361</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02248672994010159</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1134618409034416</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.05618688600574787</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1113472775250028</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.0755318835041951</v>
+        <v>0.05563124102102376</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1119842881230312</v>
+        <v>0.1117207971712715</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02422809231204098</v>
+        <v>0.08028623013587588</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1134618409034416</v>
+        <v>0.1109132185012866</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02395741855728876</v>
+        <v>0.02590713017239292</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06970207976760959</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02196207404314027</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1142608679520574</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.05503186295204912</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1121314132822211</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.07432682156236936</v>
+        <v>0.05482090897301434</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1127729098703764</v>
+        <v>0.112507563348534</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02395741855728876</v>
+        <v>0.07944214723915727</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1142608679520574</v>
+        <v>0.1116942975048168</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02357579362194279</v>
+        <v>0.02558597503433417</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06970181123914557</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02173778667802884</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1150598950006732</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.05341744378680371</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1129155490394394</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.07332368791698274</v>
+        <v>0.05430614942802511</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1135615316177217</v>
+        <v>0.1132943295257965</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02357579362194279</v>
+        <v>0.07809074264288235</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1150598950006732</v>
+        <v>0.112475376508347</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02308619450715536</v>
+        <v>0.02527931399478517</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06970154271068156</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02131492981052435</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.115858922049289</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.05255638178400424</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1136996847966578</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.07282509377639507</v>
+        <v>0.05348877874345009</v>
       </c>
       <c r="M210" t="n">
-        <v>0.114350153365067</v>
+        <v>0.114081095703059</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02308619450715536</v>
+        <v>0.07693587453526191</v>
       </c>
       <c r="O210" t="n">
-        <v>0.115858922049289</v>
+        <v>0.1132564555118772</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02269159821407873</v>
+        <v>0.02498760639286346</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06970127418221754</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02089456540638387</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1166579490979048</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.05076143021764354</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1144838205538761</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.07193365034896604</v>
+        <v>0.05267061327668338</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1151387751124123</v>
+        <v>0.1148678618803214</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02269159821407873</v>
+        <v>0.07498140110450641</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1166579490979048</v>
+        <v>0.1140375345154074</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02229498174386516</v>
+        <v>0.02471131156767496</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06970100565375352</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02067775543136441</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1174569761465206</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.05014534236171431</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1152679563110944</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.07185196884305545</v>
+        <v>0.05215346938511883</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1159273968597576</v>
+        <v>0.1156546280575839</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02229498174386516</v>
+        <v>0.07463118053882634</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1174569761465206</v>
+        <v>0.1148186135189375</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02179932209766688</v>
+        <v>0.02445088885836132</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0697007371252895</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.020365561851223</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1182560031951363</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04852087149020928</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1160520920683128</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07078266046702297</v>
+        <v>0.05173916342615059</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1167160186071029</v>
+        <v>0.1164413942348464</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02179932209766688</v>
+        <v>0.07228907102643223</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1182560031951363</v>
+        <v>0.1155996925224677</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02150759627663616</v>
+        <v>0.02420679760402773</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06970046859682548</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02025904663171674</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1190550302437521</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04740077087712116</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1168362278255311</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.06912833642922844</v>
+        <v>0.05122951175717264</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1175046403544482</v>
+        <v>0.1172281604121088</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02150759627663616</v>
+        <v>0.07145893075553478</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1190550302437521</v>
+        <v>0.1163807715259979</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02122278128192527</v>
+        <v>0.02420679760402772</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06970046859682548</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01985927173860262</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1198540572923679</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04609779379644266</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1176203635827494</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.06859160793803171</v>
+        <v>0.05032633073557904</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1182932621017935</v>
+        <v>0.1180149265893713</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02122278128192527</v>
+        <v>0.07024461791434439</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1198540572923679</v>
+        <v>0.1171618505295281</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02084785411468645</v>
+        <v>0.0235934008229513</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06958029562232693</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.0195672991376377</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1206530843409837</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04422469352216649</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1184044993399678</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.0676750862017923</v>
+        <v>0.04993143671876379</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1190818838491388</v>
+        <v>0.1188016927666338</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02084785411468645</v>
+        <v>0.06904999069107171</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1206530843409837</v>
+        <v>0.1179429295330583</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02038579177607198</v>
+        <v>0.02298686954587265</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06946012264782837</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01938419079457904</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1214521113895995</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.04309422332828541</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1191886350971861</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.06798138242887014</v>
+        <v>0.04964664606412092</v>
       </c>
       <c r="M217" t="n">
-        <v>0.119870505596484</v>
+        <v>0.1195884589438963</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02038579177607198</v>
+        <v>0.06727890727392727</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1214521113895995</v>
+        <v>0.1187240085365885</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0199395712672341</v>
+        <v>0.0223875257958548</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06933994967332982</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01901100867518367</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1222511384382153</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.04201913648879213</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1199727708544044</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.066413107827625</v>
+        <v>0.04887377512904442</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1206591273438293</v>
+        <v>0.1203752251211588</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0199395712672341</v>
+        <v>0.06583522585112161</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1222511384382153</v>
+        <v>0.1195050875401187</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01961216958932505</v>
+        <v>0.02179569159596061</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06921977669883125</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01854881474520863</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1230501654868311</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.04131218627767938</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1207569066116227</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.06566948437361214</v>
+        <v>0.04841464027092837</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1214477490911746</v>
+        <v>0.1211619912984212</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01961216958932505</v>
+        <v>0.06532280461086526</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1230501654868311</v>
+        <v>0.1202861665436489</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0196065637434971</v>
+        <v>0.02121168896925311</v>
       </c>
       <c r="G220" t="n">
+        <v>0.0690996037243327</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01839867097041097</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1238491925354468</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.04028612596893982</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1215410423688411</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.06603179773034551</v>
+        <v>0.04717105784716677</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1222363708385199</v>
+        <v>0.1219487574756837</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0196065637434971</v>
+        <v>0.06394550174136876</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1238491925354468</v>
+        <v>0.121067245547179</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0191257307309025</v>
+        <v>0.0206358399387952</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06897943074983415</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01826163931654771</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1246482195840626</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03915370883656627</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1223251781260594</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.06529689537909922</v>
+        <v>0.04704484421515359</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1230249925858652</v>
+        <v>0.1227355236529462</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0191257307309025</v>
+        <v>0.06260717543084271</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1246482195840626</v>
+        <v>0.1218483245507092</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01887264755269354</v>
+        <v>0.02006846652764975</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06885925777533558</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01803878174937593</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1254472466326784</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03792768815455136</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1231093138832777</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.06396493522703367</v>
+        <v>0.04663781573228293</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1238136143332105</v>
+        <v>0.1235222898302087</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01887264755269354</v>
+        <v>0.06171168386749759</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1254472466326784</v>
+        <v>0.1226294035542394</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01865029121002243</v>
+        <v>0.01950989075887981</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06873908480083703</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01763116023465265</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1262462736812942</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0376208171968879</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1238934496404961</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0641360751813092</v>
+        <v>0.04615178875594883</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1246022360805558</v>
+        <v>0.1243090560074711</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01865029121002243</v>
+        <v>0.06076288523954404</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1262462736812942</v>
+        <v>0.1234104825577696</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01866163870404147</v>
+        <v>0.01896043465554822</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06861891182633846</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01773983673813494</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.12704530072991</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03654584923756854</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1246775853977144</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.06291047314908649</v>
+        <v>0.0458885796435452</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1253908578279011</v>
+        <v>0.1250958221847336</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01866163870404147</v>
+        <v>0.0595646377351926</v>
       </c>
       <c r="O224" t="n">
-        <v>0.12704530072991</v>
+        <v>0.1241915615612998</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0184096670359029</v>
+        <v>0.01842042024071801</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06849873885183992</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0174658732255798</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1278443277785258</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03611553755058605</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1254617211549327</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.06258828703752584</v>
+        <v>0.04475000475246615</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1261794795752464</v>
+        <v>0.1258825883619961</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0184096670359029</v>
+        <v>0.0591207995426537</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1278443277785258</v>
+        <v>0.12497264056483</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01827790566765072</v>
+        <v>0.01789016953745208</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06837856587734137</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01731033166274429</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1286433548271415</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03582775667342344</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.126245856912151</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.06156967475378772</v>
+        <v>0.04443788044010571</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1269681013225917</v>
+        <v>0.1266693545392586</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01827790566765072</v>
+        <v>0.05723522885013804</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1286433548271415</v>
+        <v>0.1257537195683602</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01814755850123533</v>
+        <v>0.0173700045688133</v>
       </c>
       <c r="G227" t="n">
+        <v>0.0682583929028428</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01727427401538548</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1294423818757574</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03577078026698066</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1270299926693694</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.0612547942050326</v>
+        <v>0.04455402306385786</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1277567230699369</v>
+        <v>0.127456120716521</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01814755850123533</v>
+        <v>0.05671178384585601</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1294423818757574</v>
+        <v>0.1265347985718904</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01801873211578407</v>
+        <v>0.01686024735786473</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06813821992834425</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01715876224926038</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1302414089243731</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03561913507946152</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1278141284265877</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06004380329842091</v>
+        <v>0.04400024898111665</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1285453448172822</v>
+        <v>0.1282428868937835</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01801873211578407</v>
+        <v>0.05635432271801838</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1302414089243731</v>
+        <v>0.1273158775754205</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01799153364896901</v>
+        <v>0.01636121992766919</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06801804695384568</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01686485833012605</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1310404359729889</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03527290448499676</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.128598264183806</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.05973685994111305</v>
+        <v>0.04367837454927612</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1293339665646275</v>
+        <v>0.129029653071046</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01799153364896901</v>
+        <v>0.05606670365483551</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1310404359729889</v>
+        <v>0.1280969565789507</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01776607023846223</v>
+        <v>0.01587324430128974</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06789787397934713</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01669348227161584</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1318394630216047</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03543217185771708</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1293823999410244</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.05923412204026962</v>
+        <v>0.04369002387658555</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1301225883119728</v>
+        <v>0.1298164192483084</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01776607023846223</v>
+        <v>0.05525225051817545</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1318394630216047</v>
+        <v>0.1288780355824809</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01774244902193584</v>
+        <v>0.01539664250178924</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06777770100484858</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01693189515628461</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1326384900702205</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03489702057175331</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1301665356982427</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.05853574750305096</v>
+        <v>0.04291628406176606</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1309112100593181</v>
+        <v>0.1306031854255709</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01774244902193584</v>
+        <v>0.05436845473982416</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1326384900702205</v>
+        <v>0.1296591145860111</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01752077713706189</v>
+        <v>0.0149317365522306</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06765752803035001</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01677133645213839</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1334375171188363</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03466753400123618</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.130950671455461</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.05864189423661748</v>
+        <v>0.04304395980500375</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1316998318066634</v>
+        <v>0.1313899516028334</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01752077713706189</v>
+        <v>0.05348716845508616</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1334375171188363</v>
+        <v>0.1304401935895413</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0172011617215125</v>
+        <v>0.01447884847567685</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06753735505585146</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01681185600977234</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1342365441674521</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0348437955202964</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1317348072126794</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.05725272014812971</v>
+        <v>0.04287339673147356</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1324884535540087</v>
+        <v>0.1321767177800959</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0172011617215125</v>
+        <v>0.05260920510115652</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1342365441674521</v>
+        <v>0.1312212725930715</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0170837099129597</v>
+        <v>0.01403830029519083</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0674171820813529</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01645350367978163</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1350355712160678</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03392588850306469</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1325189429698977</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.05666838314474798</v>
+        <v>0.0420049404663502</v>
       </c>
       <c r="M234" t="n">
-        <v>0.133277075301354</v>
+        <v>0.1329634839573584</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0170837099129597</v>
+        <v>0.05193537811522986</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1350355712160678</v>
+        <v>0.1320023515966017</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0169685288490756</v>
+        <v>0.01361041403383557</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06729700910685435</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01659632931276142</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1358345982646836</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03371389632367189</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.133303078727116</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.05618904113363288</v>
+        <v>0.04233893663480862</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1340656970486993</v>
+        <v>0.1337502501346208</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0169685288490756</v>
+        <v>0.05196650093450123</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1358345982646836</v>
+        <v>0.1327834306001319</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01715572566753228</v>
+        <v>0.01319551171467394</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06717683613235578</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01644038275930684</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1366336253132994</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03360790235624864</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1340872144843343</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.05661485202194477</v>
+        <v>0.04167573086202356</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1348543187960446</v>
+        <v>0.1345370163118833</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01715572566753228</v>
+        <v>0.0510033869961653</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1366336253132994</v>
+        <v>0.1335645096036621</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0168454075060018</v>
+        <v>0.01279391536076894</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06705666315785723</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01648571387001312</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1374326523619152</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.03340798997492575</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1348713502415527</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.05574597371684409</v>
+        <v>0.04121566877316987</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1356429405433899</v>
+        <v>0.1353237824891458</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0168454075060018</v>
+        <v>0.0511468497374169</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1374326523619152</v>
+        <v>0.1343455886071923</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01683768150215628</v>
+        <v>0.01240594699518346</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06693649018335868</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01653237249547536</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.138231679410531</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03391424255383396</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.135655485998771</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.05518256412549138</v>
+        <v>0.0408590959934225</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1364315622907351</v>
+        <v>0.1361105486664083</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01683768150215628</v>
+        <v>0.04969770259545081</v>
       </c>
       <c r="O238" t="n">
-        <v>0.138231679410531</v>
+        <v>0.1351266676107224</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01653265479366776</v>
+        <v>0.01203192864098043</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06681631720886011</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01648040848628875</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1390307064591468</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.03352674346710399</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1364396217559893</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.05492478115504701</v>
+        <v>0.04140635814795612</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1372201840380804</v>
+        <v>0.1368973148436707</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01653265479366776</v>
+        <v>0.05025675900746196</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1390307064591468</v>
+        <v>0.1359077466142526</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01643043451820836</v>
+        <v>0.01167086739371584</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06669614423436156</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01642987169304845</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1398297335077626</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.03344557608886661</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1372237575132076</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.05367278271267145</v>
+        <v>0.04055780086194569</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1380088057854257</v>
+        <v>0.1376840810209332</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01643043451820836</v>
+        <v>0.04932483241064511</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1398297335077626</v>
+        <v>0.1366888256177828</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01643112781345012</v>
+        <v>0.01131519571141058</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06657597125986299</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01628081196634962</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1406287605563784</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.03327082379325255</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.138007893270426</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.05302672670552505</v>
+        <v>0.04071376976056598</v>
       </c>
       <c r="M241" t="n">
-        <v>0.138797427532771</v>
+        <v>0.1384708471981957</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01643112781345012</v>
+        <v>0.0484027362421951</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1406287605563784</v>
+        <v>0.137469904621313</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01623484181706514</v>
+        <v>0.01096392068962066</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06645579828536445</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.0161332791567874</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1414277876049941</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.03320256995439252</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1387920290276443</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.05318677104076847</v>
+        <v>0.04047461046899187</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1395860492801163</v>
+        <v>0.1392576133754582</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01623484181706514</v>
+        <v>0.04869128393930683</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1414277876049941</v>
+        <v>0.1382509836248432</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0162416836667255</v>
+        <v>0.01061736435140898</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0663356253108659</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.016087323114957</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1422268146536099</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03244089794641733</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1395761647848626</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.052553073625562</v>
+        <v>0.0404406686123982</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1403746710274616</v>
+        <v>0.1400443795527206</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0162416836667255</v>
+        <v>0.04819128893917501</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1422268146536099</v>
+        <v>0.1390320626283733</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01605176050010329</v>
+        <v>0.01027584871983842</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06621545233636733</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01604299369145355</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1430258417022257</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.0320858911434577</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.140360300542081</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.05202579236706606</v>
+        <v>0.04021228981595976</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1411632927748069</v>
+        <v>0.1408311457299831</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01605176050010329</v>
+        <v>0.04720356467899439</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1430258417022257</v>
+        <v>0.1398131416319035</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01606517945487057</v>
+        <v>0.009939695817972022</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06609527936186878</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01590034073687224</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1438248687508415</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03253763291964437</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1411444362992993</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.05130508517244114</v>
+        <v>0.03958981970485137</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1419519145221522</v>
+        <v>0.1416179119072456</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01606517945487057</v>
+        <v>0.04652892459595998</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1438248687508415</v>
+        <v>0.1405942206354337</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01598204766869944</v>
+        <v>0.009609227668872643</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06597510638737021</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01595941410180819</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1446238957994573</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.03189620664910808</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1419285720565176</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.05009110994884775</v>
+        <v>0.03977360390424795</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1427405362694975</v>
+        <v>0.1424046780845081</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01598204766869944</v>
+        <v>0.04606818212726643</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1446238957994573</v>
+        <v>0.1413752996389639</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01600247227926198</v>
+        <v>0.009284766295603285</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06585493341287166</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.0159202636368566</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1454229228480731</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.03216169570597957</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.142712707813736</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.04938402460344626</v>
+        <v>0.0389639880393243</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1435291580168428</v>
+        <v>0.1431914442617706</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01600247227926198</v>
+        <v>0.04652215071010873</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1454229228480731</v>
+        <v>0.1421563786424941</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01572656042423025</v>
+        <v>0.008966633721226851</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0657347604383731</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01598293919261261</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1462219498966889</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.03163418346438956</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1434968435709543</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.04968398704339722</v>
+        <v>0.0388613177352552</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1443177797641881</v>
+        <v>0.143978210439033</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01572656042423025</v>
+        <v>0.04569164378168161</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1462219498966889</v>
+        <v>0.1429374576460243</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01575441924127632</v>
+        <v>0.008655151968806271</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06561458746387454</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0158474906196714</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1470209769453046</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.03191375329846893</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1442809793281726</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.04919115517586092</v>
+        <v>0.03856593861721555</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1451064015115333</v>
+        <v>0.1447649766162955</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01575441924127632</v>
+        <v>0.04477747477917987</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1470209769453046</v>
+        <v>0.1437185366495545</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01578615586807233</v>
+        <v>0.008350643061404511</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06549441448937598</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01591396776862811</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1478200039939204</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.03160048858234824</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.145065115085391</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.04860568690799799</v>
+        <v>0.03897819631038021</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1458950232588786</v>
+        <v>0.145551742793558</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01578615586807233</v>
+        <v>0.04408045713979847</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1478200039939204</v>
+        <v>0.1444996156530847</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01562187744229032</v>
+        <v>0.008053429022084481</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06537424151487743</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01578242049007794</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1486190310425362</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.03199447269015834</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1458492508426093</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.04872774014696868</v>
+        <v>0.03829843643992389</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1466836450062239</v>
+        <v>0.1463385089708205</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01562187744229032</v>
+        <v>0.04410140430073195</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1486190310425362</v>
+        <v>0.1452806946566149</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01546169110160237</v>
+        <v>0.007763831873909159</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06525406854037888</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01565289863461601</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.149418058091152</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.03189578899602996</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1466333865998276</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.04795747279993351</v>
+        <v>0.0380270046310216</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1474722667535692</v>
+        <v>0.1471252751480829</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01546169110160237</v>
+        <v>0.04374112969917537</v>
       </c>
       <c r="O252" t="n">
-        <v>0.149418058091152</v>
+        <v>0.1460617736601451</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01570570398368057</v>
+        <v>0.007482173639941421</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06513389556588031</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0159254520528375</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1502170851397678</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.03110452087409382</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1474175223570459</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.04679504277405305</v>
+        <v>0.03766424650884803</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1482608885009145</v>
+        <v>0.1479120413253454</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01570570398368057</v>
+        <v>0.04370044677232354</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1502170851397678</v>
+        <v>0.1468428526636752</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01555402322619699</v>
+        <v>0.007208776343244273</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06501372259138176</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01580013059533758</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1510161121883836</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.03102075169848068</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1482016581142643</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.0467406079764876</v>
+        <v>0.03781050769857811</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1490495102482598</v>
+        <v>0.1486988075026079</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01555402322619699</v>
+        <v>0.04268016895737126</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1510161121883836</v>
+        <v>0.1476239316672054</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01540675596682373</v>
+        <v>0.006943962006880633</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06489354961688321</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01567698411271139</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1518151392369994</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.03094456484332131</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1489857938714826</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.04689432631439761</v>
+        <v>0.03796613382538663</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1498381319956051</v>
+        <v>0.1494855736798704</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01540675596682373</v>
+        <v>0.04318110969151318</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1518151392369994</v>
+        <v>0.1484050106707356</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01526400934323285</v>
+        <v>0.006688052653913396</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06477337664238464</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01585606245555413</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1526141662856151</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.03157604368274641</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1497699296287009</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.04555635569494365</v>
+        <v>0.03803147051444841</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1506267537429504</v>
+        <v>0.1502723398571328</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01526400934323285</v>
+        <v>0.04310408241194441</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1526141662856151</v>
+        <v>0.1491860896742658</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01542589049309644</v>
+        <v>0.006441370307405561</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06465320366788609</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01583741547446092</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1534131933342309</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03111527159088678</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1505540653859193</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.04502685402528611</v>
+        <v>0.03790686339093835</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1514153754902957</v>
+        <v>0.1510591060343953</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01542589049309644</v>
+        <v>0.0430499005558595</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1534131933342309</v>
+        <v>0.149967168677796</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01549250655408656</v>
+        <v>0.006204236990420019</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06453303069338752</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01562109302002694</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1542122203828467</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03096233194187312</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1513382011431376</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.04430597921258533</v>
+        <v>0.0370926580800312</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1522039972376409</v>
+        <v>0.1518458722116578</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01549250655408656</v>
+        <v>0.04271937756045346</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1542122203828467</v>
+        <v>0.1507482476813262</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01546396466387534</v>
+        <v>0.005976974726019761</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06441285771888898</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01570714494284738</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1550112474314625</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03141730810983617</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1521223369003559</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.04519388916400197</v>
+        <v>0.03688920020690192</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1529926189849863</v>
+        <v>0.1526326383889202</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01546396466387534</v>
+        <v>0.04131332686292105</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1550112474314625</v>
+        <v>0.1515293266848564</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01524037196013479</v>
+        <v>0.005759905537267671</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06429268474439043</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01559562109351736</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1558102744800783</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03108028346890671</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1529064726575743</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.04399074178669621</v>
+        <v>0.03689683539672522</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1537812407323315</v>
+        <v>0.1534194045661827</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01524037196013479</v>
+        <v>0.04233256190045714</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1558102744800783</v>
+        <v>0.1523104056883866</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01542183558053706</v>
+        <v>0.005553351447226705</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06417251176989186</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01548657132263208</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1566093015286941</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03115134139321543</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1536906084147926</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.04379669498782868</v>
+        <v>0.037215909274676</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1545698624796768</v>
+        <v>0.1542061707434452</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01542183558053706</v>
+        <v>0.04117789611025646</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1566093015286941</v>
+        <v>0.1530914846919167</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01530846266275421</v>
+        <v>0.005357634478959823</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06405233879539331</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01578004548078665</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1574083285773099</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03123056525689316</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1544747441720109</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.04361190667455977</v>
+        <v>0.03704676746592908</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1553584842270221</v>
+        <v>0.1549929369207077</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01530846266275421</v>
+        <v>0.04155014292951387</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1574083285773099</v>
+        <v>0.1538725636954469</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01540036034445831</v>
+        <v>0.005173076655529928</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06393216582089474</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01557609341857628</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1582073556259256</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03071803843407056</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1552588799292292</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.04273653475405004</v>
+        <v>0.0365897555956593</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1561471059743674</v>
+        <v>0.1557797030979702</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01540036034445831</v>
+        <v>0.04095011579542412</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1582073556259256</v>
+        <v>0.1546536426989771</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01519763576332143</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06381199284639619</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01567476498659613</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1590063826745414</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03131384429887843</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1560430156864475</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.04307073713345977</v>
+        <v>0.03724521928904151</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1569357277217127</v>
+        <v>0.1565664692752326</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01519763576332143</v>
+        <v>0.04137862814518217</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1590063826745414</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1554347217025073</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06379883495165935</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005649866039609111</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06379910348012335</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006296096114479559</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06379937200858737</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006938648374605366</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06379964053705139</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00757748096989673</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06379990906551541</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008212552050347856</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06380017759397942</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008843819765924861</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06380044612244344</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009471242266621105</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06380071465090746</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01009477770234813</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06380098317937148</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01071438422309946</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0638012517078355</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01133001997884122</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06380152023629951</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01194164311956609</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06380178876476354</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01254921179518697</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06380205729322755</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0131526841556967</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06380232582169157</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01375201835106142</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06380259435015558</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01434717253127307</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06380286287861961</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.014938104846246</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06380313140708362</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01552477344597234</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06380339993554764</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01610713648041821</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06380366846401164</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01668515209957483</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06380393699247568</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01725877845335801</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06380420552093968</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01782797369175913</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0638044740494037</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01839269596474436</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06380474257786772</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01895290342230409</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06380501110633174</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01950855421435573</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06380527963479576</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02005977737852814</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06380554816325977</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02060755639061711</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06380581669172379</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02115202028825064</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06380608522018781</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02169312722134748</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06380635374865183</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02223083533989755</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06380662227711584</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02276510279386697</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06380689080557986</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02329588773324491</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06380715933404388</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02382314830795131</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0638074278625079</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02434684266797547</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0638076963909719</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02486692896328355</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06380796491943592</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02538336534386407</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06380823344789995</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0258961099596382</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06380850197636397</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02640512096059468</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06380877050482799</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02691035649669961</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06380903903329199</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02741177471794086</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06380930756175603</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02790933377424097</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06380957609022003</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02840299181558795</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06380984461868405</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02889270699194793</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06381011314714806</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02937843745330811</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06381038167561209</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02986014134959236</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0638106502040761</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03033777683078803</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06381091873254012</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03081130204686128</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06381118726100414</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03128067514779857</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06381145578946816</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03174585428352517</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06381172431793218</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03220679760402775</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06381199284639619</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03220679760402774</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06379883495165935</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03268842487762609</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06391954498308594</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03316553430395042</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06404025501451253</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03363800059751945</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06416096504593911</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03410569847285194</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06428167507736571</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03456850264446658</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0644023851087923</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03502628782688215</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06452309514021888</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03547892873461742</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06464380517164547</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03592630008219107</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06476451520307207</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03636827658412183</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06488522523449866</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03680473295492848</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06500593526592525</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03723554390912971</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06512664529735185</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03766058416124428</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06524735532877844</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03807972842579092</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06536806536020504</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03849285141728838</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06548877539163163</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03889982785025534</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06560948542305821</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.0393005324392106</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0657301954544848</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03969483989867288</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0658509054859114</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04008262494316091</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06597161551733799</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04046376228719341</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06609232554876458</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04083812664528916</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06621303558019118</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04120559273196685</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06633374561161777</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04156603526174524</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06645445564304436</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04191932894914305</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06657516567447096</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04226534850867901</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06669587570589755</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04260448023725369</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06681658573732413</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04293966834367681</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06693729576875072</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04327129912484896</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06705800580017732</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04359924729528886</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06717871583160391</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04392338756951521</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0672994258630305</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0442435946620468</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0674201358944571</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04455974328740231</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06754084592588368</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04487170816010053</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06766155595731027</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04517936399466015</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06778226598873686</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04548258550559994</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06790297602016346</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04578124740743858</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06802368605159004</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04607522441469487</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06814439608301663</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04636439124188754</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06826510611444322</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04664862260353529</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06838581614586982</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04692779321415691</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06850652617729641</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04720177778827106</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06862723620872301</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04747045104039653</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0687479462401496</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04773368768505203</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06886865627157619</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04799136243675632</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06898936630300279</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04824335001002808</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06911007633442937</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04848952511938612</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06923078636585596</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04872976247934915</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06935149639728255</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04896393680443589</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06947220642870915</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04919192280916508</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06959291646013574</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04941359520805547</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06971362649156233</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04427573013870365</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06971362649156233</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04962924132155366</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.071679254206063</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04982880100575889</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07364488192056365</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05001289781365366</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07561050963506431</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05018215529822044</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07757613734956496</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05033719701244174</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07954176506406563</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05047864650930008</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08150739277856629</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05060712734177787</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08347302049306696</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05072326306285764</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08543864820756762</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05082767722552188</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08740427592206827</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05092099338275308</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08936990363656892</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05100383508753373</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09133553135106959</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0510768258928463</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09330115906557025</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05114058935167329</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0952667867800709</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05119574901699721</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09723241449457158</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05124292844180052</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09919804220907223</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05128275117906569</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1011636699235729</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05131584078177526</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1031292976380736</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05134282080291169</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1050949253525742</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05136431479545747</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1070605530670749</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05138094631239509</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1090261807815755</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05139333890670705</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1109918084960762</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05140211613137581</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1129574362105769</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05140790153938389</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1149230639250775</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05141131868371375</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1168886916395782</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05141299111734791</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1188543193540788</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05141354239326884</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1208199470685795</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05141193432324904</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1227855747830802</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0513561757416717</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1247512024975808</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05122558049259651</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1267168302120815</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05102595076412418</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1286824579265821</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05076308874435537</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1306480856410828</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05044279662139076</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1326137133555834</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05007087658333105</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1345793410700841</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04965313081827692</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1365449687845848</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04919536151432907</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1385105964990855</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04870337085958817</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1404762242135861</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04818296104215491</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1424418519280868</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04763993425012998</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1444074796425874</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04708009267161406</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1463731073570881</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04650923849470784</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1483387350715887</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.045933173907512</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04535770109812724</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1522699905005901</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04478862225465423</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1542356182150907</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04423173956519366</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1562012459295914</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04369285521784622</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.158166873644092</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04317777140071258</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1601325013585927</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04269229030189346</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1620981290730933</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04224221410948951</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.164063756787594</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04183334501160145</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1660293845020947</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04147148519632993</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1679950122165953</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04115239143885699</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.169960639931096</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04083964805147008</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1719262676455967</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04052963990474301</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1738918953600973</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04022272608683712</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.175857523074598</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03991926568591386</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1778231507890987</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03961961779013456</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1797887785035993</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03932414148766068</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1817544062181</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03903319586665359</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1837200339326006</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03874714001527467</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1856856616471013</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03846633302168533</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1876512893616019</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03819113397404696</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1896169170761026</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03792190196052093</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1915825447906033</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03765899606926873</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1935481725051039</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03740277538845165</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1955138002196046</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03715359900623111</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1974794279341053</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03691182601076853</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1994450556486059</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03667781549022532</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2014106833631066</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03645192653276283</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2033763110776072</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03623451822654246</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2053419387921079</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03602594965972565</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2073075665066085</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03582657992047375</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2092731942211092</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0356367680969482</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2112388219356099</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03545687327731033</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2132044496501105</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03528725454972161</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2151700773646112</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03512827100234336</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2171357050791119</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03498027149080238</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2191013327936125</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03483808220465001</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2210669605081131</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03469738505656685</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2230325882226138</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03455849945370623</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2249982159371145</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03442174480322152</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2269638436516151</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03428744051226602</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2289294713661158</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03415590598799306</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2308950990806165</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03402746063755599</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2328607267951171</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03390242386810816</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2348263545096178</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03378111508680288</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2367919822241184</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03366385370079349</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2387576099386191</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03355095911723331</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2407232376531198</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03344275074327571</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2426888653676204</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03333954798607401</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2446544930821211</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03324167025278153</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2466201207966217</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03314943695055164</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2485857485111224</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03306316748653763</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2505513762256231</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03298318126789287</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2525170039401237</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03290979770177069</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2544826316546244</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03284333619532441</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.256448259369125</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03278411615570738</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2584138870836257</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03273245699007292</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2603795147981264</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03268867810557437</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.262345142512627</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03265309890936506</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2643107702271277</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08427573013870365</v>
+        <v>0.06274475832281941</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03427573013870365</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01975112649156233</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0008345254555332249</v>
+        <v>0.0009235534630782291</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007041780453693166</v>
+        <v>0.00163936142001704</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001377142347992098</v>
+        <v>0.002561349891704708</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007990270486157861</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00385074998673865</v>
+        <v>0.009314545570797333</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007867661772624755</v>
+        <v>0.001646415634965626</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.01399170866842753</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006813068181818187</v>
+        <v>0.001656551447851827</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001706311101605781</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001408356090738633</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002819168357434135</v>
+        <v>0.005223035345751255</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001598054097231572</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007562134475467081</v>
+        <v>0.01822958119419735</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001573532354524951</v>
+        <v>0.003292831269931252</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01200397454970809</v>
+        <v>0.02808172565423267</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001562158007060375</v>
+        <v>0.003313102895703654</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002614018059456762</v>
+        <v>0.007335328376577778</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002112534136107949</v>
+        <v>0.004918084260051119</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004307951425124357</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002397081145847358</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01186526277542496</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002360298531787427</v>
+        <v>0.004258167613636362</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01736722644441169</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002343237010590562</v>
+        <v>0.00493050986842105</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003556307450325244</v>
+        <v>0.00698272732968383</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002816712181477266</v>
+        <v>0.006557445680068159</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005325364947860949</v>
+        <v>0.009987537016922184</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003196108194463144</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01499999999999999</v>
+        <v>0.02843458922587899</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003122656249999997</v>
+        <v>0.006585662539862504</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02280801262254606</v>
+        <v>0.04393369680335452</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00312431601412075</v>
+        <v>0.006626205791407308</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01516095208818727</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004531840395450314</v>
+        <v>0.01042607712833297</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003520890226846583</v>
+        <v>0.008196807100085199</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00655328232244215</v>
+        <v>0.01188018650958778</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003995135243078931</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01798284344876674</v>
+        <v>0.03287689675383246</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003933830886312377</v>
+        <v>0.00823207817482813</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02839244888953918</v>
+        <v>0.04819541724393783</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003905395017650937</v>
+        <v>0.008282757239259137</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005539278016071049</v>
+        <v>0.009693324431657428</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004225068272215898</v>
+        <v>0.009836168520102238</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007973576945666132</v>
+        <v>0.01383742076979197</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004794162291694716</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02016062702912344</v>
+        <v>0.03592652204773775</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004720597063574854</v>
+        <v>0.009878493809793755</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03478665105081924</v>
+        <v>0.05282931116425366</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004686474021181125</v>
+        <v>0.009939308687110963</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006577281433426528</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004929246317585216</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.01535391816289046</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005620781249999996</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02292327474388151</v>
+        <v>0.03904289289331381</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005507363240837329</v>
+        <v>0.01152490944475938</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03875673491181425</v>
+        <v>0.05731147869716047</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005467553024711312</v>
+        <v>0.01159586013496279</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00764451176875585</v>
+        <v>0.01386503863159843</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005633424362954532</v>
+        <v>0.01311489136013632</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009861783197000269</v>
+        <v>0.01692435705423906</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006392216388926289</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02516921105915729</v>
+        <v>0.04143581062090834</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006294129418099804</v>
+        <v>0.01277450284090908</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04336881627795219</v>
+        <v>0.06081801997551683</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006248632028241499</v>
+        <v>0.01325241158281462</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.00873963014329808</v>
+        <v>0.01289543968752941</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006337602408323848</v>
+        <v>0.01475425278015336</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01050082395496441</v>
+        <v>0.01785559355394588</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007191243437542075</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02839686044106729</v>
+        <v>0.04470363802486321</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00708089559536228</v>
+        <v>0.01481774071469063</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04808901095466134</v>
+        <v>0.06501602768787074</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007029711031771688</v>
+        <v>0.01479152960526315</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009861297678292295</v>
+        <v>0.01589697084237442</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007041780453693166</v>
+        <v>0.0163936142001704</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01129076592953997</v>
+        <v>0.01977960273104175</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007990270486157861</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03050464735572789</v>
+        <v>0.04815416674231557</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007867661772624754</v>
+        <v>0.01646415634965626</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05268343474736942</v>
+        <v>0.0693048167455021</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007810790035301874</v>
+        <v>0.01656551447851827</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0110081754949776</v>
+        <v>0.01586276607621018</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007745958499062481</v>
+        <v>0.01803297562018744</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01193708025363208</v>
+        <v>0.02138156362462035</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008789297534773647</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03219099626925559</v>
+        <v>0.05159512828429849</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008654427949887231</v>
+        <v>0.01811057198462188</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0566182034615047</v>
+        <v>0.07398380525163084</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008591869038832061</v>
+        <v>0.0182220659263701</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01217892471459305</v>
+        <v>0.0167859593691134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008450136544431797</v>
+        <v>0.01967233704020448</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01274523806014589</v>
+        <v>0.02255596882712925</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009588324583389433</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03425433164776676</v>
+        <v>0.05428967799981571</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009441194127149707</v>
+        <v>0.01975698761958751</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0601594329024952</v>
+        <v>0.07818250248060882</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00937294804236225</v>
+        <v>0.01987861737422193</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01337220645837774</v>
+        <v>0.01765968470116085</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009154314589801114</v>
+        <v>0.02131169846022152</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01362071048198654</v>
+        <v>0.02388995099328237</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01038735163200522</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03659307795737779</v>
+        <v>0.05730097123787076</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01022796030441218</v>
+        <v>0.02140340325455314</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0628732388757689</v>
+        <v>0.08382236078126887</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01015402704589244</v>
+        <v>0.02153516882207375</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01458668184757075</v>
+        <v>0.01847707605242922</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009858492635170432</v>
+        <v>0.02295105988023856</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01426896865205918</v>
+        <v>0.02517064277779346</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01118637868062101</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03850565966420513</v>
+        <v>0.06009216334746731</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01101472648167466</v>
+        <v>0.02304981888951876</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06501602768787074</v>
+        <v>0.08862483250244363</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01054663403686767</v>
+        <v>0.02319172026992558</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01582101200341117</v>
+        <v>0.01823126740299525</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01056267068053975</v>
+        <v>0.0245904213002556</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01479548370326893</v>
+        <v>0.02638517683537646</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01198540572923679</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04029050123436526</v>
+        <v>0.06322640967760898</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01180149265893713</v>
+        <v>0.02469623452448439</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06761217450107715</v>
+        <v>0.09331136999296613</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01171618505295281</v>
+        <v>0.02484827171777741</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01707385804713808</v>
+        <v>0.01891539273293566</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01126684872590906</v>
+        <v>0.02622978272027264</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01520572676852094</v>
+        <v>0.02772068582074518</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01278443277785258</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04143581062090834</v>
+        <v>0.06506686557729938</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01232283742944722</v>
+        <v>0.02634265015945001</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0700164893014899</v>
+        <v>0.09720342560166906</v>
       </c>
       <c r="O81" t="n">
-        <v>0.012497264056483</v>
+        <v>0.02650482316562923</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01834388109999055</v>
+        <v>0.02152258602232719</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01197102677127838</v>
+        <v>0.02786914414028968</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01600516898072034</v>
+        <v>0.02856430238861342</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01358345982646836</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04329048080664605</v>
+        <v>0.06807668639554215</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01337502501346208</v>
+        <v>0.02798906579441564</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07289391558493014</v>
+        <v>0.1015224516773852</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01327834306001319</v>
+        <v>0.02816137461348106</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01962974228320766</v>
+        <v>0.02204598125124656</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0126752048166477</v>
+        <v>0.02950850556030672</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01649928147277228</v>
+        <v>0.02970315919369512</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01438248687508415</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04452829567538102</v>
+        <v>0.0700190274813409</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01416179119072456</v>
+        <v>0.02963548142938127</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07544263185771088</v>
+        <v>0.1060899005689475</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01405942206354338</v>
+        <v>0.02981792606133289</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0209301027180285</v>
+        <v>0.02247871239977048</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01337938286201701</v>
+        <v>0.03114786698032376</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01729353537758192</v>
+        <v>0.03022438889070407</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01518151392369993</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04616494542663824</v>
+        <v>0.07175704418369921</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01494855736798704</v>
+        <v>0.03128189706434689</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0780608166261455</v>
+        <v>0.1095272246251885</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01484050106707356</v>
+        <v>0.03147447750918472</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02224362352569217</v>
+        <v>0.02181657368193991</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01408356090738633</v>
+        <v>0.0327872284003408</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01785559355394588</v>
+        <v>0.03091512413435413</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01593053737391109</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04729826812758256</v>
+        <v>0.07305389185162078</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01573532354524951</v>
+        <v>0.03292831269931252</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0803466483965472</v>
+        <v>0.1113558761949415</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01562158007060375</v>
+        <v>0.03313102895703655</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02356896582743773</v>
+        <v>0.02211946639456723</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01478773895275565</v>
+        <v>0.03442658982035783</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0184082339846454</v>
+        <v>0.03166249757935914</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01677956802093151</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04882610184537869</v>
+        <v>0.07421418006886718</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01652208972251198</v>
+        <v>0.03457472833427815</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08269830567522912</v>
+        <v>0.1146973076270387</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01640265907413394</v>
+        <v>0.03478758040488836</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.02241312943434887</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01516095208818727</v>
+        <v>0.03606595124037487</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01894104252340685</v>
+        <v>0.03209918039465717</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01757859506954729</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05074628464719144</v>
+        <v>0.0751966523818916</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01730885589977446</v>
+        <v>0.03622114396924377</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08451396696850461</v>
+        <v>0.1161213579017973</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01718373807766412</v>
+        <v>0.0364441318527402</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02653222088172132</v>
+        <v>0.02269556031341778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01619609504349428</v>
+        <v>0.03770531266039192</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01958964269722105</v>
+        <v>0.0325202109908833</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01837762211816308</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05235665460018557</v>
+        <v>0.07564729308771187</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01809562207703694</v>
+        <v>0.03786755960420939</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08749181078268681</v>
+        <v>0.1181762802954117</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01796481708119431</v>
+        <v>0.03810068330059203</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02827459193243123</v>
+        <v>0.02396475654390695</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01690027308886359</v>
+        <v>0.03934467408040895</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02025183128450053</v>
+        <v>0.03292651878999324</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01917664916677887</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05405504977152589</v>
+        <v>0.07715950728287069</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01888238825429941</v>
+        <v>0.03951397523917502</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09003001562408897</v>
+        <v>0.1195815143444138</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0187458960847245</v>
+        <v>0.03975723474844385</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03004063780364409</v>
+        <v>0.02421871563794932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01760445113423291</v>
+        <v>0.04098403550042599</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02092540506365774</v>
+        <v>0.03311522853320627</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01997567621539465</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05533930822837715</v>
+        <v>0.07772670006391069</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01966915443156189</v>
+        <v>0.04116039087414065</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09172675999902447</v>
+        <v>0.1207265198361098</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01952697508825469</v>
+        <v>0.04141378619629568</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03170567624474785</v>
+        <v>0.02245543510767789</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01830862917960223</v>
+        <v>0.04262339692044304</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02170816081310523</v>
+        <v>0.03358346496174158</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02077470326401044</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05700726803790421</v>
+        <v>0.07844227652737462</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02045592060882436</v>
+        <v>0.04280680650910627</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09358022241380637</v>
+        <v>0.1221007565578053</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02030805409178487</v>
+        <v>0.04307033764414751</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03314502500513052</v>
+        <v>0.02367291246522561</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01901280722497155</v>
+        <v>0.04426275834046008</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02219789531125542</v>
+        <v>0.0340283528168185</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02157373031262623</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0580567672672718</v>
+        <v>0.07949964176980515</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02124268678608684</v>
+        <v>0.0444532221440719</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09648858137474797</v>
+        <v>0.1226936842968063</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02108913309531506</v>
+        <v>0.04472688909199934</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03427573013870365</v>
+        <v>0.02486914522272544</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01975112649156233</v>
+        <v>0.04590211976047711</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02309240533652084</v>
+        <v>0.03434701683965623</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02237275736124201</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0599856439836447</v>
+        <v>0.08009220088774496</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02202945296334931</v>
+        <v>0.04609963777903753</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09845001538816245</v>
+        <v>0.1246947628404186</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02187021209884525</v>
+        <v>0.04638344053985116</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03506681219332747</v>
+        <v>0.02304213089231039</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02042116331571018</v>
+        <v>0.04754148118049415</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02358948766731397</v>
+        <v>0.03443658177147405</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0231717844098578</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06089173625418773</v>
+        <v>0.0810133589777367</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02281621914061179</v>
+        <v>0.04774605341400315</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1004627029603631</v>
+        <v>0.1259934519759481</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02265129110237543</v>
+        <v>0.04803999198770299</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03586236851932936</v>
+        <v>0.0231898669861134</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0211253413610795</v>
+        <v>0.0491808426005112</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02438693908204731</v>
+        <v>0.03489417235349115</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02397081145847358</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06227288214606563</v>
+        <v>0.08095652113632315</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02360298531787427</v>
+        <v>0.04939246904896877</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1025248225976632</v>
+        <v>0.1265792114907007</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02343237010590562</v>
+        <v>0.04969654343555482</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03662179710858833</v>
+        <v>0.02331035101626744</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02182951940644881</v>
+        <v>0.05082020402052823</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02528255635913335</v>
+        <v>0.03491691332692685</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02476983850708937</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06382691972644328</v>
+        <v>0.08131509246004687</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02438975149513674</v>
+        <v>0.0510388846839344</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1034345528063759</v>
+        <v>0.1277415011719821</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02421344910943581</v>
+        <v>0.05135309488340664</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03734570503744729</v>
+        <v>0.02540158049490547</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02253369745181813</v>
+        <v>0.05245956544054527</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02587413627698457</v>
+        <v>0.03510192943300039</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02556886555570516</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06515168706248531</v>
+        <v>0.08208247804545066</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02517651767239922</v>
+        <v>0.05268530031890003</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1062900720928145</v>
+        <v>0.1282697808070984</v>
       </c>
       <c r="O97" t="n">
-        <v>0.024994528112966</v>
+        <v>0.05300964633125847</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03803469938224921</v>
+        <v>0.02548951664563881</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02323787549718745</v>
+        <v>0.05409892686056231</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02645947561401345</v>
+        <v>0.03534634541293098</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02636789260432094</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06674502222135664</v>
+        <v>0.08215208298907709</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02596328384966169</v>
+        <v>0.05433171595386566</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1081895589632921</v>
+        <v>0.1285535101833554</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02577560711649619</v>
+        <v>0.05466619777911029</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.038689387219337</v>
+        <v>0.02348826584616542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02394205354255676</v>
+        <v>0.05573828828057936</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02703637114863253</v>
+        <v>0.03554728600793793</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02716691965293673</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06780476327022195</v>
+        <v>0.08287162124181666</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02675005002692417</v>
+        <v>0.05597813158883128</v>
       </c>
       <c r="N99" t="n">
-        <v>0.108731191924122</v>
+        <v>0.1283821490880588</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02655668612002637</v>
+        <v>0.05632274922696213</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03931037562505364</v>
+        <v>0.02548484817687806</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02464623158792608</v>
+        <v>0.0573776497005964</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02800261965925423</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02796594670155251</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06922874827624612</v>
+        <v>0.08247159680963781</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02753681620418664</v>
+        <v>0.05762454722379691</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1105131494816176</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02733776512355656</v>
+        <v>0.05797930067481395</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0398982716757421</v>
+        <v>0.02446403158339563</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02535040963329539</v>
+        <v>0.05901701112061343</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0285560179242911</v>
+        <v>0.0354092818881515</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0287649737501683</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07031481530659392</v>
+        <v>0.08274178694105544</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02832358238144912</v>
+        <v>0.05927096285876254</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1122336101420919</v>
+        <v>0.129632025632986</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02811884412708675</v>
+        <v>0.05963585212266578</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04045368244774528</v>
+        <v>0.02442750285750195</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02605458767866471</v>
+        <v>0.06065637254063047</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02919436272215561</v>
+        <v>0.0355876601125483</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02956400079878408</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07146080242843006</v>
+        <v>0.0820580257607717</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0291103485587116</v>
+        <v>0.06091737849372816</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1144907524118582</v>
+        <v>0.1289850014088234</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02889992313061693</v>
+        <v>0.06129240357051761</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04097721501740616</v>
+        <v>0.02337631736805149</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02675876572403403</v>
+        <v>0.06229573396064751</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02971545083126023</v>
+        <v>0.03564316392574364</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03036302784739987</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07226454770891941</v>
+        <v>0.08252378897309515</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02989711473597407</v>
+        <v>0.06256379412869378</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1150827547972297</v>
+        <v>0.1294522926429308</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02968100213414712</v>
+        <v>0.06294895501836943</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04146947646106769</v>
+        <v>0.0253115304838987</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02746294376940335</v>
+        <v>0.06393509538066455</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0303170790300175</v>
+        <v>0.03557730867203283</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03116205489601566</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07352388921522668</v>
+        <v>0.08194255228233413</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03068388091323654</v>
+        <v>0.0642102097636594</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1172077958045198</v>
+        <v>0.1284394543313609</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03046208113767731</v>
+        <v>0.06460550646622125</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0419310738550728</v>
+        <v>0.02523419757389805</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02816712181477266</v>
+        <v>0.06557445680068159</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03089704409683985</v>
+        <v>0.03549160969571119</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03196108194463144</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07463666501451677</v>
+        <v>0.08151779139279719</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03147064709049902</v>
+        <v>0.06585662539862504</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1187640539400416</v>
+        <v>0.1282520414701665</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0312431601412075</v>
+        <v>0.06626205791407309</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04236261427576446</v>
+        <v>0.02414537400690407</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02887129986014198</v>
+        <v>0.06721381822069863</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03135314281013984</v>
+        <v>0.03518758234107404</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03276010899324723</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0752007131739543</v>
+        <v>0.08115298200879284</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03225741326776149</v>
+        <v>0.06750304103359066</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1196497077101084</v>
+        <v>0.1286956090554001</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03202423914473768</v>
+        <v>0.06791860936192491</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0427647047994856</v>
+        <v>0.02404611515177117</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02957547790551129</v>
+        <v>0.06885317964071566</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03218317194832988</v>
+        <v>0.0350667419524167</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03355913604186302</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07601387176070423</v>
+        <v>0.08125159983462951</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03304417944502397</v>
+        <v>0.06914945666855629</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1216629356210334</v>
+        <v>0.1274757120831145</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03280531814826787</v>
+        <v>0.06957516080977673</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04313795250257922</v>
+        <v>0.02493747637735387</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03027965595088061</v>
+        <v>0.0704925410607327</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03238492828982255</v>
+        <v>0.03493060387403452</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0343581630904788</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07717397884193117</v>
+        <v>0.08051712057461569</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03383094562228645</v>
+        <v>0.07079587230352191</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1216019161791298</v>
+        <v>0.1271979055493624</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03358639715179806</v>
+        <v>0.07123171225762857</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04348296446138818</v>
+        <v>0.02382051305250661</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03098383399624993</v>
+        <v>0.07213190248074974</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03295620861303024</v>
+        <v>0.03468068345022277</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03515719013909459</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07757887248480005</v>
+        <v>0.08045301993305987</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03461771179954892</v>
+        <v>0.07244228793848753</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1227648278907108</v>
+        <v>0.1275677444501965</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03436747615532824</v>
+        <v>0.07288826370548039</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0438003477522555</v>
+        <v>0.02369628054608387</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03168801204161924</v>
+        <v>0.07377126390076678</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03349480969636551</v>
+        <v>0.03481849602527681</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03595621718771037</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07832639075647557</v>
+        <v>0.0805627736142705</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0354044779768114</v>
+        <v>0.07408870357345317</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1242498492620897</v>
+        <v>0.1266907837816694</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03514855515885843</v>
+        <v>0.07454481515333222</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0440907094515241</v>
+        <v>0.02456583422694014</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03239219008698856</v>
+        <v>0.07541062532078384</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03379852831824086</v>
+        <v>0.03434555694349192</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03675524423632616</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07901437172412257</v>
+        <v>0.07994985732255605</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03619124415407388</v>
+        <v>0.07573511920841879</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1250551587995798</v>
+        <v>0.1258725785398339</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03592963416238862</v>
+        <v>0.07620136660118405</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04435465663553695</v>
+        <v>0.02343022946392988</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03309636813235788</v>
+        <v>0.07704998674080088</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03406516125706874</v>
+        <v>0.03436338154916346</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03755427128494195</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0802406534549058</v>
+        <v>0.07941774676222504</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03697801033133635</v>
+        <v>0.07738153484338442</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1255789350094941</v>
+        <v>0.1254186837207426</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03671071316591881</v>
+        <v>0.07785791804903587</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04459424633005554</v>
+        <v>0.02329052162590757</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03380054617772719</v>
+        <v>0.07868934816081791</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03439250529126164</v>
+        <v>0.03397348518658674</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03835329833355773</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08090307401599006</v>
+        <v>0.07906991763758589</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03776477650859883</v>
+        <v>0.07902795047835004</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1265193563981462</v>
+        <v>0.1246346543204481</v>
       </c>
       <c r="O113" t="n">
-        <v>0.037491792169449</v>
+        <v>0.0795144694968877</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04482649084045151</v>
+        <v>0.02214776608172769</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03450472422309651</v>
+        <v>0.08032870958083495</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03477835719923207</v>
+        <v>0.03377738320005708</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03915232538217352</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08119947147454015</v>
+        <v>0.07860984565294712</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0385515426858613</v>
+        <v>0.08067436611331567</v>
       </c>
       <c r="N114" t="n">
-        <v>0.127074601471849</v>
+        <v>0.1234260453350034</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03827287117297919</v>
+        <v>0.08117102094473953</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04505607039676941</v>
+        <v>0.02400301820024468</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03520890226846583</v>
+        <v>0.08196807100085199</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03522051375939253</v>
+        <v>0.03387659093386979</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0399513524307893</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08112768389772082</v>
+        <v>0.07804100651261722</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03933830886312378</v>
+        <v>0.08232078174828129</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1283428487369159</v>
+        <v>0.1233984117604609</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03905395017650937</v>
+        <v>0.08282757239259135</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04528290685712676</v>
+        <v>0.02385733335031306</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03591308031383514</v>
+        <v>0.08360743242086903</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03541677175015551</v>
+        <v>0.0334726237323202</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04075037947940509</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08218554935269687</v>
+        <v>0.07766687592090463</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04012507504038625</v>
+        <v>0.08396719738324693</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1284222766996601</v>
+        <v>0.1222573085928733</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03983502918003956</v>
+        <v>0.0844841238404432</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04550692207964106</v>
+        <v>0.02371176690078726</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03661725835920446</v>
+        <v>0.08524679384088607</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03536492794993344</v>
+        <v>0.03326699693970363</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04154940652802087</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08197090590663306</v>
+        <v>0.07729092958211783</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04091184121764873</v>
+        <v>0.08561361301821255</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1281110638663947</v>
+        <v>0.1208082908282934</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04061610818356975</v>
+        <v>0.08614067528829501</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04572803792242985</v>
+        <v>0.0225673742205218</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03732143640457377</v>
+        <v>0.08688615526090311</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03556277913713891</v>
+        <v>0.03306122590031539</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04234843357663666</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08218159162669425</v>
+        <v>0.07671664320056532</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0416986073949112</v>
+        <v>0.08726002865317817</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1284073887434332</v>
+        <v>0.1204569134627739</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04139718718709993</v>
+        <v>0.08779722673614683</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04594617624361066</v>
+        <v>0.02342135452785174</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0380256144499431</v>
+        <v>0.08852551668092015</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03571118710789177</v>
+        <v>0.03295682595845083</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04314746062525245</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08287162124181666</v>
+        <v>0.07614749248055558</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04248537357217368</v>
+        <v>0.0889064442881438</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1286094298370886</v>
+        <v>0.1197087314923674</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04217826619063012</v>
+        <v>0.08945377818399868</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.046161258901301</v>
+        <v>0.02125574674630056</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03872979249531241</v>
+        <v>0.09016487810093718</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03560932358190029</v>
+        <v>0.03275295466407258</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04394648767386824</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0823703028338505</v>
+        <v>0.07575082843698311</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04327213974943615</v>
+        <v>0.09055285992310942</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1300320553757415</v>
+        <v>0.1187692461486756</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04295934519416031</v>
+        <v>0.09111032963185049</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04637320775361836</v>
+        <v>0.02107105781844103</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03943397054068173</v>
+        <v>0.09180423952095422</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03549967296050778</v>
+        <v>0.03252438117930269</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04474551472248402</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0824590495918662</v>
+        <v>0.07478493284470375</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04405890592669863</v>
+        <v>0.09219927555807506</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1288291914058261</v>
+        <v>0.118871947376323</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0437404241976905</v>
+        <v>0.09276688107970232</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04658194465868032</v>
+        <v>0.02287072626215476</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04013814858605105</v>
+        <v>0.09344360094097126</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03538204734173239</v>
+        <v>0.03236777513189747</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04554454177109981</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08281060990402514</v>
+        <v>0.07476080291963269</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04484567210396111</v>
+        <v>0.09384569119304068</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1290995163959324</v>
+        <v>0.1180663100489869</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04452150320122068</v>
+        <v>0.09442343252755415</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04678739147460434</v>
+        <v>0.02165819059532344</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04084232663142036</v>
+        <v>0.0950829623609883</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03565672955233855</v>
+        <v>0.03198807369470805</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0463435688197156</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08222734788621006</v>
+        <v>0.07328976292187606</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04563243828122358</v>
+        <v>0.09549210682800631</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1297385893942953</v>
+        <v>0.1159704330078248</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04530258220475087</v>
+        <v>0.09607998397540597</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04698947005950797</v>
+        <v>0.02243688933582862</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04154650467678968</v>
+        <v>0.09672232378100536</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03532400241909073</v>
+        <v>0.03159021404058562</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04714259586833138</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08231092368240939</v>
+        <v>0.07328313711154</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04641920445848605</v>
+        <v>0.09713852246297193</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1296475754076609</v>
+        <v>0.1149024150939938</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04608366120828106</v>
+        <v>0.0977365354232578</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04718810227150874</v>
+        <v>0.02021026100155199</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04225068272215899</v>
+        <v>0.0983616852010224</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03548414876875335</v>
+        <v>0.03137913334238139</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04794162291694717</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08166299743661151</v>
+        <v>0.07235224974873056</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04720597063574853</v>
+        <v>0.09878493809793755</v>
       </c>
       <c r="N125" t="n">
-        <v>0.129427639442775</v>
+        <v>0.1138803551486515</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04686474021181124</v>
+        <v>0.09939308687110963</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04738320996872414</v>
+        <v>0.01998174411037514</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04295486076752831</v>
+        <v>0.1000010466210394</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0352374514280909</v>
+        <v>0.0311597687729465</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04874064996556295</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08168522929280492</v>
+        <v>0.07130842509355384</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04799273681301101</v>
+        <v>0.1004313537329032</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1288799465063839</v>
+        <v>0.1125223520129551</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04764581921534143</v>
+        <v>0.1010496383189615</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04757471500927173</v>
+        <v>0.02075477718017971</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04365903881289762</v>
+        <v>0.1016404080410565</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03528419322386783</v>
+        <v>0.03083705750513212</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04953967701417874</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08137927939497799</v>
+        <v>0.070762987406116</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04877950299027348</v>
+        <v>0.1020777693678688</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1288056616052336</v>
+        <v>0.1118465045280619</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04842689821887162</v>
+        <v>0.1027061897668133</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04776253925126897</v>
+        <v>0.02153279872884731</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04436321685826694</v>
+        <v>0.1032797694610735</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0352246569828486</v>
+        <v>0.03051593671178943</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05033870406279452</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08124680788711919</v>
+        <v>0.07022726094652315</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04956626916753595</v>
+        <v>0.1037241850028344</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1280059497460701</v>
+        <v>0.1103709115351295</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04920797722240181</v>
+        <v>0.1043627412146651</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04794660455283342</v>
+        <v>0.0203192472742596</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04506739490363626</v>
+        <v>0.1049191308810905</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03525912553179765</v>
+        <v>0.03010134356576959</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05113773111141031</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08078947491321689</v>
+        <v>0.06921256997488137</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05035303534479843</v>
+        <v>0.1053706006378001</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1289819759356395</v>
+        <v>0.1092136718753151</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04998905622593199</v>
+        <v>0.1060192926625169</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04812683277208261</v>
+        <v>0.02011301949740303</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04577157294900557</v>
+        <v>0.1065584923011076</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03498788169747945</v>
+        <v>0.02979821523992381</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0519367581600261</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08060894061725954</v>
+        <v>0.06903023875129682</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05113980152206091</v>
+        <v>0.1070170162727657</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1277349051806879</v>
+        <v>0.1084928843897761</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05077013522946219</v>
+        <v>0.1076758441103688</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04830314576713404</v>
+        <v>0.01988986714558437</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04647575099437489</v>
+        <v>0.1081978537211246</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03501120830665841</v>
+        <v>0.02960730421782838</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05273578520864188</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0805068651432356</v>
+        <v>0.067740202467371</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05192656769932338</v>
+        <v>0.1086634319077313</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1273659024879613</v>
+        <v>0.1071257478430769</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05155121423299237</v>
+        <v>0.1093323955582206</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04847546539610523</v>
+        <v>0.02064977414510755</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0471799290397442</v>
+        <v>0.1098372151411417</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03512938818609905</v>
+        <v>0.02909456609159405</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05353481225725767</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08068490863513339</v>
+        <v>0.06698582614541132</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05271333387658586</v>
+        <v>0.1103098475426969</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1280761328642057</v>
+        <v>0.1065163110340885</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05233229323652256</v>
+        <v>0.1109889470060724</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04864371351711369</v>
+        <v>0.01939766273532741</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04788410708511352</v>
+        <v>0.1114765765611587</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03494270416256577</v>
+        <v>0.02865710712934791</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05433383930587345</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07964473123694144</v>
+        <v>0.06618287031565076</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05350010005384834</v>
+        <v>0.1119562631776626</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1270667613161673</v>
+        <v>0.1045087825531687</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05311337224005275</v>
+        <v>0.1126454984539243</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04880781198827697</v>
+        <v>0.02013845515559882</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04858828513048283</v>
+        <v>0.1131159379811758</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03485143906282305</v>
+        <v>0.02830199489547276</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05513286635448924</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07918799309264815</v>
+        <v>0.06534754565974879</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05428686623111081</v>
+        <v>0.1136026788126282</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1262389528505921</v>
+        <v>0.1043290708967362</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05389445124358293</v>
+        <v>0.1143020499017761</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04896768266771256</v>
+        <v>0.01787707364527665</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04929246317585215</v>
+        <v>0.1147552994011928</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03475587571363534</v>
+        <v>0.02813629695435142</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05593189340310502</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0788163543462419</v>
+        <v>0.0649960628593646</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05507363240837328</v>
+        <v>0.1152490944475938</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1267938724742261</v>
+        <v>0.1026030845612099</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05467553024711312</v>
+        <v>0.1159586013496279</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04912324741353799</v>
+        <v>0.01861844044371579</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04999664122122147</v>
+        <v>0.1163946608212098</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03475629694176711</v>
+        <v>0.0278670808703667</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05673092045172081</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07863147514171115</v>
+        <v>0.06344463259615765</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05586039858563576</v>
+        <v>0.1168955100825594</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1258326851938154</v>
+        <v>0.1012567320430086</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05545660925064331</v>
+        <v>0.1176151527974797</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04927442808387079</v>
+        <v>0.01936747779027109</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05070081926659079</v>
+        <v>0.1180340222412269</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03445298557398277</v>
+        <v>0.02720141420790141</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0575299475003366</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0782350156230443</v>
+        <v>0.0630094655517873</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05664716476289824</v>
+        <v>0.1185419257175251</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1252565560161061</v>
+        <v>0.1004159218385511</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0562376882541735</v>
+        <v>0.1192717042453316</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04942114653682846</v>
+        <v>0.01812910792429741</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0514049973119601</v>
+        <v>0.1196733836612439</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03424622443704683</v>
+        <v>0.02694636453133832</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05832897454895238</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07802863593422976</v>
+        <v>0.0624067724079129</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05743393094016071</v>
+        <v>0.1201883413524907</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1258666499478442</v>
+        <v>0.09900656244425621</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05701876725770368</v>
+        <v>0.1209282556931834</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04956332463052854</v>
+        <v>0.01690825308514962</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05210917535732942</v>
+        <v>0.1213127450812609</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03413629635772371</v>
+        <v>0.02670899940506029</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05912800159756817</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07771399621925604</v>
+        <v>0.06145276384619378</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05822069711742319</v>
+        <v>0.1218347569874563</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1248641319957757</v>
+        <v>0.09755456235654292</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05779984626123386</v>
+        <v>0.1225848071410352</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04970088422308853</v>
+        <v>0.01670983551218262</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05281335340269874</v>
+        <v>0.122952106501278</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03422348416277785</v>
+        <v>0.02649638639345009</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05992702864618395</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07739275662211145</v>
+        <v>0.06116365054828929</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05900746329468567</v>
+        <v>0.1234811726224219</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1242501671666468</v>
+        <v>0.09638583007182983</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05858092526476405</v>
+        <v>0.124241358588887</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04983374717262597</v>
+        <v>0.01753877744475123</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05351753144806806</v>
+        <v>0.124591467921295</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03400807067897373</v>
+        <v>0.02621559306089055</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06072605569479974</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07676657728678449</v>
+        <v>0.06035564319585884</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05979422947194814</v>
+        <v>0.1251275882573876</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1246259204672036</v>
+        <v>0.09462627408653607</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05936200426829424</v>
+        <v>0.1258979100367389</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04996183533725837</v>
+        <v>0.01740000112221034</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05422170949343737</v>
+        <v>0.1262308293413121</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03379033873307581</v>
+        <v>0.02587368697176445</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06152508274341553</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07653711835726354</v>
+        <v>0.05994495247056172</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06058099564921062</v>
+        <v>0.1267740038923532</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1234925569041919</v>
+        <v>0.09350180289708016</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06014308327182443</v>
+        <v>0.1275544614845907</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05008507057510325</v>
+        <v>0.01729842878391484</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05492588753880669</v>
+        <v>0.1278701907613291</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03387057115184852</v>
+        <v>0.02547773569045463</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06232410979203131</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07580603997753707</v>
+        <v>0.05934778905405733</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06136776182647308</v>
+        <v>0.1284204195273188</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1238512414843579</v>
+        <v>0.09373832499988116</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06092416227535462</v>
+        <v>0.1292110129324425</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05020337474427812</v>
+        <v>0.01823898266921956</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05563006558417601</v>
+        <v>0.1295095521813462</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03364905076205633</v>
+        <v>0.02543480678134385</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0631231368406471</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0750750022915935</v>
+        <v>0.059380363628005</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06215452800373556</v>
+        <v>0.1300668351622845</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1224031392144477</v>
+        <v>0.09316174889135781</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06170524127888481</v>
+        <v>0.1308675643802943</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05031666970290051</v>
+        <v>0.01822523212235676</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05633424362954532</v>
+        <v>0.1311489136013632</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0335260603904637</v>
+        <v>0.02545196780881498</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06392216388926289</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07474566544342118</v>
+        <v>0.05845888687406409</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06294129418099803</v>
+        <v>0.1317132507972501</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1230494151012074</v>
+        <v>0.09289798306792901</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06248632028241499</v>
+        <v>0.1325241158281462</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05042487730908793</v>
+        <v>0.01723065521191951</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05703842167491464</v>
+        <v>0.1327882750213802</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03330188286383509</v>
+        <v>0.02523389980115874</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06472119093787868</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07421968957700861</v>
+        <v>0.05855973159497904</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06372806035826051</v>
+        <v>0.1333596664322157</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1217912341513829</v>
+        <v>0.09287292198850017</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06326739928594519</v>
+        <v>0.134180667275998</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05052791942095791</v>
+        <v>0.01824302661593015</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05774259972028396</v>
+        <v>0.1344276364413973</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03317680100893491</v>
+        <v>0.02524190475254502</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06552021798649446</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07429873483634417</v>
+        <v>0.05908880283438772</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06451482653552298</v>
+        <v>0.1350060820671813</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1214297613717204</v>
+        <v>0.09279229652290694</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06404847828947537</v>
+        <v>0.1358372187238498</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05062571789662798</v>
+        <v>0.0182619846500339</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05844677776565327</v>
+        <v>0.1360669978614143</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03315109765252766</v>
+        <v>0.02525978528640603</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06631924503511025</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07358446136541633</v>
+        <v>0.05884007036561856</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06530159271278546</v>
+        <v>0.1366524977021469</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1205661617689658</v>
+        <v>0.09174829176637012</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06482955729300556</v>
+        <v>0.1374937701717017</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05071819459421563</v>
+        <v>0.01728716762987595</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05915095581102259</v>
+        <v>0.1377063592814313</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03312505562137776</v>
+        <v>0.02558702208068539</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06711827208372603</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07337852930821342</v>
+        <v>0.05931234303368824</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06608835889004794</v>
+        <v>0.1382989133371126</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1212016003498653</v>
+        <v>0.09193900397201071</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06561063629653574</v>
+        <v>0.1391503216195535</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05080527137183841</v>
+        <v>0.01631821387110154</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05985513385639191</v>
+        <v>0.1393457207014484</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03279895774224971</v>
+        <v>0.02562309581332675</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06791729913234182</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07268259880872396</v>
+        <v>0.05950442968361341</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06687512506731041</v>
+        <v>0.1399453289720782</v>
       </c>
       <c r="N150" t="n">
-        <v>0.119837242121165</v>
+        <v>0.09276252939294916</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06639171530006593</v>
+        <v>0.1408068730674053</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05088687008761382</v>
+        <v>0.01735476168935588</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06055931190176122</v>
+        <v>0.1409850821214654</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03267308684190792</v>
+        <v>0.02536748716227376</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0687163261809576</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07279833001093633</v>
+        <v>0.05911513916041086</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06766189124457289</v>
+        <v>0.1415917446070438</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1202742520896108</v>
+        <v>0.09321696428230652</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06717279430359613</v>
+        <v>0.1424634245152571</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05096291259965939</v>
+        <v>0.0183964494002842</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06126348994713054</v>
+        <v>0.1426244435414825</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03264772574711684</v>
+        <v>0.02561967680547003</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06951535322957339</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.071927383058839</v>
+        <v>0.05974328030909729</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06844865742183537</v>
+        <v>0.1432381602420094</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1192137952619488</v>
+        <v>0.09340040489320345</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06795387330712631</v>
+        <v>0.144119975963109</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05103332076609263</v>
+        <v>0.01644291531953172</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06196766799249985</v>
+        <v>0.1442638049614995</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03252315728464097</v>
+        <v>0.02577914542085924</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07031438027818918</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07147141809642032</v>
+        <v>0.05918766197468939</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06923542359909785</v>
+        <v>0.1448845758769751</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1188570366449251</v>
+        <v>0.09371094747876069</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06873495231065649</v>
+        <v>0.1457765274109608</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05109801644503106</v>
+        <v>0.01749379776274364</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06267184603786917</v>
+        <v>0.1459031663815165</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03239966428124473</v>
+        <v>0.025845373686385</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07111340732680496</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07113209526766878</v>
+        <v>0.05954709300220382</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07002218977636032</v>
+        <v>0.1465309915119407</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1186051412452857</v>
+        <v>0.0936466882920991</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06951603131418667</v>
+        <v>0.1474330788588126</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05115692149459224</v>
+        <v>0.01654873504556519</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06337602408323849</v>
+        <v>0.1475425278015336</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03227752956369261</v>
+        <v>0.02561784227999096</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07191243437542075</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07151107471657275</v>
+        <v>0.05962038223665733</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0708089559536228</v>
+        <v>0.1481774071469063</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1179592740697768</v>
+        <v>0.09350572358633952</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07029711031771686</v>
+        <v>0.1490896303066644</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0512099577728936</v>
+        <v>0.0186073654836416</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06408020212860781</v>
+        <v>0.1491818892215506</v>
       </c>
       <c r="J156" t="n">
-        <v>0.032257035958749</v>
+        <v>0.02599603187962075</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07271146142403653</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07101001658712069</v>
+        <v>0.06040633852306657</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07159572213088528</v>
+        <v>0.149823822781872</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1172206001251443</v>
+        <v>0.09458614961460265</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07107818932124706</v>
+        <v>0.1507461817545163</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05125704713805275</v>
+        <v>0.01667139316217409</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06478438017397711</v>
+        <v>0.1508212506415677</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03193846629317842</v>
+        <v>0.02607942316321801</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07351048847265232</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.070330581023301</v>
+        <v>0.06000377070644836</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07238248830814775</v>
+        <v>0.1514702384168376</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1166902844181343</v>
+        <v>0.09398606263000925</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07185926832477724</v>
+        <v>0.1524027332023681</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05129811144818716</v>
+        <v>0.01678151272100002</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06548855821934643</v>
+        <v>0.1524606120615847</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03212021803768045</v>
+        <v>0.02587400589844352</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0743095155212681</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07056886333349419</v>
+        <v>0.06077540724137137</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07316925448541023</v>
+        <v>0.1531166540518032</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1171641233502539</v>
+        <v>0.09440691776797705</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07264034732830743</v>
+        <v>0.1540592846502199</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05133307256141437</v>
+        <v>0.01694540774782716</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06619273626471575</v>
+        <v>0.1540999734816018</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03199932824943121</v>
+        <v>0.0260405274962776</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07510854256988389</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06981609704529032</v>
+        <v>0.06053525081343103</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07395602066267271</v>
+        <v>0.1547630696867688</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1162333264484952</v>
+        <v>0.09494176034160362</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07342142633183761</v>
+        <v>0.1557158360980717</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05136185233585189</v>
+        <v>0.01915215986494102</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06689691431008507</v>
+        <v>0.1557393349016188</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03157577938310804</v>
+        <v>0.02648150213752881</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07590756961849968</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06977154593877313</v>
+        <v>0.06165181015135546</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07474278683993518</v>
+        <v>0.1564094853217345</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1156974883323171</v>
+        <v>0.09576246078685346</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0742025053353678</v>
+        <v>0.1573723875459236</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05138437262961723</v>
+        <v>0.01939085069462704</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06760109235545438</v>
+        <v>0.1573786963216358</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03144959825230204</v>
+        <v>0.02688125274274415</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07670659666711546</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06933459776671372</v>
+        <v>0.06258912716115403</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07552955301719766</v>
+        <v>0.1580559009567001</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1152563510571535</v>
+        <v>0.09761154958030005</v>
       </c>
       <c r="O161" t="n">
-        <v>0.074983584338898</v>
+        <v>0.1590289389937754</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05140055530082793</v>
+        <v>0.01965056185917071</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06830527040082369</v>
+        <v>0.1590180577416528</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03152081167060433</v>
+        <v>0.02702410223247051</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07750562371573125</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06980464028188321</v>
+        <v>0.06351124374883607</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07631631919446012</v>
+        <v>0.1597023165916657</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1143096566784378</v>
+        <v>0.09803155719851658</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07576466334242818</v>
+        <v>0.1606854904416272</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0514103222076015</v>
+        <v>0.01892037498085752</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06900944844619301</v>
+        <v>0.1606574191616699</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03128944645160606</v>
+        <v>0.02759437352725488</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07830465076434703</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06908106123705265</v>
+        <v>0.06378220182041097</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0771030853717226</v>
+        <v>0.1613487322266313</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1136571472516036</v>
+        <v>0.09886501411807658</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07654574234595837</v>
+        <v>0.1623420418894791</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05141359520805547</v>
+        <v>0.02018937168197291</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06971362649156233</v>
+        <v>0.1622967805816869</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03105552940889829</v>
+        <v>0.02767638954764419</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07910367781296282</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06926324838499318</v>
+        <v>0.06526604328188806</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07788985154898508</v>
+        <v>0.162995147861597</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1142985648320851</v>
+        <v>0.1015544508155532</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07732682134948855</v>
+        <v>0.1639985933373309</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05141359520805545</v>
+        <v>0.02044663358480239</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06971362649156233</v>
+        <v>0.163936142001704</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03091908735607217</v>
+        <v>0.02815447321418538</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07990270486157861</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06855058947847589</v>
+        <v>0.06552681003927674</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07867661772624755</v>
+        <v>0.1646415634965626</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1136336514753153</v>
+        <v>0.1020423977675198</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07810790035301875</v>
+        <v>0.1656551447851827</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05054360677112152</v>
+        <v>0.01868124231163141</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06971335796309831</v>
+        <v>0.165575503421721</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0310801471067188</v>
+        <v>0.02851294744742541</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08070173191019439</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06854247227027185</v>
+        <v>0.06642854399858636</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07946338390351003</v>
+        <v>0.1662879791315282</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1133621492367282</v>
+        <v>0.1034713854505498</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07888897935654893</v>
+        <v>0.1673116962330345</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04968336592848223</v>
+        <v>0.01988361219456941</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06971308943463431</v>
+        <v>0.1672148648417381</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0307387354744293</v>
+        <v>0.02903613516791125</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08150075895881018</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0682382845131522</v>
+        <v>0.06723528706582624</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08025015008077251</v>
+        <v>0.1679343947664939</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1118838001717575</v>
+        <v>0.1052839443412165</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07967005836007912</v>
+        <v>0.1689682476808864</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04883333201921841</v>
+        <v>0.02107192000779188</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06971282090617027</v>
+        <v>0.1688542262617551</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03049487927279484</v>
+        <v>0.02921447802404885</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08229978600742596</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06823741395988803</v>
+        <v>0.06795810069112374</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08103691625803498</v>
+        <v>0.1695808104014595</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1118983463358366</v>
+        <v>0.1052290649790691</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08045113736360932</v>
+        <v>0.1706247991287382</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04799396438252167</v>
+        <v>0.02025558787624062</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06971255237770627</v>
+        <v>0.1704935876817721</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03044860531540644</v>
+        <v>0.02927901755185955</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08309881305604175</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06753924836325043</v>
+        <v>0.06866390131696892</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08182368243529746</v>
+        <v>0.1712272260364251</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1111055297843995</v>
+        <v>0.1064998064158062</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0812322163671395</v>
+        <v>0.17228135057659</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04716572235747234</v>
+        <v>0.02143496216371869</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06971228384924225</v>
+        <v>0.1721329491017892</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03029994041585529</v>
+        <v>0.02953705728748685</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08389784010465753</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06814317547601051</v>
+        <v>0.06885515793618252</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08261044861255994</v>
+        <v>0.1728736416713907</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1111050925728796</v>
+        <v>0.1071463856067942</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08201329537066968</v>
+        <v>0.1739379020244419</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04634906528318801</v>
+        <v>0.01961038923402916</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06971201532077824</v>
+        <v>0.1737723105218062</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0302489113877325</v>
+        <v>0.02978909455507558</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08469686715327332</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06764858305093932</v>
+        <v>0.06943301124773191</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0833972147898224</v>
+        <v>0.1745200573063563</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1099967767567108</v>
+        <v>0.1086706256582871</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08279437437419986</v>
+        <v>0.1755944534722937</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04554445249875154</v>
+        <v>0.01978221545097509</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06971174679231421</v>
+        <v>0.1754116719418233</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03019554504462915</v>
+        <v>0.0302356266787706</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08549589420188912</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06745485884080804</v>
+        <v>0.06999860195058463</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08418398096708488</v>
+        <v>0.176166472941322</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1103803243913265</v>
+        <v>0.1099743496765385</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08357545337773005</v>
+        <v>0.1772510049201455</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04475234334335054</v>
+        <v>0.02195078717835953</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0697114782638502</v>
+        <v>0.1770510333618403</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02973986820013641</v>
+        <v>0.03047715098271685</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08629492125050491</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0675613905983877</v>
+        <v>0.07085307074370803</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08497074714434735</v>
+        <v>0.1778128885762876</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1093554775321605</v>
+        <v>0.1103593807678028</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08435653238126024</v>
+        <v>0.1789075563679974</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0439731971560673</v>
+        <v>0.02011645077998553</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06971120973538618</v>
+        <v>0.1786903947818573</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02958190766784535</v>
+        <v>0.03081416479105911</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08709394829912069</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06686756607644945</v>
+        <v>0.07149755832606972</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08575751332160983</v>
+        <v>0.1794593042112532</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1085219782346465</v>
+        <v>0.1108275420383337</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08513761138479042</v>
+        <v>0.1805641078158492</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04320747327601943</v>
+        <v>0.02127955261965619</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06971094120692216</v>
+        <v>0.1803297562018744</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0294216902613471</v>
+        <v>0.03104716542794232</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08789297534773648</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0669727730277643</v>
+        <v>0.07193320539663711</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08654427949887231</v>
+        <v>0.1811057198462188</v>
       </c>
       <c r="N175" t="n">
-        <v>0.108479568554218</v>
+        <v>0.1123806565943852</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08591869038832062</v>
+        <v>0.182220659263701</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04245563104229207</v>
+        <v>0.02244043906117452</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06971067267845814</v>
+        <v>0.1819691176218914</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02945924279423277</v>
+        <v>0.03117665021751131</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08869200239635226</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06697639920510345</v>
+        <v>0.07256115265437763</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08733104567613478</v>
+        <v>0.1827521354811845</v>
       </c>
       <c r="N176" t="n">
-        <v>0.107327990546309</v>
+        <v>0.1133205475422111</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0866997693918508</v>
+        <v>0.1838772107115528</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04171812979406828</v>
+        <v>0.0225994564683436</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06971040414999412</v>
+        <v>0.1836084790419084</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02919459208009348</v>
+        <v>0.03130311648391096</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08949102944496805</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06667783236123798</v>
+        <v>0.07298254079825878</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08811781185339726</v>
+        <v>0.1843985511161501</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1075669862663527</v>
+        <v>0.1142490379880653</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08748084839538099</v>
+        <v>0.1855337621594046</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04099542887043259</v>
+        <v>0.0227569531002968</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06971013562153011</v>
+        <v>0.1852478404619255</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02912776493252038</v>
+        <v>0.03162706155128613</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09029005649358383</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.065976460248939</v>
+        <v>0.07329851052724801</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08890457803065974</v>
+        <v>0.1860449667511157</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1067962977697832</v>
+        <v>0.115367951038202</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08826192739891119</v>
+        <v>0.1871903136072565</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04028798761050262</v>
+        <v>0.0229201386170126</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06970986709306609</v>
+        <v>0.1868872018819425</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02875878816510456</v>
+        <v>0.03165002393588771</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09108908354219962</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06617167062097751</v>
+        <v>0.07431987386635991</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08969134420792221</v>
+        <v>0.1876913823860814</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1062156671120338</v>
+        <v>0.1160797091789754</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08904300640244137</v>
+        <v>0.1888468650551083</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03959626535336618</v>
+        <v>0.02309154788743004</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06970959856460207</v>
+        <v>0.1885265633019596</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02888768859143714</v>
+        <v>0.03218496301012708</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09188811059081541</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0660628512301247</v>
+        <v>0.07477203557687628</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09047811038518468</v>
+        <v>0.189337798021047</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1051248363485385</v>
+        <v>0.1163272638848685</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08982408540597156</v>
+        <v>0.1905034165029601</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03892072143820108</v>
+        <v>0.02326523099230417</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06970933003613805</v>
+        <v>0.1901659247219766</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02861449302510921</v>
+        <v>0.03212899026572287</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09268713763943119</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06514938982915164</v>
+        <v>0.07523870616527417</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09126487656244715</v>
+        <v>0.1909842136560126</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1042235475347307</v>
+        <v>0.1178139615256197</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09060516440950174</v>
+        <v>0.1921599679508119</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03826181520409443</v>
+        <v>0.02243523801239007</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06970906150767404</v>
+        <v>0.1918052861419937</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02843922827971192</v>
+        <v>0.03267356255101085</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09348616468804698</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06543067417082948</v>
+        <v>0.07540029043517554</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09205164273970963</v>
+        <v>0.1926306292909782</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1036115427260442</v>
+        <v>0.1183084843512505</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09138624341303193</v>
+        <v>0.1938165193986638</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03762000599016382</v>
+        <v>0.02159561902844283</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06970879297921002</v>
+        <v>0.1934446475620107</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0282619211688364</v>
+        <v>0.0326101367143269</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09428519173666276</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0653060920079292</v>
+        <v>0.07653719319020233</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09283840891697211</v>
+        <v>0.1942770449259439</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1030885639779127</v>
+        <v>0.1196795146117826</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09216732241656211</v>
+        <v>0.1954730708465156</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03699575313550009</v>
+        <v>0.02374042412121752</v>
       </c>
       <c r="G184" t="n">
-        <v>0.069708524450746</v>
+        <v>0.1950840089820277</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02798259850607372</v>
+        <v>0.03283016960400685</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09508421878527855</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.064475031093222</v>
+        <v>0.07702981923397662</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09362517509423458</v>
+        <v>0.1959234605609095</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1025543533457696</v>
+        <v>0.1196957345572376</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09294840142009231</v>
+        <v>0.1971296222943674</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03638951597927513</v>
+        <v>0.02186370337146921</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06970825592228198</v>
+        <v>0.1967233704020448</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02800128710501504</v>
+        <v>0.03332511806838649</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09588324583389433</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06423687917947896</v>
+        <v>0.07725857337012026</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09441194127149706</v>
+        <v>0.1975698761958751</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1030086528850488</v>
+        <v>0.1205258264376374</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09372948042362249</v>
+        <v>0.1987861737422193</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03580175386057899</v>
+        <v>0.02395950685995303</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06970798739381796</v>
+        <v>0.1983627318220618</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02751801377925145</v>
+        <v>0.03318643895580167</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09668227288251012</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06399102401947118</v>
+        <v>0.07730386040225531</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09519870744875954</v>
+        <v>0.1992162918308407</v>
       </c>
       <c r="N186" t="n">
-        <v>0.101351204651184</v>
+        <v>0.1216384725030033</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09451055942715267</v>
+        <v>0.2004427251900711</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03523292611852923</v>
+        <v>0.02302694975066047</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06970771886535396</v>
+        <v>0.2000020932420788</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02763280534237407</v>
+        <v>0.03330558911458825</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09748129993112591</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06403685336596973</v>
+        <v>0.07754837218647886</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09598547362602201</v>
+        <v>0.2008627074658063</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1009817506996087</v>
+        <v>0.1213023550033571</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09529163843068286</v>
+        <v>0.2020992766379229</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03468349209221998</v>
+        <v>0.02408930126580432</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06970745033688992</v>
+        <v>0.2016414546620959</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02714568860797405</v>
+        <v>0.03359512517769442</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09828032697974169</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06417375497174574</v>
+        <v>0.07795343139051902</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09677223980328449</v>
+        <v>0.202509123100772</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1003000330857567</v>
+        <v>0.1226360861907603</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09607271743421304</v>
+        <v>0.2037558280857747</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03415391112081663</v>
+        <v>0.02215027111660532</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06970718180842592</v>
+        <v>0.2032808160821129</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02725669038964246</v>
+        <v>0.03368246152974577</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09907935402835748</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06390111658957029</v>
+        <v>0.07845398326164379</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09755900598054695</v>
+        <v>0.2041555387357376</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09900579386506153</v>
+        <v>0.1223560266039223</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09685379643774324</v>
+        <v>0.2054123795336266</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03364276690868215</v>
+        <v>0.02320983740655555</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0697069132799619</v>
+        <v>0.20492017750213</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02686583750097041</v>
+        <v>0.03376781823849809</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09987838107697326</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06301832597221449</v>
+        <v>0.07814995568687899</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09834577215780943</v>
+        <v>0.2058019543707033</v>
       </c>
       <c r="N190" t="n">
-        <v>0.099098775092957</v>
+        <v>0.1224687456532976</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09763487544127343</v>
+        <v>0.2070689309814784</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03313926498655324</v>
+        <v>0.02326797823914702</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06970664475149789</v>
+        <v>0.206559538922147</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02677315675554907</v>
+        <v>0.0338511638639972</v>
       </c>
       <c r="K191" t="n">
-        <v>0.100677408125589</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0632247708724494</v>
+        <v>0.0781412765532504</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09913253833507191</v>
+        <v>0.2074483700056688</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0982787188248766</v>
+        <v>0.1222741280853288</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09841595444480361</v>
+        <v>0.2087254824293302</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03264198905879602</v>
+        <v>0.02232467171787182</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06970637622303386</v>
+        <v>0.208198900342164</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02667867496696953</v>
+        <v>0.03383246696628893</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1014764351742048</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06241983904304618</v>
+        <v>0.07882787374778374</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09991930451233438</v>
+        <v>0.2090947856406345</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09804536711625417</v>
+        <v>0.1227720586464579</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0991970334483338</v>
+        <v>0.210382033877182</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03215139846457137</v>
+        <v>0.023379895946222</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06970610769456985</v>
+        <v>0.2098382617621811</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02647590751785525</v>
+        <v>0.03381169610541915</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1022754622228206</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06199384236962185</v>
+        <v>0.07840967515750474</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1007060706895969</v>
+        <v>0.2107412012756001</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09697402683863088</v>
+        <v>0.1239624220831272</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09997811245186398</v>
+        <v>0.2120385853250339</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03166795254297508</v>
+        <v>0.02443362902768959</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06970583916610583</v>
+        <v>0.2114776231821981</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0259575985794849</v>
+        <v>0.03418881984143367</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1030744892714364</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0619362128057023</v>
+        <v>0.07908660866943923</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1014928368668593</v>
+        <v>0.2123876169105658</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09613755749780645</v>
+        <v>0.1242451031417789</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1007591914553942</v>
+        <v>0.2136951367728857</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03119211063312474</v>
+        <v>0.02348584906576666</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06970557063764182</v>
+        <v>0.2131169846022152</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02582479065236581</v>
+        <v>0.03416380673437835</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1038735163200522</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06184872674128661</v>
+        <v>0.07915860217061296</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1022796030441218</v>
+        <v>0.2140340325455314</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09523975182247807</v>
+        <v>0.1238199865688553</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1015402704589244</v>
+        <v>0.2153516882207376</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03072433207411773</v>
+        <v>0.02253653416394526</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06970530210917779</v>
+        <v>0.2147563460222322</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02567854570225508</v>
+        <v>0.03433662534429906</v>
       </c>
       <c r="K196" t="n">
-        <v>0.104672543368668</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06103320053376882</v>
+        <v>0.0795255835480517</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1030663692213843</v>
+        <v>0.215680448180497</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09408446800085646</v>
+        <v>0.1237869571107989</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1023213494624546</v>
+        <v>0.2170082396685894</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03026507620511239</v>
+        <v>0.02258566242571744</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06970503358071378</v>
+        <v>0.2163957074422493</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02551992569490974</v>
+        <v>0.0341072442312416</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1054715704172838</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06049145054054289</v>
+        <v>0.07978748068878125</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1038531353986468</v>
+        <v>0.2173268638154626</v>
       </c>
       <c r="N197" t="n">
-        <v>0.092975564221152</v>
+        <v>0.1250458995140515</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1031024284659847</v>
+        <v>0.2186647911164412</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02981480236520577</v>
+        <v>0.02363321195457528</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06970476505224976</v>
+        <v>0.2180350688622663</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02494999259608681</v>
+        <v>0.03447563195525183</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1062705974658995</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06002529311900295</v>
+        <v>0.07964422147982725</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1046399015759092</v>
+        <v>0.2189732794504283</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09191689867157532</v>
+        <v>0.1253966985250557</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1038835074695149</v>
+        <v>0.220321342564293</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0293739698935154</v>
+        <v>0.02467916085401078</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06970449652378574</v>
+        <v>0.2196744302822833</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02476980837154333</v>
+        <v>0.03424175707637557</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1070696245145153</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0595365446265429</v>
+        <v>0.07999573380821556</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1054266677531717</v>
+        <v>0.2206196950853939</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09071232954033698</v>
+        <v>0.1252392388902537</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1046645864730451</v>
+        <v>0.2219778940121448</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02894303812914038</v>
+        <v>0.02472348722751605</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06970422799532172</v>
+        <v>0.2213137917023004</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02438043498703638</v>
+        <v>0.03440558815465868</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1078686515631311</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05912702142055684</v>
+        <v>0.08024194556097197</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1062134339304342</v>
+        <v>0.2222661107203595</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08966571501564752</v>
+        <v>0.1249734053560876</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1054456654765753</v>
+        <v>0.2236344454599966</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02852246641123582</v>
+        <v>0.0247661691785831</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0697039594668577</v>
+        <v>0.2229531531223174</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02408293440832297</v>
+        <v>0.03446709375014702</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1086676786117469</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05879853985843878</v>
+        <v>0.08028278462512217</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1070002001076967</v>
+        <v>0.2239125263553251</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08818091328571748</v>
+        <v>0.1248990826689999</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1062267444801055</v>
+        <v>0.2252909969078485</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02811271407890027</v>
+        <v>0.022807184810704</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06970369093839369</v>
+        <v>0.2245925145423345</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02377836860116019</v>
+        <v>0.0344262424228864</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1094667056603627</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05805291629758275</v>
+        <v>0.08041817888769198</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1077869662849591</v>
+        <v>0.2255589419902907</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08676178253875733</v>
+        <v>0.1257161555754326</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1070078234836357</v>
+        <v>0.2269475483557003</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02771424047125136</v>
+        <v>0.0238465122273708</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06970342240992967</v>
+        <v>0.2262318759623515</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02356779953130499</v>
+        <v>0.03458300273292267</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1102657327089785</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05789196709538277</v>
+        <v>0.07994805623570719</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1085737324622216</v>
+        <v>0.2272053576252564</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08591218096297781</v>
+        <v>0.1257245088218281</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1077889024871659</v>
+        <v>0.2286040998035521</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02732750492739007</v>
+        <v>0.02388412953207557</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06970315388146565</v>
+        <v>0.2278712373823686</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02325228916451451</v>
+        <v>0.03463734324030168</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1110647597575943</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05741750860923286</v>
+        <v>0.08067234455619346</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1093604986394841</v>
+        <v>0.228851773260222</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08483596674658933</v>
+        <v>0.1262240271546287</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1085699814906961</v>
+        <v>0.230260651251404</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02695296678646771</v>
+        <v>0.02392001482831035</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06970288535300163</v>
+        <v>0.2295105988023856</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02283289946654575</v>
+        <v>0.03458923250506929</v>
       </c>
       <c r="K205" t="n">
-        <v>0.11186378680621</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05683135719652707</v>
+        <v>0.08089097173617663</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1101472648167466</v>
+        <v>0.2304981888951876</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0836369980778025</v>
+        <v>0.1261145953202765</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1093510604942262</v>
+        <v>0.2319172026992558</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0265910853875847</v>
+        <v>0.02495414621956721</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06970261682453763</v>
+        <v>0.2311499602224026</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02261069240315576</v>
+        <v>0.03473863908727129</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1126628138548258</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05553532921465934</v>
+        <v>0.08050386566268244</v>
       </c>
       <c r="M206" t="n">
-        <v>0.110934030994009</v>
+        <v>0.2321446045301532</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08281913314482786</v>
+        <v>0.1263960980652137</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1101321394977564</v>
+        <v>0.2335737541471076</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02624232006985867</v>
+        <v>0.02398650180933815</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06970234829607361</v>
+        <v>0.2327893216424196</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02248672994010159</v>
+        <v>0.03488553154695356</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1134618409034416</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05563124102102376</v>
+        <v>0.0804109542227367</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1117207971712715</v>
+        <v>0.2337910201651189</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08028623013587588</v>
+        <v>0.1271684201358829</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1109132185012866</v>
+        <v>0.2352303055949595</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02590713017239292</v>
+        <v>0.02301705970111528</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06970207976760959</v>
+        <v>0.2344286830624367</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02196207404314027</v>
+        <v>0.03472987844416196</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1142608679520574</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05482090897301434</v>
+        <v>0.08071216530336517</v>
       </c>
       <c r="M208" t="n">
-        <v>0.112507563348534</v>
+        <v>0.2354374358000845</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07944214723915727</v>
+        <v>0.1271314462787261</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1116942975048168</v>
+        <v>0.2368868570428113</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02558597503433417</v>
+        <v>0.02304579799839063</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06970181123914557</v>
+        <v>0.2360680444824537</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02173778667802884</v>
+        <v>0.03487164833894228</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1150598950006732</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05430614942802511</v>
+        <v>0.08080742679159353</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1132943295257965</v>
+        <v>0.2370838514350501</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07809074264288235</v>
+        <v>0.1276850612401855</v>
       </c>
       <c r="O209" t="n">
-        <v>0.112475376508347</v>
+        <v>0.2385434084906631</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02527931399478517</v>
+        <v>0.02507269480465626</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06970154271068156</v>
+        <v>0.2377074059024707</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02131492981052435</v>
+        <v>0.0349108097913404</v>
       </c>
       <c r="K210" t="n">
-        <v>0.115858922049289</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05348877874345009</v>
+        <v>0.08129666657444759</v>
       </c>
       <c r="M210" t="n">
-        <v>0.114081095703059</v>
+        <v>0.2387302670700157</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07693587453526191</v>
+        <v>0.1267291497667036</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1132564555118772</v>
+        <v>0.240199959938515</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02498760639286346</v>
+        <v>0.02409772822340422</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06970127418221754</v>
+        <v>0.2393467673224878</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02089456540638387</v>
+        <v>0.03494733136140214</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1166579490979048</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05267061327668338</v>
+        <v>0.08117981253895315</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1148678618803214</v>
+        <v>0.2403766827049814</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07498140110450641</v>
+        <v>0.1274635966047223</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1140375345154074</v>
+        <v>0.2418565113863668</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02471131156767496</v>
+        <v>0.02512087635812656</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06970100565375352</v>
+        <v>0.2409861287425048</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02067775543136441</v>
+        <v>0.03498118160917338</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1174569761465206</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05215346938511883</v>
+        <v>0.08085679257213599</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1156546280575839</v>
+        <v>0.242023098339947</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07463118053882634</v>
+        <v>0.1267882865006842</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1148186135189375</v>
+        <v>0.2435130628342186</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02445088885836132</v>
+        <v>0.02514211731231535</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0697007371252895</v>
+        <v>0.2426254901625219</v>
       </c>
       <c r="J213" t="n">
-        <v>0.020365561851223</v>
+        <v>0.03501232909469992</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1182560031951363</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05173916342615059</v>
+        <v>0.08092753456102184</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1164413942348464</v>
+        <v>0.2436695139749126</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07228907102643223</v>
+        <v>0.1274031042010314</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1155996925224677</v>
+        <v>0.2451696142820704</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02420679760402773</v>
+        <v>0.02416142918946261</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06970046859682548</v>
+        <v>0.2442648515825389</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02025904663171674</v>
+        <v>0.03514074237802763</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1190550302437521</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05122951175717264</v>
+        <v>0.08109196639263644</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1172281604121088</v>
+        <v>0.2453159296098782</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07145893075553478</v>
+        <v>0.1276079344522063</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1163807715259979</v>
+        <v>0.2468261657299222</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02420679760402772</v>
+        <v>0.02417879009306043</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06970046859682548</v>
+        <v>0.245904213002556</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01985927173860262</v>
+        <v>0.03516639001920231</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1198540572923679</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05032633073557904</v>
+        <v>0.08125001595400558</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1180149265893713</v>
+        <v>0.2469623452448439</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07024461791434439</v>
+        <v>0.1277026620006508</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1171618505295281</v>
+        <v>0.2484827171777741</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0235934008229513</v>
+        <v>0.02519417812660084</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06958029562232693</v>
+        <v>0.247543574422573</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0195672991376377</v>
+        <v>0.03498924057826985</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1206530843409837</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04993143671876379</v>
+        <v>0.08120161113215502</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1188016927666338</v>
+        <v>0.2486087608798095</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06904999069107171</v>
+        <v>0.1283871715928075</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1179429295330583</v>
+        <v>0.2501392686256259</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02298686954587265</v>
+        <v>0.02420757139357591</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06946012264782837</v>
+        <v>0.24918293584259</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01938419079457904</v>
+        <v>0.03530926261527607</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1214521113895995</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04964664606412092</v>
+        <v>0.08174667981411049</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1195884589438963</v>
+        <v>0.2502551765147751</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06727890727392727</v>
+        <v>0.1282613479751185</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1187240085365885</v>
+        <v>0.2517958200734777</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0223875257958548</v>
+        <v>0.02521894799747768</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06933994967332982</v>
+        <v>0.2508222972626071</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01901100867518367</v>
+        <v>0.03512642469026682</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1222511384382153</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04887377512904442</v>
+        <v>0.08128514988689786</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1203752251211588</v>
+        <v>0.2519015921497408</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06583522585112161</v>
+        <v>0.1284250758940261</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1195050875401187</v>
+        <v>0.2534523715213295</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02179569159596061</v>
+        <v>0.02522828604179821</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06921977669883125</v>
+        <v>0.2524616586826241</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01854881474520863</v>
+        <v>0.03524069536328793</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1230501654868311</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04841464027092837</v>
+        <v>0.08171694923754283</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1211619912984212</v>
+        <v>0.2535480077847064</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06532280461086526</v>
+        <v>0.1274782400959726</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1202861665436489</v>
+        <v>0.2551089229691814</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02121168896925311</v>
+        <v>0.02323556363002952</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0690996037243327</v>
+        <v>0.2541010201026412</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01839867097041097</v>
+        <v>0.03515204319438525</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1238491925354468</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04717105784716677</v>
+        <v>0.08184200575307113</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1219487574756837</v>
+        <v>0.255194423419672</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06394550174136876</v>
+        <v>0.1274207253274001</v>
       </c>
       <c r="O220" t="n">
-        <v>0.121067245547179</v>
+        <v>0.2567654744170332</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0206358399387952</v>
+        <v>0.02424075886566371</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06897943074983415</v>
+        <v>0.2557403815226582</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01826163931654771</v>
+        <v>0.03536043674360463</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1246482195840626</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04704484421515359</v>
+        <v>0.08166024732050858</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1227355236529462</v>
+        <v>0.2568408390546376</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06260717543084271</v>
+        <v>0.1281524163347511</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1218483245507092</v>
+        <v>0.258422025864885</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02006846652764975</v>
+        <v>0.02524384985219284</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06885925777533558</v>
+        <v>0.2573797429426752</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01803878174937593</v>
+        <v>0.0352658445709919</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1254472466326784</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04663781573228293</v>
+        <v>0.08137160182688091</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1235222898302087</v>
+        <v>0.2584872546896033</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06171168386749759</v>
+        <v>0.1276731978644677</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1226294035542394</v>
+        <v>0.2600785773127369</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01950989075887981</v>
+        <v>0.02424473538827421</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06873908480083703</v>
+        <v>0.2590191043626923</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01763116023465265</v>
+        <v>0.03516823523659289</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1262462736812942</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04615178875594883</v>
+        <v>0.08177599715921391</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1243090560074711</v>
+        <v>0.2601336703245689</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06076288523954404</v>
+        <v>0.128582954662992</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1234104825577696</v>
+        <v>0.2617351287605887</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01896043465554822</v>
+        <v>0.02420874030544903</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06861891182633846</v>
+        <v>0.2606584657827093</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01773983673813494</v>
+        <v>0.03504425690377942</v>
       </c>
       <c r="K224" t="n">
-        <v>0.12704530072991</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0458885796435452</v>
+        <v>0.08149359951563642</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1250958221847336</v>
+        <v>0.2617800859595345</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0595646377351926</v>
+        <v>0.1282164797401173</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1241915615612998</v>
+        <v>0.2633916802084405</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01842042024071801</v>
+        <v>0.02411196660853687</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06849873885183992</v>
+        <v>0.2622978272027264</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0174658732255798</v>
+        <v>0.0351343818775488</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1278443277785258</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04475000475246615</v>
+        <v>0.08110978151675105</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1258825883619961</v>
+        <v>0.2634265015945002</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0591207995426537</v>
+        <v>0.1270431527392666</v>
       </c>
       <c r="O225" t="n">
-        <v>0.12497264056483</v>
+        <v>0.2650482316562924</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01789016953745208</v>
+        <v>0.02396124038899011</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06837856587734137</v>
+        <v>0.2639371886227434</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01731033166274429</v>
+        <v>0.0349445549862749</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1286433548271415</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04443788044010571</v>
+        <v>0.08074528350410839</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1266693545392586</v>
+        <v>0.2650729172294658</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05723522885013804</v>
+        <v>0.1273742495598361</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1257537195683602</v>
+        <v>0.2667047831041442</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0173700045688133</v>
+        <v>0.0237633877382611</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0682583929028428</v>
+        <v>0.2655765500427605</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01727427401538548</v>
+        <v>0.03468457742761281</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1294423818757574</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04455402306385786</v>
+        <v>0.08002258622021918</v>
       </c>
       <c r="M227" t="n">
-        <v>0.127456120716521</v>
+        <v>0.2667193328644314</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05671178384585601</v>
+        <v>0.1256456997357632</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1265347985718904</v>
+        <v>0.268361334551996</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01686024735786473</v>
+        <v>0.02452523474780229</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06813821992834425</v>
+        <v>0.2672159114627775</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01715876224926038</v>
+        <v>0.03446425039921762</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1302414089243731</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04400024898111665</v>
+        <v>0.0792641704075939</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1282428868937835</v>
+        <v>0.268365748499397</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05635432271801838</v>
+        <v>0.1244934328009853</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1273158775754205</v>
+        <v>0.2700178859998478</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01636121992766919</v>
+        <v>0.02325360750906603</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06801804695384568</v>
+        <v>0.2688552728827945</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01686485833012605</v>
+        <v>0.03409337509874438</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1310404359729889</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04367837454927612</v>
+        <v>0.07829251680874319</v>
       </c>
       <c r="M229" t="n">
-        <v>0.129029653071046</v>
+        <v>0.2700121641343626</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05606670365483551</v>
+        <v>0.1240533782894401</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1280969565789507</v>
+        <v>0.2716744374476996</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01587324430128974</v>
+        <v>0.02295533211350471</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06789787397934713</v>
+        <v>0.2704946343028116</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01669348227161584</v>
+        <v>0.03338175272384823</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1318394630216047</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04369002387658555</v>
+        <v>0.07803010616617773</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1298164192483084</v>
+        <v>0.2716585797693283</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05525225051817545</v>
+        <v>0.1217614657350646</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1288780355824809</v>
+        <v>0.2733309888955515</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01539664250178924</v>
+        <v>0.02163723465257077</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06777770100484858</v>
+        <v>0.2721339957228286</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01693189515628461</v>
+        <v>0.03303918447218422</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1326384900702205</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04291628406176606</v>
+        <v>0.07639941922240809</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1306031854255709</v>
+        <v>0.2733049954042939</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05436845473982416</v>
+        <v>0.1208536246717966</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1296591145860111</v>
+        <v>0.2749875403434033</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0149317365522306</v>
+        <v>0.02230614121771657</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06765752803035001</v>
+        <v>0.2737733571428456</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01677133645213839</v>
+        <v>0.03267547154140747</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1334375171188363</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04304395980500375</v>
+        <v>0.07562293671994486</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1313899516028334</v>
+        <v>0.2749514110392595</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05348716845508616</v>
+        <v>0.1190657846335735</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1304401935895413</v>
+        <v>0.2766440917912552</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01447884847567685</v>
+        <v>0.02296887790039448</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06753735505585146</v>
+        <v>0.2754127185628626</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01681185600977234</v>
+        <v>0.03220041512917306</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1342365441674521</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04287339673147356</v>
+        <v>0.07422313940129865</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1321767177800959</v>
+        <v>0.2765978266742252</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05260920510115652</v>
+        <v>0.1176338751543327</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1312212725930715</v>
+        <v>0.2783006432391069</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01403830029519083</v>
+        <v>0.02163227079205693</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0674171820813529</v>
+        <v>0.2770520799828797</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01645350367978163</v>
+        <v>0.03162381643313605</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1350355712160678</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0420049404663502</v>
+        <v>0.07352250800898016</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1329634839573584</v>
+        <v>0.2782442423091908</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05193537811522986</v>
+        <v>0.1151938257680115</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1320023515966017</v>
+        <v>0.2799571946869588</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01361041403383557</v>
+        <v>0.02030314598415631</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06729700910685435</v>
+        <v>0.2786914414028968</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01659632931276142</v>
+        <v>0.03115547665095156</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1358345982646836</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04233893663480862</v>
+        <v>0.0720435232854999</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1337502501346208</v>
+        <v>0.2798906579441564</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05196650093450123</v>
+        <v>0.1141815660085476</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1327834306001319</v>
+        <v>0.2816137461348106</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01319551171467394</v>
+        <v>0.021988329568145</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06717683613235578</v>
+        <v>0.2803308028229138</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01644038275930684</v>
+        <v>0.03070519698027467</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1366336253132994</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04167573086202356</v>
+        <v>0.07120866597336847</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1345370163118833</v>
+        <v>0.2815370735791221</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0510033869961653</v>
+        <v>0.1116330254098782</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1335645096036621</v>
+        <v>0.2832702975826624</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01279391536076894</v>
+        <v>0.01969464763547538</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06705666315785723</v>
+        <v>0.2819701642429308</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01648571387001312</v>
+        <v>0.03038277861876046</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1374326523619152</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04121566877316987</v>
+        <v>0.07064041681509661</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1353237824891458</v>
+        <v>0.2831834892140876</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0511468497374169</v>
+        <v>0.110384133505941</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1343455886071923</v>
+        <v>0.2849268490305143</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01240594699518346</v>
+        <v>0.02042541682358942</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06693649018335868</v>
+        <v>0.2836095256629479</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01653237249547536</v>
+        <v>0.03009665254824752</v>
       </c>
       <c r="K238" t="n">
-        <v>0.138231679410531</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0408590959934225</v>
+        <v>0.06955480442233303</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1361105486664083</v>
+        <v>0.2848299048490532</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04969770259545081</v>
+        <v>0.1092679714443408</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1351266676107224</v>
+        <v>0.2865834004783661</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01203192864098043</v>
+        <v>0.01915983292446798</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06681631720886011</v>
+        <v>0.2852488870829649</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01648040848628875</v>
+        <v>0.02942180423444625</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1390307064591468</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04140635814795612</v>
+        <v>0.06828798084699181</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1368973148436707</v>
+        <v>0.2864763204840189</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05025675900746196</v>
+        <v>0.1083002977334936</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1359077466142526</v>
+        <v>0.2882399519262179</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01167086739371584</v>
+        <v>0.02089323684236009</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06669614423436156</v>
+        <v>0.2868882485029819</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01642987169304845</v>
+        <v>0.0292455191637712</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1398297335077626</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04055780086194569</v>
+        <v>0.06721784378100701</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1376840810209332</v>
+        <v>0.2881227361189845</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04932483241064511</v>
+        <v>0.1056273737051458</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1366888256177828</v>
+        <v>0.2898965033740697</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01131519571141058</v>
+        <v>0.01962561240600199</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06657597125986299</v>
+        <v>0.288527609922999</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01628081196634962</v>
+        <v>0.02876777411682162</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1406287605563784</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04071376976056598</v>
+        <v>0.06674433996666587</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1384708471981957</v>
+        <v>0.2897691517539501</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0484027362421951</v>
+        <v>0.1043491142408992</v>
       </c>
       <c r="O241" t="n">
-        <v>0.137469904621313</v>
+        <v>0.2915530548219216</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01096392068962066</v>
+        <v>0.01835694344412985</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06645579828536445</v>
+        <v>0.2901669713430161</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0161332791567874</v>
+        <v>0.02828854587419685</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1414277876049941</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04047461046899187</v>
+        <v>0.06606741614625575</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1392576133754582</v>
+        <v>0.2914155673889158</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04869128393930683</v>
+        <v>0.1040654342223554</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1382509836248432</v>
+        <v>0.2932096062697734</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01061736435140898</v>
+        <v>0.02008721378547993</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0663356253108659</v>
+        <v>0.2918063327630331</v>
       </c>
       <c r="J243" t="n">
-        <v>0.016087323114957</v>
+        <v>0.02790781121649616</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1422268146536099</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0404406686123982</v>
+        <v>0.06488701906206396</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1400443795527206</v>
+        <v>0.2930619830238814</v>
       </c>
       <c r="N243" t="n">
-        <v>0.04819128893917501</v>
+        <v>0.1017762485311161</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1390320626283733</v>
+        <v>0.2948661577176253</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01027584871983842</v>
+        <v>0.0188164072587884</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06621545233636733</v>
+        <v>0.2934456941830501</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01604299369145355</v>
+        <v>0.02752554692431881</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1430258417022257</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04021228981595976</v>
+        <v>0.06420309545637787</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1408311457299831</v>
+        <v>0.2947083986588471</v>
       </c>
       <c r="N244" t="n">
-        <v>0.04720356467899439</v>
+        <v>0.1008814720487832</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1398131416319035</v>
+        <v>0.2965227091654771</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009939695817972022</v>
+        <v>0.01754450769279152</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06609527936186878</v>
+        <v>0.2950850556030671</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01590034073687224</v>
+        <v>0.02724172977826415</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1438248687508415</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03958981970485137</v>
+        <v>0.06281559207148479</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1416179119072456</v>
+        <v>0.2963548142938127</v>
       </c>
       <c r="N245" t="n">
-        <v>0.04652892459595998</v>
+        <v>0.09948101965695821</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1405942206354337</v>
+        <v>0.2981792606133289</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009609227668872643</v>
+        <v>0.01727149891622546</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06597510638737021</v>
+        <v>0.2967244170230842</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01595941410180819</v>
+        <v>0.02675633655893143</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1446238957994573</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03977360390424795</v>
+        <v>0.062724455649672</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1424046780845081</v>
+        <v>0.2980012299287783</v>
       </c>
       <c r="N246" t="n">
-        <v>0.04606818212726643</v>
+        <v>0.09787480623724293</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1413752996389639</v>
+        <v>0.2998358120611807</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009284766295603285</v>
+        <v>0.01899736475782646</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06585493341287166</v>
+        <v>0.2983637784431012</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0159202636368566</v>
+        <v>0.02656934404691996</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1454229228480731</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0389639880393243</v>
+        <v>0.06162963293322685</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1431914442617706</v>
+        <v>0.2996476455637439</v>
       </c>
       <c r="N247" t="n">
-        <v>0.04652215071010873</v>
+        <v>0.09616274667123897</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1421563786424941</v>
+        <v>0.3014923635090325</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008966633721226851</v>
+        <v>0.01772208904633073</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0657347604383731</v>
+        <v>0.3000031398631183</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01598293919261261</v>
+        <v>0.02628072902282905</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1462219498966889</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0388613177352552</v>
+        <v>0.0609310706644367</v>
       </c>
       <c r="M248" t="n">
-        <v>0.143978210439033</v>
+        <v>0.3012940611987096</v>
       </c>
       <c r="N248" t="n">
-        <v>0.04569164378168161</v>
+        <v>0.09484475584054819</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1429374576460243</v>
+        <v>0.3031489149568843</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008655151968806271</v>
+        <v>0.01744565561047448</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06561458746387454</v>
+        <v>0.3016425012831354</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0158474906196714</v>
+        <v>0.02559046826725797</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1470209769453046</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03856593861721555</v>
+        <v>0.05982871558558892</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1447649766162955</v>
+        <v>0.3029404768336751</v>
       </c>
       <c r="N249" t="n">
-        <v>0.04477747477917987</v>
+        <v>0.09392074862677219</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1437185366495545</v>
+        <v>0.3048054664047362</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008350643061404511</v>
+        <v>0.01616804827899392</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06549441448937598</v>
+        <v>0.3032818627031524</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01591396776862811</v>
+        <v>0.02529853856080599</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1478200039939204</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03897819631038021</v>
+        <v>0.05892251443897076</v>
       </c>
       <c r="M250" t="n">
-        <v>0.145551742793558</v>
+        <v>0.3045868924686408</v>
       </c>
       <c r="N250" t="n">
-        <v>0.04408045713979847</v>
+        <v>0.09239063991151286</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1444996156530847</v>
+        <v>0.306462017852588</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008053429022084481</v>
+        <v>0.01788925088062528</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06537424151487743</v>
+        <v>0.3049212241231694</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01578242049007794</v>
+        <v>0.02490491668407245</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1486190310425362</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03829843643992389</v>
+        <v>0.05771241396686952</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1463385089708205</v>
+        <v>0.3062333081036064</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04410140430073195</v>
+        <v>0.09015434457637167</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1452806946566149</v>
+        <v>0.3081185693004398</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007763831873909159</v>
+        <v>0.01660924724410476</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06525406854037888</v>
+        <v>0.3065605855431864</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01565289863461601</v>
+        <v>0.02450957941765664</v>
       </c>
       <c r="K252" t="n">
-        <v>0.149418058091152</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0380270046310216</v>
+        <v>0.05659836091157264</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1471252751480829</v>
+        <v>0.307879723738572</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04374112969917537</v>
+        <v>0.08941177750295043</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1460617736601451</v>
+        <v>0.3097751207482917</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007482173639941421</v>
+        <v>0.01632802119816858</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06513389556588031</v>
+        <v>0.3081999469632035</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0159254520528375</v>
+        <v>0.02411250354215781</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1502170851397678</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03766424650884803</v>
+        <v>0.05578030201536738</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1479120413253454</v>
+        <v>0.3095261393735377</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04370044677232354</v>
+        <v>0.08816285357285081</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1468428526636752</v>
+        <v>0.3114316721961435</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007208776343244273</v>
+        <v>0.01604555657155295</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06501372259138176</v>
+        <v>0.3098393083832205</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01580013059533758</v>
+        <v>0.02381366583817529</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1510161121883836</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03781050769857811</v>
+        <v>0.05485818402054105</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1486988075026079</v>
+        <v>0.3111725550085033</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04268016895737126</v>
+        <v>0.08590748766767464</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1476239316672054</v>
+        <v>0.3130882236439953</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006943962006880633</v>
+        <v>0.01576183719299408</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06489354961688321</v>
+        <v>0.3114786698032376</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01567698411271139</v>
+        <v>0.02331304308630834</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1518151392369994</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03796613382538663</v>
+        <v>0.05383195366938096</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1494855736798704</v>
+        <v>0.3128189706434689</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04318110969151318</v>
+        <v>0.08554559466902351</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1484050106707356</v>
+        <v>0.3147447750918472</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006688052653913396</v>
+        <v>0.0154768468912282</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06477337664238464</v>
+        <v>0.3131180312232546</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01585606245555413</v>
+        <v>0.02301061206715629</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1526141662856151</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03803147051444841</v>
+        <v>0.05360155770417455</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1502723398571328</v>
+        <v>0.3144653862784345</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04310408241194441</v>
+        <v>0.08347708945849919</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1491860896742658</v>
+        <v>0.316401326539699</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006441370307405561</v>
+        <v>0.01419056949499152</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06465320366788609</v>
+        <v>0.3147573926432716</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01583741547446092</v>
+        <v>0.02240634956131843</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1534131933342309</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03790686339093835</v>
+        <v>0.05206694286720906</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1510591060343953</v>
+        <v>0.3161118019134002</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0430499005558595</v>
+        <v>0.08240188691770334</v>
       </c>
       <c r="O257" t="n">
-        <v>0.149967168677796</v>
+        <v>0.3180578779875508</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006204236990420019</v>
+        <v>0.01590298883302024</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06453303069338752</v>
+        <v>0.3163967540632887</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01562109302002694</v>
+        <v>0.02200023234939401</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1542122203828467</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0370926580800312</v>
+        <v>0.05162805590077182</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1518458722116578</v>
+        <v>0.3177582175483658</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04271937756045346</v>
+        <v>0.0806199019282377</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1507482476813262</v>
+        <v>0.3197144294354026</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005976974726019761</v>
+        <v>0.01561408873405057</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06441285771888898</v>
+        <v>0.3180361154833057</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01570714494284738</v>
+        <v>0.02189223721198234</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1550112474314625</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03688920020690192</v>
+        <v>0.0500848435471502</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1526326383889202</v>
+        <v>0.3194046331833314</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04131332686292105</v>
+        <v>0.07953104937170402</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1515293266848564</v>
+        <v>0.3213709808832544</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005759905537267671</v>
+        <v>0.01532385302681875</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06429268474439043</v>
+        <v>0.3196754769033228</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01559562109351736</v>
+        <v>0.02128234092968273</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1558102744800783</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03689683539672522</v>
+        <v>0.04923725254863148</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1534194045661827</v>
+        <v>0.321051048818297</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04233256190045714</v>
+        <v>0.07773524412970384</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1523104056883866</v>
+        <v>0.3230275323311063</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005553351447226705</v>
+        <v>0.01403226554006098</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06417251176989186</v>
+        <v>0.3213148383233398</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01548657132263208</v>
+        <v>0.0210705202830945</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1566093015286941</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.037215909274676</v>
+        <v>0.04868522964750299</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1542061707434452</v>
+        <v>0.3226974644532627</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04117789611025646</v>
+        <v>0.07613240108383917</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1530914846919167</v>
+        <v>0.3246840837789581</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005357634478959823</v>
+        <v>0.01273931010251347</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06405233879539331</v>
+        <v>0.3229541997433568</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01578004548078665</v>
+        <v>0.0203567520528169</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1574083285773099</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03704676746592908</v>
+        <v>0.04752872158605215</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1549929369207077</v>
+        <v>0.3243438800882283</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04155014292951387</v>
+        <v>0.07502243511571155</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1538725636954469</v>
+        <v>0.3263406352268099</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005173076655529928</v>
+        <v>0.01244497054291244</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06393216582089474</v>
+        <v>0.3245935611633738</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01557609341857628</v>
+        <v>0.02024101301944918</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1582073556259256</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0365897555956593</v>
+        <v>0.04676767510656615</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1557797030979702</v>
+        <v>0.3259902957231939</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04095011579542412</v>
+        <v>0.07260526110692261</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1546536426989771</v>
+        <v>0.3279971866746618</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01214923068999411</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06381199284639619</v>
+        <v>0.3262329225833909</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01567476498659613</v>
+        <v>0.01982327996359072</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1590063826745414</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03724521928904151</v>
+        <v>0.04590203695133244</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1565664692752326</v>
+        <v>0.3276367113581595</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04137862814518217</v>
+        <v>0.07118079393907412</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1554347217025073</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06379883495165935</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005649866039609111</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06379910348012335</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006296096114479559</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06379937200858737</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006938648374605366</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06379964053705139</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.00757748096989673</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06379990906551541</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008212552050347856</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06380017759397942</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008843819765924861</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06380044612244344</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009471242266621105</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06380071465090746</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01009477770234813</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06380098317937148</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01071438422309946</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0638012517078355</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01133001997884122</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06380152023629951</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01194164311956609</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06380178876476354</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01254921179518697</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06380205729322755</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.0131526841556967</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06380232582169157</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01375201835106142</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06380259435015558</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01434717253127307</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06380286287861961</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.014938104846246</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06380313140708362</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01552477344597234</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06380339993554764</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01610713648041821</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06380366846401164</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01668515209957483</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06380393699247568</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01725877845335801</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06380420552093968</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01782797369175913</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0638044740494037</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01839269596474436</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06380474257786772</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01895290342230409</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06380501110633174</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01950855421435573</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06380527963479576</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02005977737852814</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06380554816325977</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02060755639061711</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06380581669172379</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02115202028825064</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06380608522018781</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02169312722134748</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06380635374865183</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02223083533989755</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06380662227711584</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02276510279386697</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06380689080557986</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02329588773324491</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06380715933404388</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02382314830795131</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0638074278625079</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02434684266797547</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0638076963909719</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02486692896328355</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06380796491943592</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02538336534386407</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06380823344789995</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.0258961099596382</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06380850197636397</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02640512096059468</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06380877050482799</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02691035649669961</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06380903903329199</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02741177471794086</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06380930756175603</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02790933377424097</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06380957609022003</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02840299181558795</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06380984461868405</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02889270699194793</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06381011314714806</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02937843745330811</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06381038167561209</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02986014134959236</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0638106502040761</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03033777683078803</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06381091873254012</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03081130204686128</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06381118726100414</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03128067514779857</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06381145578946816</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03174585428352517</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06381172431793218</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03220679760402775</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06381199284639619</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03220679760402774</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06379883495165935</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03268842487762609</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06391954498308594</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03316553430395042</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06404025501451253</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03363800059751945</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06416096504593911</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03410569847285194</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06428167507736571</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03456850264446658</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.0644023851087923</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03502628782688215</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06452309514021888</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03547892873461742</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06464380517164547</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03592630008219107</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06476451520307207</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03636827658412183</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06488522523449866</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03680473295492848</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06500593526592525</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03723554390912971</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06512664529735185</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03766058416124428</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06524735532877844</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03807972842579092</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06536806536020504</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03849285141728838</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06548877539163163</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03889982785025534</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06560948542305821</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.0393005324392106</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.0657301954544848</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03969483989867288</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0658509054859114</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04008262494316091</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06597161551733799</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04046376228719341</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06609232554876458</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04083812664528916</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06621303558019118</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04120559273196685</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06633374561161777</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04156603526174524</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06645445564304436</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04191932894914305</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06657516567447096</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04226534850867901</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06669587570589755</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04260448023725369</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06681658573732413</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04293966834367681</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06693729576875072</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04327129912484896</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06705800580017732</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04359924729528886</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06717871583160391</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04392338756951521</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.0672994258630305</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.0442435946620468</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0674201358944571</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04455974328740231</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06754084592588368</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04487170816010053</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06766155595731027</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04517936399466015</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06778226598873686</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04548258550559994</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06790297602016346</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04578124740743858</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06802368605159004</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04607522441469487</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06814439608301663</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04636439124188754</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06826510611444322</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04664862260353529</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06838581614586982</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04692779321415691</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06850652617729641</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04720177778827106</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06862723620872301</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04747045104039653</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0687479462401496</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04773368768505203</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06886865627157619</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04799136243675632</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06898936630300279</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04824335001002808</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06911007633442937</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04848952511938612</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06923078636585596</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04872976247934915</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06935149639728255</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04896393680443589</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06947220642870915</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04919192280916508</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06959291646013574</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04941359520805547</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06971362649156233</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04427573013870365</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06971362649156233</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04962924132155366</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.071679254206063</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04982880100575889</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07364488192056365</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05001289781365366</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07561050963506431</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05018215529822044</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07757613734956496</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05033719701244174</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07954176506406563</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05047864650930008</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08150739277856629</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05060712734177787</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08347302049306696</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05072326306285764</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08543864820756762</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05082767722552188</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08740427592206827</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05092099338275308</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08936990363656892</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05100383508753373</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.09133553135106959</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0510768258928463</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09330115906557025</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05114058935167329</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.0952667867800709</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05119574901699721</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09723241449457158</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05124292844180052</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09919804220907223</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05128275117906569</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1011636699235729</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05131584078177526</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1031292976380736</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05134282080291169</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1050949253525742</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05136431479545747</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1070605530670749</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05138094631239509</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1090261807815755</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05139333890670705</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1109918084960762</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05140211613137581</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1129574362105769</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05140790153938389</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1149230639250775</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05141131868371375</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1168886916395782</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05141299111734791</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1188543193540788</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05141354239326884</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1208199470685795</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05141193432324904</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1227855747830802</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0513561757416717</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1247512024975808</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05122558049259651</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1267168302120815</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05102595076412418</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1286824579265821</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05076308874435537</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1306480856410828</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05044279662139076</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1326137133555834</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05007087658333105</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1345793410700841</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04965313081827692</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1365449687845848</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04919536151432907</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1385105964990855</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04870337085958817</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1404762242135861</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04818296104215491</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1424418519280868</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04763993425012998</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1444074796425874</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04708009267161406</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1463731073570881</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04650923849470784</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1483387350715887</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.045933173907512</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04535770109812724</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1522699905005901</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04478862225465423</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1542356182150907</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04423173956519366</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1562012459295914</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04369285521784622</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.158166873644092</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04317777140071258</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1601325013585927</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04269229030189346</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1620981290730933</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04224221410948951</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.164063756787594</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04183334501160145</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1660293845020947</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04147148519632993</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1679950122165953</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04115239143885699</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.169960639931096</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04083964805147008</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1719262676455967</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04052963990474301</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1738918953600973</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04022272608683712</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.175857523074598</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03991926568591386</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1778231507890987</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03961961779013456</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1797887785035993</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03932414148766068</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1817544062181</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03903319586665359</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1837200339326006</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03874714001527467</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1856856616471013</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03846633302168533</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1876512893616019</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03819113397404696</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1896169170761026</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03792190196052093</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1915825447906033</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03765899606926873</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1935481725051039</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03740277538845165</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1955138002196046</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03715359900623111</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1974794279341053</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03691182601076853</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1994450556486059</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03667781549022532</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2014106833631066</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03645192653276283</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2033763110776072</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03623451822654246</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2053419387921079</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03602594965972565</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2073075665066085</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03582657992047375</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2092731942211092</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.0356367680969482</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2112388219356099</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03545687327731033</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2132044496501105</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03528725454972161</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2151700773646112</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03512827100234336</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2171357050791119</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03498027149080238</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2191013327936125</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03483808220465001</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2210669605081131</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03469738505656685</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2230325882226138</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03455849945370623</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2249982159371145</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03442174480322152</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2269638436516151</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03428744051226602</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2289294713661158</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03415590598799306</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2308950990806165</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03402746063755599</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2328607267951171</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03390242386810816</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2348263545096178</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03378111508680288</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2367919822241184</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03366385370079349</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2387576099386191</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03355095911723331</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2407232376531198</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03344275074327571</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2426888653676204</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03333954798607401</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2446544930821211</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03324167025278153</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2466201207966217</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03314943695055164</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2485857485111224</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03306316748653763</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2505513762256231</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03298318126789287</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2525170039401237</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03290979770177069</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2544826316546244</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03284333619532441</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.256448259369125</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03278411615570738</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2584138870836257</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03273245699007292</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2603795147981264</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03268867810557437</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.262345142512627</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03265309890936506</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2643107702271277</v>
-      </c>
-    </row>
+        <v>0.3296537381225136</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1103.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009235534630782291</v>
+        <v>0.0009493267128535127</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00163936142001704</v>
+        <v>0.0005185930713751559</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002561349891704708</v>
+        <v>0.001454480863418976</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008672494622936357</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009314545570797333</v>
+        <v>0.004807643472703321</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001646415634965626</v>
+        <v>0.000848507209852206</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01399170866842753</v>
+        <v>0.007201467700292619</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001656551447851827</v>
+        <v>0.0008498825075349884</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.001880197586469727</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.001037186142750312</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005223035345751255</v>
+        <v>0.002971403128439604</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001734498924587271</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01822958119419735</v>
+        <v>0.008917990001664322</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003292831269931252</v>
+        <v>0.001697014419704412</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02808172565423267</v>
+        <v>0.01379391515785111</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003313102895703654</v>
+        <v>0.001699765015069977</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007335328376577778</v>
+        <v>0.002781731064178547</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004918084260051119</v>
+        <v>0.001555779214125468</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004417417329045846</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.002601748386880907</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01313393436503199</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004258167613636362</v>
+        <v>0.002545521629556618</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.0214493896506972</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00493050986842105</v>
+        <v>0.002549647522604965</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00698272732968383</v>
+        <v>0.003643045589309897</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006557445680068159</v>
+        <v>0.002074372285500624</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009987537016922184</v>
+        <v>0.005659173999221639</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003468997849174543</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02843458922587899</v>
+        <v>0.01685837134095547</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006585662539862504</v>
+        <v>0.003394028839408824</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04393369680335452</v>
+        <v>0.02653993845685287</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006626205791407308</v>
+        <v>0.003399530030139953</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01042607712833297</v>
+        <v>0.004453259605193688</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008196807100085199</v>
+        <v>0.002592965356875779</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01188018650958778</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03287689675383246</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00823207817482813</v>
+        <v>0.004637608292079205</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04819541724393783</v>
+        <v>0.03203760885433987</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008282757239259137</v>
+        <v>0.004249412537674942</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009693324431657428</v>
+        <v>0.005201491555159865</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009836168520102238</v>
+        <v>0.003111558428250936</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01383742076979197</v>
+        <v>0.007917803889201734</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.005203496773761813</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03592652204773775</v>
+        <v>0.02329671805803379</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009878493809793755</v>
+        <v>0.005091043259113236</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05282931116425366</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009939308687110963</v>
+        <v>0.005036542338709674</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01535391816289046</v>
+        <v>0.008894716825880181</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.00607074623605545</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03904289289331381</v>
+        <v>0.02579762709660186</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01152490944475938</v>
+        <v>0.005939550468965442</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05731147869716047</v>
+        <v>0.04055402367481092</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01159586013496279</v>
+        <v>0.005949177552744918</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01386503863159843</v>
+        <v>0.00648922635966049</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01311489136013632</v>
+        <v>0.004148744571001247</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01692435705423906</v>
+        <v>0.00971051950458373</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006937995698349086</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04143581062090834</v>
+        <v>0.02817203258207845</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01277450284090908</v>
+        <v>0.006788057678817648</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06081801997551683</v>
+        <v>0.04539842995533738</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01325241158281462</v>
+        <v>0.006799060060279907</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01289543968752941</v>
+        <v>0.007092975922809303</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01475425278015336</v>
+        <v>0.004667337642376403</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01785559355394588</v>
+        <v>0.01057324040820024</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.007805245160642721</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04470363802486321</v>
+        <v>0.03096021731597276</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01481774071469063</v>
+        <v>0.007636564888669853</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06501602768787074</v>
+        <v>0.04762013361475675</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01479152960526315</v>
+        <v>0.007648942567814896</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01589697084237442</v>
+        <v>0.007688250096705575</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0163936142001704</v>
+        <v>0.005185930713751559</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01977960273104175</v>
+        <v>0.01139090801961759</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008672494622936358</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04815416674231557</v>
+        <v>0.03310246409979406</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01646415634965626</v>
+        <v>0.008485072098522058</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0693048167455021</v>
+        <v>0.05099030939841448</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01656551447851827</v>
+        <v>0.008498825075349884</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01586276607621018</v>
+        <v>0.008271165423321195</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01803297562018744</v>
+        <v>0.005704523785126715</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02138156362462035</v>
+        <v>0.01227155082172363</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009539744085229993</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05159512828429849</v>
+        <v>0.03473905573505134</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01811057198462188</v>
+        <v>0.009333579308374265</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07398380525163084</v>
+        <v>0.05468013205165589</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0182220659263701</v>
+        <v>0.009348707582884872</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0167859593691134</v>
+        <v>0.008837838444628057</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01967233704020448</v>
+        <v>0.006223116856501871</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02255596882712925</v>
+        <v>0.01302319729740624</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01040699354752363</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05428967799981571</v>
+        <v>0.03681027502325399</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01975698761958751</v>
+        <v>0.01018208651822647</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07818250248060882</v>
+        <v>0.05646077631982643</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01987861737422193</v>
+        <v>0.01019859009041986</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01765968470116085</v>
+        <v>0.009384385702598051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02131169846022152</v>
+        <v>0.006741709927877027</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02388995099328237</v>
+        <v>0.01375387592955325</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.01127424300981726</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05730097123787076</v>
+        <v>0.03835640476591101</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02140340325455314</v>
+        <v>0.01103059372807868</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08382236078126887</v>
+        <v>0.06000341694827127</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02153516882207375</v>
+        <v>0.01104847259795485</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01847707605242922</v>
+        <v>0.009906923739203051</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02295105988023856</v>
+        <v>0.007260302999252183</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02517064277779346</v>
+        <v>0.01457161520105259</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.0121414924721109</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06009216334746731</v>
+        <v>0.04143581062090834</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02304981888951876</v>
+        <v>0.01220082913806655</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08862483250244363</v>
+        <v>0.06267922868233594</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02319172026992558</v>
+        <v>0.01189835510548984</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01823126740299525</v>
+        <v>0.01040156909641494</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0245904213002556</v>
+        <v>0.007778896070627339</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02638517683537646</v>
+        <v>0.01528444359479207</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.01300874193440454</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06322640967760898</v>
+        <v>0.04203737535130125</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02469623452448439</v>
+        <v>0.01272760814778309</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09331136999296613</v>
+        <v>0.06501602768787074</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02484827171777741</v>
+        <v>0.01247451337694025</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01891539273293566</v>
+        <v>0.01086443831620563</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02622978272027264</v>
+        <v>0.008297489142002495</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02772068582074518</v>
+        <v>0.01580038959365962</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01387599139669817</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06506686557729938</v>
+        <v>0.04394273149602201</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02634265015945001</v>
+        <v>0.0135761153576353</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09720342560166906</v>
+        <v>0.06769165398729127</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02650482316562923</v>
+        <v>0.01359812012055981</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02152258602232719</v>
+        <v>0.01129164794054698</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02786914414028968</v>
+        <v>0.00881608221337765</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02856430238861342</v>
+        <v>0.01652748168054305</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01474324085899181</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06807668639554215</v>
+        <v>0.04622215683164796</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02798906579441564</v>
+        <v>0.0144246225674875</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1015224516773852</v>
+        <v>0.07156059971144269</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02816137461348106</v>
+        <v>0.0144480026280948</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02204598125124656</v>
+        <v>0.0116793145114109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950850556030672</v>
+        <v>0.009334675284752805</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02970315919369512</v>
+        <v>0.01785559355394588</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01593053737391109</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0700190274813409</v>
+        <v>0.0485616486915659</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02963548142938127</v>
+        <v>0.01527312977733971</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1060899005689475</v>
+        <v>0.07424347613197485</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02981792606133289</v>
+        <v>0.01529788513562979</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02247871239977048</v>
+        <v>0.01202355457076925</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03114786698032376</v>
+        <v>0.009853268356127962</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03022438889070407</v>
+        <v>0.01825156146867898</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01647773978357908</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07175704418369921</v>
+        <v>0.05064720440916262</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03128189706434689</v>
+        <v>0.01612163698719191</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1095272246251885</v>
+        <v>0.07751729738235608</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03147447750918472</v>
+        <v>0.01614776764316478</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02181657368193991</v>
+        <v>0.01232048466059395</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0327872284003408</v>
+        <v>0.01037186142750312</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03091512413435413</v>
+        <v>0.01887820610570018</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01734498924587272</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07305389185162078</v>
+        <v>0.05246482131782498</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03292831269931252</v>
+        <v>0.01697014419704412</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1113558761949415</v>
+        <v>0.08115907759605506</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03313102895703655</v>
+        <v>0.01699765015069977</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02211946639456723</v>
+        <v>0.01256622132285685</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03442658982035783</v>
+        <v>0.01089045449887827</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03166249757935914</v>
+        <v>0.0198483516901226</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01821223870816635</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07421418006886718</v>
+        <v>0.05530049675093981</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03457472833427815</v>
+        <v>0.01781865140689632</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1146973076270387</v>
+        <v>0.08554583090654011</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03478758040488836</v>
+        <v>0.01784753265823475</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02241312943434887</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03606595124037487</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03209918039465717</v>
+        <v>0.02065483707762338</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01907948817045999</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0751966523818916</v>
+        <v>0.05694022804189394</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03622114396924377</v>
+        <v>0.01866715861674853</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1161213579017973</v>
+        <v>0.08825457144727988</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0364441318527402</v>
+        <v>0.01869741516576974</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02269556031341778</v>
+        <v>0.01292195469282476</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03770531266039192</v>
+        <v>0.01192764064162859</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0325202109908833</v>
+        <v>0.02179050112387956</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01994673763275362</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07564729308771187</v>
+        <v>0.05947001252407413</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03786755960420939</v>
+        <v>0.01951566582660074</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1181762802954117</v>
+        <v>0.09216231335174274</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03810068330059203</v>
+        <v>0.01954729767330473</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02396475654390695</v>
+        <v>0.01308468675845809</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03934467408040895</v>
+        <v>0.01244623371300374</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03292651878999324</v>
+        <v>0.02254818268456828</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02081398709504725</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07715950728287069</v>
+        <v>0.06177584753086723</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03951397523917502</v>
+        <v>0.02036417303645294</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1195815143444138</v>
+        <v>0.0952460707533973</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03975723474844385</v>
+        <v>0.02039718018083972</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02421871563794932</v>
+        <v>0.01324523269870937</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04098403550042599</v>
+        <v>0.0129648267843789</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03311522853320627</v>
+        <v>0.02372072061536659</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02168123655734089</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07772670006391069</v>
+        <v>0.06404373039566008</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04116039087414065</v>
+        <v>0.02121268024630515</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1207265198361098</v>
+        <v>0.09888285778571199</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04141378619629568</v>
+        <v>0.02124706268837471</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02245543510767789</v>
+        <v>0.01340359333865886</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04262339692044304</v>
+        <v>0.01348341985575405</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03358346496174158</v>
+        <v>0.02480095377195159</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.02254848601963453</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07844227652737462</v>
+        <v>0.06645965845183949</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04280680650910627</v>
+        <v>0.02206118745615735</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1221007565578053</v>
+        <v>0.1018496885821555</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04307033764414751</v>
+        <v>0.0220969451959097</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02367291246522561</v>
+        <v>0.0135597695033868</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04426275834046008</v>
+        <v>0.01400201292712921</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0340283528168185</v>
+        <v>0.02558172101000034</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.02341573548192816</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07949964176980515</v>
+        <v>0.0683096290327922</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0444532221440719</v>
+        <v>0.02290969466600956</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1226936842968063</v>
+        <v>0.105723577276196</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04472688909199934</v>
+        <v>0.02294682770344468</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02486914522272544</v>
+        <v>0.01371376201797347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04590211976047711</v>
+        <v>0.01452060599850437</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03434701683965623</v>
+        <v>0.02645586118519</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.0242829849442218</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08009220088774496</v>
+        <v>0.07017963947190514</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04609963777903753</v>
+        <v>0.02375820187586177</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1246947628404186</v>
+        <v>0.1092815380013021</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04638344053985116</v>
+        <v>0.02379671021097967</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02304213089231039</v>
+        <v>0.01386557170749911</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04754148118049415</v>
+        <v>0.01503919906987952</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03443658177147405</v>
+        <v>0.02771621315319757</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02515023440651544</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0810133589777367</v>
+        <v>0.07165568710256509</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04774605341400315</v>
+        <v>0.02460670908571397</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1259934519759481</v>
+        <v>0.1123005848909425</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04803999198770299</v>
+        <v>0.02464659271851466</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0231898669861134</v>
+        <v>0.01401519939704398</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0491808426005112</v>
+        <v>0.01555779214125468</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03489417235349115</v>
+        <v>0.02835561576970021</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02601748386880907</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08095652113632315</v>
+        <v>0.07362376925815886</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04939246904896877</v>
+        <v>0.02545521629556618</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1265792114907007</v>
+        <v>0.1145577320785854</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04969654343555482</v>
+        <v>0.02549647522604965</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02331035101626744</v>
+        <v>0.01416264591168835</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05082020402052823</v>
+        <v>0.01607638521262983</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03491691332692685</v>
+        <v>0.02936690789037494</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02688473333110271</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08131509246004687</v>
+        <v>0.0749698832720733</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0510388846839344</v>
+        <v>0.02630372350541839</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1277415011719821</v>
+        <v>0.1172299936976995</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05135309488340664</v>
+        <v>0.02634635773358464</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02540158049490547</v>
+        <v>0.01430791207651248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05245956544054527</v>
+        <v>0.01659497828400499</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03510192943300039</v>
+        <v>0.03034292837089891</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02775198279339634</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08208247804545066</v>
+        <v>0.07668002647769517</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05268530031890003</v>
+        <v>0.02715223071527059</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1282697808070984</v>
+        <v>0.1201943838817531</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05300964633125847</v>
+        <v>0.02719624024111963</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.01445099871659661</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05409892686056231</v>
+        <v>0.01711357135538015</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03534634541293098</v>
+        <v>0.03127651606694917</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02861923225568997</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08215208298907709</v>
+        <v>0.07784019620841134</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05433171595386566</v>
+        <v>0.0280007379251228</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1285535101833554</v>
+        <v>0.1216279167642151</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05466619777911029</v>
+        <v>0.02804612274865461</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02348826584616542</v>
+        <v>0.014591906657021</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05573828828057936</v>
+        <v>0.0176321644267553</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03554728600793793</v>
+        <v>0.03196050983420282</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02948648171798362</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08287162124181666</v>
+        <v>0.07903638979760857</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05597813158883128</v>
+        <v>0.02884924513497501</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1283821490880588</v>
+        <v>0.1238076064785536</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05632274922696213</v>
+        <v>0.0288960052561896</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02548484817687806</v>
+        <v>0.01473063672286593</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0573776497005964</v>
+        <v>0.01815075749813046</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03571118710789177</v>
+        <v>0.03268774852833696</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.03035373118027725</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08247159680963781</v>
+        <v>0.08025460457867375</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05762454722379691</v>
+        <v>0.02969775234482721</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1300320553757415</v>
+        <v>0.1260104671582372</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05797930067481395</v>
+        <v>0.0297458877637246</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02446403158339563</v>
+        <v>0.01486718973921163</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05901701112061343</v>
+        <v>0.01866935056950561</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0354092818881515</v>
+        <v>0.03335107100502864</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03122098064257088</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08274178694105544</v>
+        <v>0.08128083788499363</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05927096285876254</v>
+        <v>0.03054625955467941</v>
       </c>
       <c r="N101" t="n">
-        <v>0.129632025632986</v>
+        <v>0.1276135129367345</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05963585212266578</v>
+        <v>0.03059577027125958</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02442750285750195</v>
+        <v>0.01500156653113837</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06065637254063047</v>
+        <v>0.01918794364088077</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0355876601125483</v>
+        <v>0.033743316119955</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03208823010486452</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0820580257607717</v>
+        <v>0.0820010870499551</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06091737849372816</v>
+        <v>0.03139476676453162</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1289850014088234</v>
+        <v>0.1281937579475139</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06129240357051761</v>
+        <v>0.03144565277879457</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02337631736805149</v>
+        <v>0.01513376792372641</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06229573396064751</v>
+        <v>0.01970653671225592</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03564316392574364</v>
+        <v>0.03425732272879309</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.03295547956715816</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08252378897309515</v>
+        <v>0.08210134940694497</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06256379412869378</v>
+        <v>0.03224327397438383</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1294522926429308</v>
+        <v>0.1289282163240439</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06294895501836943</v>
+        <v>0.03229553528632956</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0253115304838987</v>
+        <v>0.015263794742056</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06393509538066455</v>
+        <v>0.02022512978363108</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03557730867203283</v>
+        <v>0.03498592968722</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.03382272902945179</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08194255228233413</v>
+        <v>0.08287162124181666</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0642102097636594</v>
+        <v>0.03309178118423604</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1284394543313609</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06460550646622125</v>
+        <v>0.03314541779386455</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02523419757389805</v>
+        <v>0.01539164781120742</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06557445680068159</v>
+        <v>0.02074372285500624</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03549160969571119</v>
+        <v>0.03502197585091284</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03468997849174543</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08151779139279719</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06585662539862504</v>
+        <v>0.03394028839408823</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1282520414701665</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06626205791407309</v>
+        <v>0.03399530030139954</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02414537400690407</v>
+        <v>0.01551732795626089</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06721381822069863</v>
+        <v>0.02126231592638139</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03518758234107404</v>
+        <v>0.03525830007554866</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03555722795403906</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08115298200879284</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06750304103359066</v>
+        <v>0.03478879560394044</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1286956090554001</v>
+        <v>0.1289320553757415</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06791860936192491</v>
+        <v>0.03484518280893452</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02404611515177117</v>
+        <v>0.0156408360022967</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06885317964071566</v>
+        <v>0.02178090899775655</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0350667419524167</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.0364244774163327</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08125159983462951</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06914945666855629</v>
+        <v>0.03563730281379265</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1274757120831145</v>
+        <v>0.1299320553757415</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06957516080977673</v>
+        <v>0.03569506531646951</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02493747637735387</v>
+        <v>0.0157621727743951</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0704925410607327</v>
+        <v>0.0222995020691317</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03493060387403452</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03729172687862634</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08051712057461569</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07079587230352191</v>
+        <v>0.03648581002364486</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1271979055493624</v>
+        <v>0.1297320553757415</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07123171225762857</v>
+        <v>0.0365449478240045</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02382051305250661</v>
+        <v>0.01588133909763634</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07213190248074974</v>
+        <v>0.02281809514050686</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03468068345022277</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03815897634091997</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08045301993305987</v>
+        <v>0.08237162124181666</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07244228793848753</v>
+        <v>0.03733431723349706</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1275677444501965</v>
+        <v>0.1291320553757415</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07288826370548039</v>
+        <v>0.03739483033153949</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02369628054608387</v>
+        <v>0.01599833579710069</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07377126390076678</v>
+        <v>0.02333668821188202</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03481849602527681</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.0390262258032136</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0805627736142705</v>
+        <v>0.08237162124181666</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07408870357345317</v>
+        <v>0.03818282444334927</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1266907837816694</v>
+        <v>0.1295320553757415</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07454481515333222</v>
+        <v>0.03824471283907447</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02456583422694014</v>
+        <v>0.01611316369786839</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07541062532078384</v>
+        <v>0.02385528128325717</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03434555694349192</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03989347526550725</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07994985732255605</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07573511920841879</v>
+        <v>0.03903133165320147</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1258725785398339</v>
+        <v>0.1289320553757415</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07620136660118405</v>
+        <v>0.03909459534660947</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02343022946392988</v>
+        <v>0.01622582362501971</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07704998674080088</v>
+        <v>0.02437387435463233</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03436338154916346</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.04076072472780088</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07941774676222504</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07738153484338442</v>
+        <v>0.03987983886305368</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1254186837207426</v>
+        <v>0.1287320553757415</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07785791804903587</v>
+        <v>0.03994447785414446</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02329052162590757</v>
+        <v>0.01633631640363491</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07868934816081791</v>
+        <v>0.02489246742600748</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03397348518658674</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04162797419009451</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07906991763758589</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07902795047835004</v>
+        <v>0.04072834607290589</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1246346543204481</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0795144694968877</v>
+        <v>0.04079436036167944</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02214776608172769</v>
+        <v>0.01644464285879424</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08032870958083495</v>
+        <v>0.02541106049738264</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03377738320005708</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04249522365238815</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07860984565294712</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08067436611331567</v>
+        <v>0.04157685328275809</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1234260453350034</v>
+        <v>0.1288320553757415</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08117102094473953</v>
+        <v>0.04164424286921443</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02400301820024468</v>
+        <v>0.01655080381557797</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08196807100085199</v>
+        <v>0.02592965356875779</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03387659093386979</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04336247311468178</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07804100651261722</v>
+        <v>0.08227162124181667</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08232078174828129</v>
+        <v>0.0424253604926103</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1233984117604609</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08282757239259135</v>
+        <v>0.04249412537674942</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02385733335031306</v>
+        <v>0.01665480009906634</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08360743242086903</v>
+        <v>0.02644824664013295</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0334726237323202</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.04422972257697542</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07766687592090463</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08396719738324693</v>
+        <v>0.0432738677024625</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1222573085928733</v>
+        <v>0.1292320553757415</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0844841238404432</v>
+        <v>0.04334400788428441</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02371176690078726</v>
+        <v>0.01675663253433961</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08524679384088607</v>
+        <v>0.02696683971150811</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03326699693970363</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04509697203926905</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07729092958211783</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08561361301821255</v>
+        <v>0.04412237491231471</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1208082908282934</v>
+        <v>0.1293320553757416</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08614067528829501</v>
+        <v>0.0441938903918194</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0225673742205218</v>
+        <v>0.01685630194647807</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08688615526090311</v>
+        <v>0.02748543278288326</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03306122590031539</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04596422150156269</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07671664320056532</v>
+        <v>0.08227162124181667</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08726002865317817</v>
+        <v>0.04497088212216691</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1204569134627739</v>
+        <v>0.1295320553757415</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08779722673614683</v>
+        <v>0.04504377289935438</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02342135452785174</v>
+        <v>0.01695380916056193</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08852551668092015</v>
+        <v>0.02800402585425842</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03295682595845083</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04683147096385633</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07614749248055558</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0889064442881438</v>
+        <v>0.04581938933201912</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1197087314923674</v>
+        <v>0.1291320553757415</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08945377818399868</v>
+        <v>0.04589365540688937</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02125574674630056</v>
+        <v>0.01704915500167148</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09016487810093718</v>
+        <v>0.02852261892563358</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03275295466407258</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04769872042614996</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07575082843698311</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09055285992310942</v>
+        <v>0.04666789654187133</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1187692461486756</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09111032963185049</v>
+        <v>0.04674353791442436</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02107105781844103</v>
+        <v>0.01714234029488696</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09180423952095422</v>
+        <v>0.02904121199700873</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03252438117930269</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.0485659698884436</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07478493284470375</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09219927555807506</v>
+        <v>0.04751640375172354</v>
       </c>
       <c r="N121" t="n">
-        <v>0.118871947376323</v>
+        <v>0.1292320553757415</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09276688107970232</v>
+        <v>0.04759342042195935</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02287072626215476</v>
+        <v>0.01723336586528865</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09344360094097126</v>
+        <v>0.02955980506838389</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03236777513189747</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.04943321935073724</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07476080291963269</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09384569119304068</v>
+        <v>0.04836491096157574</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1180663100489869</v>
+        <v>0.1296320553757415</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09442343252755415</v>
+        <v>0.04844330292949434</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02165819059532344</v>
+        <v>0.01732223253795678</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0950829623609883</v>
+        <v>0.03007839813975904</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03198807369470805</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.05030046881303087</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07328976292187606</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09549210682800631</v>
+        <v>0.04921341817142794</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1159704330078248</v>
+        <v>0.1292320553757415</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09607998397540597</v>
+        <v>0.04929318543702933</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02243688933582862</v>
+        <v>0.01740894113797163</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09672232378100536</v>
+        <v>0.0305969912111342</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03159021404058562</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.05116771827532451</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07328313711154</v>
+        <v>0.08227162124181667</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09713852246297193</v>
+        <v>0.05006192538128015</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1149024150939938</v>
+        <v>0.1295320553757415</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0977365354232578</v>
+        <v>0.05014306794456432</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02021026100155199</v>
+        <v>0.01749349249041345</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0983616852010224</v>
+        <v>0.03111558428250935</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03137913334238139</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.05203496773761814</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07235224974873056</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09878493809793755</v>
+        <v>0.05091043259113236</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1138803551486515</v>
+        <v>0.1288320553757415</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09939308687110963</v>
+        <v>0.0509929504520993</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01998174411037514</v>
+        <v>0.0175758874203625</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1000010466210394</v>
+        <v>0.03163417735388451</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0311597687729465</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.05290221719991178</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07130842509355384</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1004313537329032</v>
+        <v>0.05175893980098457</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1125223520129551</v>
+        <v>0.1293320553757416</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1010496383189615</v>
+        <v>0.05184283295963429</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02075477718017971</v>
+        <v>0.01765612675289904</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1016404080410565</v>
+        <v>0.03215277042525966</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03083705750513212</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05376946666220542</v>
       </c>
       <c r="L127" t="n">
-        <v>0.070762987406116</v>
+        <v>0.08237162124181666</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1020777693678688</v>
+        <v>0.05260744701083677</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1118465045280619</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1027061897668133</v>
+        <v>0.05269271546716928</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02153279872884731</v>
+        <v>0.01773421131310331</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1032797694610735</v>
+        <v>0.03267136349663482</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03051593671178943</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05463671612449904</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07022726094652315</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1037241850028344</v>
+        <v>0.05345595422068897</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1103709115351295</v>
+        <v>0.1287320553757415</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1043627412146651</v>
+        <v>0.05354259797470427</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0203192472742596</v>
+        <v>0.01781014192605558</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1049191308810905</v>
+        <v>0.03318995656800998</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03010134356576959</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05550396558679269</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06921256997488137</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1053706006378001</v>
+        <v>0.05430446143054118</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1092136718753151</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1060192926625169</v>
+        <v>0.05439248048223926</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02011301949740303</v>
+        <v>0.01788391941683612</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1065584923011076</v>
+        <v>0.03370854963938513</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02979821523992381</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05637121504908632</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06903023875129682</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1070170162727657</v>
+        <v>0.05515296864039339</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1084928843897761</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1076758441103688</v>
+        <v>0.05524236298977424</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01988986714558437</v>
+        <v>0.01795554461052517</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1081978537211246</v>
+        <v>0.03422714271076029</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02960730421782838</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05723846451137995</v>
       </c>
       <c r="L131" t="n">
-        <v>0.067740202467371</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1086634319077313</v>
+        <v>0.0560014758502456</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1071257478430769</v>
+        <v>0.1295320553757415</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1093323955582206</v>
+        <v>0.05609224549730923</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02064977414510755</v>
+        <v>0.018025018332203</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1098372151411417</v>
+        <v>0.03474573578213545</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02909456609159405</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05810571397367359</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06698582614541132</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1103098475426969</v>
+        <v>0.0568499830600978</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1065163110340885</v>
+        <v>0.1287320553757415</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1109889470060724</v>
+        <v>0.05694212800484422</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01939766273532741</v>
+        <v>0.01809234140694985</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1114765765611587</v>
+        <v>0.0352643288535106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02865710712934791</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.05897296343596723</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06618287031565076</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1119562631776626</v>
+        <v>0.05769849026995001</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1045087825531687</v>
+        <v>0.1289320553757415</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1126454984539243</v>
+        <v>0.05779201051237921</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02013845515559882</v>
+        <v>0.018157514659846</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1131159379811758</v>
+        <v>0.03578292192488576</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02830199489547276</v>
+        <v>0.03541118710789178</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.05984021289826087</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06534754565974879</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1136026788126282</v>
+        <v>0.05854699747980222</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1043290708967362</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1143020499017761</v>
+        <v>0.0586418930199142</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01787707364527665</v>
+        <v>0.0182205389159717</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1147552994011928</v>
+        <v>0.03630151499626091</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02813629695435142</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.06070746236055449</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0649960628593646</v>
+        <v>0.08237162124181666</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1152490944475938</v>
+        <v>0.05939550468965441</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1026030845612099</v>
+        <v>0.1289320553757415</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1159586013496279</v>
+        <v>0.05949177552744919</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01861844044371579</v>
+        <v>0.0182814150004072</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1163946608212098</v>
+        <v>0.03682010806763607</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0278670808703667</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.06157471182284813</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06344463259615765</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1168955100825594</v>
+        <v>0.06024401189950662</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1012567320430086</v>
+        <v>0.1287320553757415</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1176151527974797</v>
+        <v>0.06034165803498417</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01936747779027109</v>
+        <v>0.01834014373823277</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1180340222412269</v>
+        <v>0.03733870113901122</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02720141420790141</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06244196128514177</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0630094655517873</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1185419257175251</v>
+        <v>0.06109251910935883</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1004159218385511</v>
+        <v>0.1297320553757415</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1192717042453316</v>
+        <v>0.06119154054251916</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01812910792429741</v>
+        <v>0.01839672595452865</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1196733836612439</v>
+        <v>0.03785729421038638</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02694636453133832</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06330921074743541</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0624067724079129</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1201883413524907</v>
+        <v>0.06194102631921104</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09900656244425621</v>
+        <v>0.1292320553757415</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1209282556931834</v>
+        <v>0.06204142305005415</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01690825308514962</v>
+        <v>0.01845116247437512</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1213127450812609</v>
+        <v>0.03837588728176154</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02670899940506029</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06417646020972904</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06145276384619378</v>
+        <v>0.08237162124181666</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1218347569874563</v>
+        <v>0.06278953352906325</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09755456235654292</v>
+        <v>0.1298320553757416</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1225848071410352</v>
+        <v>0.06289130555758914</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01670983551218262</v>
+        <v>0.01850345412285243</v>
       </c>
       <c r="G140" t="n">
-        <v>0.122952106501278</v>
+        <v>0.0388944803531367</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02649638639345009</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06504370967202268</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06116365054828929</v>
+        <v>0.08247162124181664</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1234811726224219</v>
+        <v>0.06363804073891545</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09638583007182983</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O140" t="n">
-        <v>0.124241358588887</v>
+        <v>0.06374118806512413</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01753877744475123</v>
+        <v>0.01855360172504082</v>
       </c>
       <c r="G141" t="n">
-        <v>0.124591467921295</v>
+        <v>0.03941307342451185</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02621559306089055</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06591095913431631</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06035564319585884</v>
+        <v>0.08277162124181667</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1251275882573876</v>
+        <v>0.06448654794876765</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09462627408653607</v>
+        <v>0.1294320553757415</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1258979100367389</v>
+        <v>0.06459107057265912</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01740000112221034</v>
+        <v>0.01860160610602057</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1262308293413121</v>
+        <v>0.039931666495887</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02587368697176445</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06677820859660995</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05994495247056172</v>
+        <v>0.08207162124181666</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1267740038923532</v>
+        <v>0.06533505515861986</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09350180289708016</v>
+        <v>0.1300320553757415</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1275544614845907</v>
+        <v>0.0654409530801941</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01729842878391484</v>
+        <v>0.01864746809087194</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1278701907613291</v>
+        <v>0.04045025956726216</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02547773569045463</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06764545805890358</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05934778905405733</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1284204195273188</v>
+        <v>0.06618356236847207</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09373832499988116</v>
+        <v>0.1297320553757415</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1292110129324425</v>
+        <v>0.06629083558772909</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01823898266921956</v>
+        <v>0.01869118850467516</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1295095521813462</v>
+        <v>0.04096885263863732</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02543480678134385</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06851270752119722</v>
       </c>
       <c r="L144" t="n">
-        <v>0.059380363628005</v>
+        <v>0.08267162124181665</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1300668351622845</v>
+        <v>0.06703206957832428</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09316174889135781</v>
+        <v>0.1293320553757416</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1308675643802943</v>
+        <v>0.06714071809526408</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01822523212235676</v>
+        <v>0.01873276817251051</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1311489136013632</v>
+        <v>0.04148744571001247</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02545196780881498</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.06937995698349086</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05845888687406409</v>
+        <v>0.08287162124181666</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1317132507972501</v>
+        <v>0.06788057678817647</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09289798306792901</v>
+        <v>0.1299320553757415</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1325241158281462</v>
+        <v>0.06799060060279907</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01723065521191951</v>
+        <v>0.01877220791945827</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1327882750213802</v>
+        <v>0.04200603878138762</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02523389980115874</v>
+        <v>0.03571118710789177</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.07024720644578449</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05855973159497904</v>
+        <v>0.08217162124181665</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1333596664322157</v>
+        <v>0.06872908399802868</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09287292198850017</v>
+        <v>0.1287320553757415</v>
       </c>
       <c r="O146" t="n">
-        <v>0.134180667275998</v>
+        <v>0.06884048311033406</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01824302661593015</v>
+        <v>0.01880950857059863</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1344276364413973</v>
+        <v>0.04252463185276278</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02524190475254502</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.07111445590807812</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05908880283438772</v>
+        <v>0.08227162124181667</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1350060820671813</v>
+        <v>0.06957759120788089</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09279229652290694</v>
+        <v>0.1292320553757415</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1358372187238498</v>
+        <v>0.06969036561786904</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0182619846500339</v>
+        <v>0.01884467095101192</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1360669978614143</v>
+        <v>0.04304322492413794</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02525978528640603</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.07198170537037177</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05884007036561856</v>
+        <v>0.08257162124181666</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1366524977021469</v>
+        <v>0.07042609841773309</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09174829176637012</v>
+        <v>0.1290320553757415</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1374937701717017</v>
+        <v>0.07054024812540403</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01728716762987595</v>
+        <v>0.01887769588577835</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1377063592814313</v>
+        <v>0.0435618179955131</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02558702208068539</v>
+        <v>0.03561118710789177</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.0728489548326654</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05931234303368824</v>
+        <v>0.08287002717564851</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1382989133371126</v>
+        <v>0.07127460562758529</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09193900397201071</v>
+        <v>0.1288306188659896</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1391503216195535</v>
+        <v>0.07139013063293902</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01631821387110154</v>
+        <v>0.01890858419997821</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1393457207014484</v>
+        <v>0.04408041106688825</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02562309581332675</v>
+        <v>0.03551118710789176</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07371620429495902</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05950442968361341</v>
+        <v>0.0825632669041759</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1399453289720782</v>
+        <v>0.07212311283743751</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09276252939294916</v>
+        <v>0.1289215201841931</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1408068730674053</v>
+        <v>0.07224001314047401</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01735476168935588</v>
+        <v>0.01893733671869173</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1409850821214654</v>
+        <v>0.04459900413826341</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02536748716227376</v>
+        <v>0.03541110085486533</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07458345375725267</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05911513916041086</v>
+        <v>0.0826513973370851</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1415917446070438</v>
+        <v>0.07297162004728971</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09321696428230652</v>
+        <v>0.1295043186789145</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1424634245152571</v>
+        <v>0.07308989564800901</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0183964494002842</v>
+        <v>0.01896395426699919</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1426244435414825</v>
+        <v>0.04511759720963857</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02561967680547003</v>
+        <v>0.03570924751996069</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07545070321954631</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05974328030909729</v>
+        <v>0.08253462451132682</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1432381602420094</v>
+        <v>0.07382012725714192</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09340040489320345</v>
+        <v>0.1294793392127923</v>
       </c>
       <c r="O152" t="n">
-        <v>0.144119975963109</v>
+        <v>0.07393977815554399</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01644291531953172</v>
+        <v>0.01898843766998082</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1442638049614995</v>
+        <v>0.04563619028101372</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02577914542085924</v>
+        <v>0.03560505018321279</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07631795268183994</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05918766197468939</v>
+        <v>0.08261315446385176</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1448845758769751</v>
+        <v>0.07466863446699412</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09371094747876069</v>
+        <v>0.1295469066484646</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1457765274109608</v>
+        <v>0.07478966066307897</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01749379776274364</v>
+        <v>0.01901078775271692</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1459031663815165</v>
+        <v>0.04615478335238888</v>
       </c>
       <c r="J154" t="n">
-        <v>0.025845373686385</v>
+        <v>0.03569860364478225</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07718520214413357</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05954709300220382</v>
+        <v>0.08198719323161066</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1465309915119407</v>
+        <v>0.07551714167684634</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0936466882920991</v>
+        <v>0.1291073458485699</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1474330788588126</v>
+        <v>0.07563954317061396</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01654873504556519</v>
+        <v>0.01903100534028771</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1475425278015336</v>
+        <v>0.04667337642376403</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02561784227999096</v>
+        <v>0.03559000270482958</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07805245160642721</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05962038223665733</v>
+        <v>0.08215694685155431</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1481774071469063</v>
+        <v>0.07636564888669854</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09350572358633952</v>
+        <v>0.1298609816757466</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1490896303066644</v>
+        <v>0.07648942567814894</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0186073654836416</v>
+        <v>0.01904909125777348</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1491818892215506</v>
+        <v>0.04719196949513919</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02599603187962075</v>
+        <v>0.03567934216351536</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07891970106872086</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06040633852306657</v>
+        <v>0.08272262136063335</v>
       </c>
       <c r="M156" t="n">
-        <v>0.149823822781872</v>
+        <v>0.07721415609655073</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09458614961460265</v>
+        <v>0.1292081389926329</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1507461817545163</v>
+        <v>0.07733930818568395</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01667139316217409</v>
+        <v>0.01906504633025445</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1508212506415677</v>
+        <v>0.04771056256651435</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02607942316321801</v>
+        <v>0.03546671682100012</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07978695053101449</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06000377070644836</v>
+        <v>0.08198442279579857</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1514702384168376</v>
+        <v>0.07806266330640295</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09398606263000925</v>
+        <v>0.1292491426618672</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1524027332023681</v>
+        <v>0.07818919069321893</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01678151272100002</v>
+        <v>0.01907887138281091</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1524606120615847</v>
+        <v>0.0482291556378895</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02587400589844352</v>
+        <v>0.0356522214774445</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.08065419999330811</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06077540724137137</v>
+        <v>0.08264255719400068</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1531166540518032</v>
+        <v>0.07891117051625515</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09440691776797705</v>
+        <v>0.1296843175460879</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1540592846502199</v>
+        <v>0.07903907320075391</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01694540774782716</v>
+        <v>0.0190905672405231</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1540999734816018</v>
+        <v>0.04874774870926465</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0260405274962776</v>
+        <v>0.03563595093300899</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.08152144945560176</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06053525081343103</v>
+        <v>0.08229723059219041</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1547630696867688</v>
+        <v>0.07975967772610736</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09494176034160362</v>
+        <v>0.1292139885079333</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1557158360980717</v>
+        <v>0.07988895570828891</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01915215986494102</v>
+        <v>0.01910013472847129</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1557393349016188</v>
+        <v>0.04926634178063981</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02648150213752881</v>
+        <v>0.03531799998785419</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.08238869891789539</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06165181015135546</v>
+        <v>0.08204864902731843</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1564094853217345</v>
+        <v>0.08060818493595956</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09576246078685346</v>
+        <v>0.1290384804100419</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1573723875459236</v>
+        <v>0.08073883821582389</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01939085069462704</v>
+        <v>0.01910757467173571</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1573786963216358</v>
+        <v>0.04978493485201497</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02688125274274415</v>
+        <v>0.03529846344214065</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08325594838018902</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06258912716115403</v>
+        <v>0.08229701853633553</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1580559009567001</v>
+        <v>0.08145669214581178</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09761154958030005</v>
+        <v>0.1283581181150518</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1590289389937754</v>
+        <v>0.08158872072335888</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01965056185917071</v>
+        <v>0.01911288789539666</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1590180577416528</v>
+        <v>0.05030352792339012</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02702410223247051</v>
+        <v>0.03537743609602892</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08412319784248266</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06351124374883607</v>
+        <v>0.08244254515619245</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1597023165916657</v>
+        <v>0.08230519935566398</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09803155719851658</v>
+        <v>0.1288732264856015</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1606854904416272</v>
+        <v>0.08243860323089387</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01892037498085752</v>
+        <v>0.01911607522453437</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1606574191616699</v>
+        <v>0.05082212099476528</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02759437352725488</v>
+        <v>0.03545501274967959</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.0849904473047763</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06378220182041097</v>
+        <v>0.08198543492383986</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1613487322266313</v>
+        <v>0.08315370656551618</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09886501411807658</v>
+        <v>0.1285841303843294</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1623420418894791</v>
+        <v>0.08328848573842886</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02018937168197291</v>
+        <v>0.01911713748422911</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1622967805816869</v>
+        <v>0.05134071406614044</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02767638954764419</v>
+        <v>0.03523128820325321</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08585769676706993</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06526604328188806</v>
+        <v>0.08202589387622852</v>
       </c>
       <c r="M164" t="n">
-        <v>0.162995147861597</v>
+        <v>0.08400221377536839</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1015544508155532</v>
+        <v>0.1278911546738737</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1639985933373309</v>
+        <v>0.08413836824596385</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02044663358480239</v>
+        <v>0.01911713748422911</v>
       </c>
       <c r="G165" t="n">
-        <v>0.163936142001704</v>
+        <v>0.05134071406614044</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02815447321418538</v>
+        <v>0.03540635725691033</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08672494622936357</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06552681003927674</v>
+        <v>0.0819641280503092</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1646415634965626</v>
+        <v>0.0848507209852206</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1020423977675198</v>
+        <v>0.1290946242168729</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1656551447851827</v>
+        <v>0.08498825075349883</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01868124231163141</v>
+        <v>0.01867324231166646</v>
       </c>
       <c r="G166" t="n">
-        <v>0.165575503421721</v>
+        <v>0.05134044553767642</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02851294744742541</v>
+        <v>0.03518031471081152</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.0875921956916572</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06642854399858636</v>
+        <v>0.08220034348303254</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1662879791315282</v>
+        <v>0.08569922819507281</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1034713854505498</v>
+        <v>0.1289948638759653</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1673116962330345</v>
+        <v>0.08583813326103382</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01988361219456941</v>
+        <v>0.01823448947748597</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1672148648417381</v>
+        <v>0.0513401770092124</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02903613516791125</v>
+        <v>0.03545325536511736</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.08845944515395084</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06723528706582624</v>
+        <v>0.08213474621134931</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1679343947664939</v>
+        <v>0.086547735404925</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1052839443412165</v>
+        <v>0.1283921985137891</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1689682476808864</v>
+        <v>0.08668801576856881</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02107192000779188</v>
+        <v>0.01780141783897697</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1688542262617551</v>
+        <v>0.05133990848074838</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02921447802404885</v>
+        <v>0.03542527401998839</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08932669461624448</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06795810069112374</v>
+        <v>0.08206754227221022</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1695808104014595</v>
+        <v>0.08739624261477721</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1052290649790691</v>
+        <v>0.1279869529929828</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1706247991287382</v>
+        <v>0.08753789827610381</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02025558787624062</v>
+        <v>0.01737456625339092</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1704935876817721</v>
+        <v>0.05133963995228436</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02927901755185955</v>
+        <v>0.03519646547558519</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.0901939440785381</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06866390131696892</v>
+        <v>0.08189893770256607</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1712272260364251</v>
+        <v>0.08824474982462942</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1064998064158062</v>
+        <v>0.1284794521761849</v>
       </c>
       <c r="O169" t="n">
-        <v>0.17228135057659</v>
+        <v>0.08838778078363879</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02143496216371869</v>
+        <v>0.01695447357801666</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1721329491017892</v>
+        <v>0.05133937142382035</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02953705728748685</v>
+        <v>0.03526692453206831</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.09106119354083175</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06885515793618252</v>
+        <v>0.08112913853936748</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1728736416713907</v>
+        <v>0.08909325703448162</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1071463856067942</v>
+        <v>0.1274700209260335</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1739379020244419</v>
+        <v>0.08923766329117377</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01961038923402916</v>
+        <v>0.01654167867010618</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1737723105218062</v>
+        <v>0.05133910289535633</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02978909455507558</v>
+        <v>0.03503674598959833</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.09192844300312539</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06943301124773191</v>
+        <v>0.08135835081956522</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1745200573063563</v>
+        <v>0.08994176424433382</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1086706256582871</v>
+        <v>0.1278589841051671</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1755944534722937</v>
+        <v>0.09008754579870876</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01978221545097509</v>
+        <v>0.01613672038694771</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1754116719418233</v>
+        <v>0.05133883436689231</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0302356266787706</v>
+        <v>0.03530602464833579</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.09279569246541902</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06999860195058463</v>
+        <v>0.08128678058011005</v>
       </c>
       <c r="M172" t="n">
-        <v>0.176166472941322</v>
+        <v>0.09079027145418604</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1099743496765385</v>
+        <v>0.1276466665762239</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1772510049201455</v>
+        <v>0.09093742830624375</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02195078717835953</v>
+        <v>0.01574013758579391</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1770510333618403</v>
+        <v>0.05133856583842829</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03047715098271685</v>
+        <v>0.03497485530844127</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.09366294192771266</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07085307074370803</v>
+        <v>0.08131463385795265</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1778128885762876</v>
+        <v>0.09163877866403825</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1103593807678028</v>
+        <v>0.1276333932018423</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1789075563679974</v>
+        <v>0.09178731081377874</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02011645077998553</v>
+        <v>0.01535246912393232</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1786903947818573</v>
+        <v>0.05133829730996428</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03081416479105911</v>
+        <v>0.0352433327700753</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09453019139000629</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07149755832606972</v>
+        <v>0.08134211669004379</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1794593042112532</v>
+        <v>0.09248728587389045</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1108275420383337</v>
+        <v>0.1268194888446607</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1805641078158492</v>
+        <v>0.09263719332131373</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02127955261965619</v>
+        <v>0.01497425385861634</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1803297562018744</v>
+        <v>0.05133802878150026</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03104716542794232</v>
+        <v>0.03511155183339848</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09539744085229993</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07193320539663711</v>
+        <v>0.08136292657781213</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1811057198462188</v>
+        <v>0.09333579308374267</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1123806565943852</v>
+        <v>0.1267983350527964</v>
       </c>
       <c r="O175" t="n">
-        <v>0.182220659263701</v>
+        <v>0.09348707582884873</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02244043906117452</v>
+        <v>0.01460603064713268</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1819691176218914</v>
+        <v>0.05133776025303625</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03117665021751131</v>
+        <v>0.03497960729857137</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09626469031459357</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07256115265437763</v>
+        <v>0.08136549926319356</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1827521354811845</v>
+        <v>0.09418430029359487</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1133205475422111</v>
+        <v>0.1267492010867841</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1838772107115528</v>
+        <v>0.09433695833638371</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0225994564683436</v>
+        <v>0.01424833834673564</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1836084790419084</v>
+        <v>0.05133749172457223</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03130311648391096</v>
+        <v>0.03504423185494571</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09713193977688719</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07298254079825878</v>
+        <v>0.08085162325454937</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1843985511161501</v>
+        <v>0.09503280750344707</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1142490379880653</v>
+        <v>0.1272736928969755</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1855337621594046</v>
+        <v>0.09518684084391869</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0227569531002968</v>
+        <v>0.01390171581471102</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1852478404619255</v>
+        <v>0.05133722319610821</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03162706155128613</v>
+        <v>0.03500063703306126</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.09799918923918083</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07329851052724801</v>
+        <v>0.0811234417045115</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1860449667511157</v>
+        <v>0.09588131471329926</v>
       </c>
       <c r="N178" t="n">
-        <v>0.115367951038202</v>
+        <v>0.1273751896355853</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1871903136072565</v>
+        <v>0.09603672335145368</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0229201386170126</v>
+        <v>0.01356670190831401</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1868872018819425</v>
+        <v>0.05133695466764419</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03165002393588771</v>
+        <v>0.03504973437448822</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.09886643870147448</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07431987386635991</v>
+        <v>0.08048309776571169</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1876913823860814</v>
+        <v>0.09672982192315148</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1160797091789754</v>
+        <v>0.1271570704548281</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1888468650551083</v>
+        <v>0.09688660585898867</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02309154788743004</v>
+        <v>0.01324383548482949</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1885265633019596</v>
+        <v>0.05133668613918017</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03218496301012708</v>
+        <v>0.03479250997037621</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.0997336881637681</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07477203557687628</v>
+        <v>0.08033273459078175</v>
       </c>
       <c r="M180" t="n">
-        <v>0.189337798021047</v>
+        <v>0.09757832913300368</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1163272638848685</v>
+        <v>0.1266227145069187</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1905034165029601</v>
+        <v>0.09773648836652367</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02326523099230417</v>
+        <v>0.01293365540151366</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1901659247219766</v>
+        <v>0.05133641761071615</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03212899026572287</v>
+        <v>0.03492994991187481</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.1006009376260617</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07523870616527417</v>
+        <v>0.08077449533235351</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1909842136560126</v>
+        <v>0.09842683634285589</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1178139615256197</v>
+        <v>0.1260755009440718</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1921599679508119</v>
+        <v>0.09858637087405865</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02243523801239007</v>
+        <v>0.01263670051565031</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1918052861419937</v>
+        <v>0.05133614908225214</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03267356255101085</v>
+        <v>0.03486304029013368</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.1014681870883554</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07540029043517554</v>
+        <v>0.08041052314305874</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1926306292909782</v>
+        <v>0.0992753435527081</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1183084843512505</v>
+        <v>0.1255188089185019</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1938165193986638</v>
+        <v>0.09943625338159363</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02159561902844283</v>
+        <v>0.01235350968450279</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1934446475620107</v>
+        <v>0.05133588055378813</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0326101367143269</v>
+        <v>0.03449276719630241</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.102335436550649</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07653719319020233</v>
+        <v>0.08024296117552931</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1942770449259439</v>
+        <v>0.1001238507625603</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1196795146117826</v>
+        <v>0.1250560175824239</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1954730708465156</v>
+        <v>0.1002861358891286</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02374042412121752</v>
+        <v>0.01208462176533569</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1950840089820277</v>
+        <v>0.05133561202532411</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03283016960400685</v>
+        <v>0.03462011672153061</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.1032026860129426</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07702981923397662</v>
+        <v>0.07967395258239704</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1959234605609095</v>
+        <v>0.1009723579724125</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1196957345572376</v>
+        <v>0.1248905060880525</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1971296222943674</v>
+        <v>0.1011360183966636</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02186370337146921</v>
+        <v>0.01183057561543094</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1967233704020448</v>
+        <v>0.05133534349686009</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03332511806838649</v>
+        <v>0.0345460749569679</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1040699354752363</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07725857337012026</v>
+        <v>0.07980564051629369</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1975698761958751</v>
+        <v>0.1018208651822647</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1205258264376374</v>
+        <v>0.1249256535876022</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1987861737422193</v>
+        <v>0.1019859009041986</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02395950685995303</v>
+        <v>0.01159191009204778</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1983627318220618</v>
+        <v>0.05133507496839607</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03318643895580167</v>
+        <v>0.03457162799376391</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1049371849375299</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07730386040225531</v>
+        <v>0.07974016812985105</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1992162918308407</v>
+        <v>0.1026693723921169</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1216384725030033</v>
+        <v>0.1245648392332879</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2004427251900711</v>
+        <v>0.1028357834117336</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02302694975066047</v>
+        <v>0.01136916405246689</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2000020932420788</v>
+        <v>0.05133480643993206</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03330558911458825</v>
+        <v>0.03449776192306823</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1058044343998236</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07754837218647886</v>
+        <v>0.07947967857570098</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2008627074658063</v>
+        <v>0.1035178796019691</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1213023550033571</v>
+        <v>0.1239114421773241</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2020992766379229</v>
+        <v>0.1036856659192686</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02408930126580432</v>
+        <v>0.01116287635394882</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2016414546620959</v>
+        <v>0.05133453791146804</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03359512517769442</v>
+        <v>0.0344254628360305</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1066716838621172</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07795343139051902</v>
+        <v>0.07942631500647526</v>
       </c>
       <c r="M188" t="n">
-        <v>0.202509123100772</v>
+        <v>0.1043663868118213</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1226360861907603</v>
+        <v>0.1243688415719257</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2037558280857747</v>
+        <v>0.1045355484268036</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02215027111660532</v>
+        <v>0.01097358585377284</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2032808160821129</v>
+        <v>0.05133426938300403</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03368246152974577</v>
+        <v>0.03425571682380031</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1075389333244108</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07845398326164379</v>
+        <v>0.07928222057480572</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2041555387357376</v>
+        <v>0.1052148940216735</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1223560266039223</v>
+        <v>0.1246404165693072</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2054123795336266</v>
+        <v>0.1053854309343386</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02320983740655555</v>
+        <v>0.01079963107534742</v>
       </c>
       <c r="G190" t="n">
-        <v>0.20492017750213</v>
+        <v>0.05133400085454001</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03376781823849809</v>
+        <v>0.03418950997752732</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1084061827867045</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07814995568687899</v>
+        <v>0.07924953843332419</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2058019543707033</v>
+        <v>0.1060634012315257</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1224687456532976</v>
+        <v>0.1241295463216835</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2070689309814784</v>
+        <v>0.1062353134418735</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02326797823914702</v>
+        <v>0.01062834887282885</v>
       </c>
       <c r="G191" t="n">
-        <v>0.206559538922147</v>
+        <v>0.05133373232607599</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0338511638639972</v>
+        <v>0.03392782838836109</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1092734322489981</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0781412765532504</v>
+        <v>0.07903041173466241</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2074483700056688</v>
+        <v>0.1069119084413779</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1222741280853288</v>
+        <v>0.1230396099812691</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2087254824293302</v>
+        <v>0.1070851959494085</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02232467171787182</v>
+        <v>0.0104580777696262</v>
       </c>
       <c r="G192" t="n">
-        <v>0.208198900342164</v>
+        <v>0.05133346379761197</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03383246696628893</v>
+        <v>0.03387165814745124</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1101406817112917</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07882787374778374</v>
+        <v>0.07872698363145222</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2090947856406345</v>
+        <v>0.1077604156512302</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1227720586464579</v>
+        <v>0.1234739867002789</v>
       </c>
       <c r="O192" t="n">
-        <v>0.210382033877182</v>
+        <v>0.1079350784569435</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.023379895946222</v>
+        <v>0.01028935662301714</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2098382617621811</v>
+        <v>0.05133319526914795</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03381169610541915</v>
+        <v>0.03402198534594741</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1110079311735854</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07840967515750474</v>
+        <v>0.07884139727632544</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2107412012756001</v>
+        <v>0.1086089228610824</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1239624220831272</v>
+        <v>0.1234360556309273</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2120385853250339</v>
+        <v>0.1087849609644785</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02443362902768959</v>
+        <v>0.01012272429026462</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2114776231821981</v>
+        <v>0.05133292674068393</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03418881984143367</v>
+        <v>0.03407979607499922</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.111875180635879</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07908660866943923</v>
+        <v>0.07847142817372596</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2123876169105658</v>
+        <v>0.1094574300709346</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1242451031417789</v>
+        <v>0.1227244614020775</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2136951367728857</v>
+        <v>0.1096348434720135</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02348584906576666</v>
+        <v>0.009958719628646161</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2131169846022152</v>
+        <v>0.05133265821221992</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03416380673437835</v>
+        <v>0.0339459800362993</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.1127424300981726</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07915860217061296</v>
+        <v>0.07860459846336706</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2140340325455314</v>
+        <v>0.1103059372807868</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1238199865688553</v>
+        <v>0.1229190453491532</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2153516882207376</v>
+        <v>0.1104847259795485</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02253653416394526</v>
+        <v>0.009797881495424904</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2147563460222322</v>
+        <v>0.0513323896837559</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03433662534429906</v>
+        <v>0.03381605093054801</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1136096795604663</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0795255835480517</v>
+        <v>0.07843990536789369</v>
       </c>
       <c r="M196" t="n">
-        <v>0.215680448180497</v>
+        <v>0.111154444490639</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1237869571107989</v>
+        <v>0.123217004779092</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2170082396685894</v>
+        <v>0.1113346084870835</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02258566242571744</v>
+        <v>0.009640748747878111</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2163957074422493</v>
+        <v>0.05133212115529188</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0341072442312416</v>
+        <v>0.03378709918235159</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1144769290227599</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07978748068878125</v>
+        <v>0.07837728021235338</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2173268638154626</v>
+        <v>0.1120029517004912</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1250458995140515</v>
+        <v>0.1226182314107036</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2186647911164412</v>
+        <v>0.1121844909946185</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02363321195457528</v>
+        <v>0.009487860243272521</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2180350688622663</v>
+        <v>0.05133185262682787</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03447563195525183</v>
+        <v>0.03375909319351122</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1153441784850536</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07964422147982725</v>
+        <v>0.07791665432179357</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2189732794504283</v>
+        <v>0.1128514589103434</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1253966985250557</v>
+        <v>0.1229226169627978</v>
       </c>
       <c r="O198" t="n">
-        <v>0.220321342564293</v>
+        <v>0.1130343735021535</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02467916085401078</v>
+        <v>0.009339754838875204</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2196744302822833</v>
+        <v>0.05133158409836385</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03424175707637557</v>
+        <v>0.03383200136582815</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1162114279473472</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07999573380821556</v>
+        <v>0.07855795902126167</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2206196950853939</v>
+        <v>0.1136999661201956</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1252392388902537</v>
+        <v>0.1226300531541841</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2219778940121448</v>
+        <v>0.1138842560096884</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02472348722751605</v>
+        <v>0.009196971391962891</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2213137917023004</v>
+        <v>0.05133131556989984</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03440558815465868</v>
+        <v>0.03380579210110356</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.1170786774096408</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08024194556097197</v>
+        <v>0.07800112563580516</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2222661107203595</v>
+        <v>0.1145484733300478</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1249734053560876</v>
+        <v>0.1232404317036724</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2236344454599966</v>
+        <v>0.1147341385172234</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0247661691785831</v>
+        <v>0.009060048759799641</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2229531531223174</v>
+        <v>0.05133104704143582</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03446709375014702</v>
+        <v>0.03388043380113863</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1179459268719345</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08028278462512217</v>
+        <v>0.07804608549047146</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2239125263553251</v>
+        <v>0.1153969805399</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1248990826689999</v>
+        <v>0.1226536443300721</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2252909969078485</v>
+        <v>0.1155840210247584</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.022807184810704</v>
+        <v>0.008929525799661678</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2245925145423345</v>
+        <v>0.0513307785129718</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0344262424228864</v>
+        <v>0.03355589486773461</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1188131763342281</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08041817888769198</v>
+        <v>0.07779276991030804</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2255589419902907</v>
+        <v>0.1162454877497522</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1257161555754326</v>
+        <v>0.1218695827521932</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2269475483557003</v>
+        <v>0.1164339035322934</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0238465122273708</v>
+        <v>0.008805941368813609</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2262318759623515</v>
+        <v>0.05133050998450778</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03458300273292267</v>
+        <v>0.03353214370269264</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1196804257965217</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07994805623570719</v>
+        <v>0.07794111022036235</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2272053576252564</v>
+        <v>0.1170939949596044</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1257245088218281</v>
+        <v>0.1222881386888451</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2286040998035521</v>
+        <v>0.1172837860398284</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02388412953207557</v>
+        <v>0.008689834324531083</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2278712373823686</v>
+        <v>0.05133024145604376</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03463734324030168</v>
+        <v>0.03370914870781398</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1205476752588154</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08067234455619346</v>
+        <v>0.07779103774568186</v>
       </c>
       <c r="M204" t="n">
-        <v>0.228851773260222</v>
+        <v>0.1179425021694566</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1262240271546287</v>
+        <v>0.1228092038588377</v>
       </c>
       <c r="O204" t="n">
-        <v>0.230260651251404</v>
+        <v>0.1181336685473634</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02392001482831035</v>
+        <v>0.008581743524079324</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2295105988023856</v>
+        <v>0.05132997292757974</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03458923250506929</v>
+        <v>0.03368687828489983</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.121414924721109</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08089097173617663</v>
+        <v>0.07754248381131398</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2304981888951876</v>
+        <v>0.1187910093793088</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1261145953202765</v>
+        <v>0.1226326699809805</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2319172026992558</v>
+        <v>0.1189835510548984</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02495414621956721</v>
+        <v>0.008482207824733315</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2311499602224026</v>
+        <v>0.05132970439911573</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03473863908727129</v>
+        <v>0.03356530083575135</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1222821741834026</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08050386566268244</v>
+        <v>0.07759537974230613</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2321446045301532</v>
+        <v>0.119639516589161</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1263960980652137</v>
+        <v>0.1224584287740833</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2335737541471076</v>
+        <v>0.1198334335624334</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02398650180933815</v>
+        <v>0.008391766083759002</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2327893216424196</v>
+        <v>0.05132943587065171</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03488553154695356</v>
+        <v>0.03344438476216981</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1231494236456963</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0804109542227367</v>
+        <v>0.07774965686370583</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2337910201651189</v>
+        <v>0.1204880237990132</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1271684201358829</v>
+        <v>0.1220863719569558</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2352303055949595</v>
+        <v>0.1206833160699683</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02301705970111528</v>
+        <v>0.008310957158430575</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2344286830624367</v>
+        <v>0.0513291673421877</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03472987844416196</v>
+        <v>0.03342409846595633</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1240166731079899</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08071216530336517</v>
+        <v>0.0781052465005605</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2354374358000845</v>
+        <v>0.1213365310088654</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1271314462787261</v>
+        <v>0.1220163912484075</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2368868570428113</v>
+        <v>0.1215331985775033</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02304579799839063</v>
+        <v>0.008240319906014808</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2360680444824537</v>
+        <v>0.05132889881372368</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03487164833894228</v>
+        <v>0.03350441034891216</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1248839225702835</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08080742679159353</v>
+        <v>0.07746207997791754</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2370838514350501</v>
+        <v>0.1221850382187177</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1276850612401855</v>
+        <v>0.1215483783672482</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2385434084906631</v>
+        <v>0.1223830810850383</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02507269480465626</v>
+        <v>0.008180393183785065</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2377074059024707</v>
+        <v>0.05132863028525966</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0349108097913404</v>
+        <v>0.03338528881283852</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1257511720325772</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08129666657444759</v>
+        <v>0.0779200886208245</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2387302670700157</v>
+        <v>0.1230335454285699</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1267291497667036</v>
+        <v>0.1213822250322877</v>
       </c>
       <c r="O210" t="n">
-        <v>0.240199959938515</v>
+        <v>0.1232329635925733</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02409772822340422</v>
+        <v>0.008131715849008993</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2393467673224878</v>
+        <v>0.05132836175679564</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03494733136140214</v>
+        <v>0.03366670225953658</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1266184214948708</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08117981253895315</v>
+        <v>0.07777920375432876</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2403766827049814</v>
+        <v>0.1238820526384221</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1274635966047223</v>
+        <v>0.1215178229623353</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2418565113863668</v>
+        <v>0.1240828461001083</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02512087635812656</v>
+        <v>0.008094826758958992</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2409861287425048</v>
+        <v>0.05132809322833163</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03498118160917338</v>
+        <v>0.03364861909080757</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1274856709571645</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08085679257213599</v>
+        <v>0.07803935670347772</v>
       </c>
       <c r="M212" t="n">
-        <v>0.242023098339947</v>
+        <v>0.1247305598482743</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1267882865006842</v>
+        <v>0.1214550638762013</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2435130628342186</v>
+        <v>0.1249327286076433</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02514211731231535</v>
+        <v>0.00807026477090373</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2426254901625219</v>
+        <v>0.05132782469986761</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03501232909469992</v>
+        <v>0.03333100770845267</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1283529204194581</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08092753456102184</v>
+        <v>0.07750047879331892</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2436695139749126</v>
+        <v>0.1255790670581265</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1274031042010314</v>
+        <v>0.1214938394926947</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2451696142820704</v>
+        <v>0.1257826111151783</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02416142918946261</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2442648515825389</v>
+        <v>0.05132755617140359</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03514074237802763</v>
+        <v>0.03361383651427309</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1292201698817517</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08109196639263644</v>
+        <v>0.07716250134889976</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2453159296098782</v>
+        <v>0.1264275742679787</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1276079344522063</v>
+        <v>0.1215340415306256</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2468261657299222</v>
+        <v>0.1266324936227133</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02417879009306043</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G215" t="n">
-        <v>0.245904213002556</v>
+        <v>0.05132755617140359</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03516639001920231</v>
+        <v>0.03349707391007004</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1300874193440454</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08125001595400558</v>
+        <v>0.07752535569526772</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2469623452448439</v>
+        <v>0.1272760814778309</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1277026620006508</v>
+        <v>0.1217755617088037</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2484827171777741</v>
+        <v>0.1274823761302483</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02519417812660084</v>
+        <v>0.007805828159462222</v>
       </c>
       <c r="G216" t="n">
-        <v>0.247543574422573</v>
+        <v>0.05129797024553289</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03498924057826985</v>
+        <v>0.03358068829764471</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.130954668806339</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08120161113215502</v>
+        <v>0.07738897315747023</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2486087608798095</v>
+        <v>0.1281245886876831</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1283871715928075</v>
+        <v>0.1214182917460384</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2501392686256259</v>
+        <v>0.1283322586377832</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02420757139357591</v>
+        <v>0.007556444233768812</v>
       </c>
       <c r="G217" t="n">
-        <v>0.24918293584259</v>
+        <v>0.05126838431966219</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03530926261527607</v>
+        <v>0.03356464807879833</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1318219182686326</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08174667981411049</v>
+        <v>0.07735328506055472</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2502551765147751</v>
+        <v>0.1289730958975353</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1282613479751185</v>
+        <v>0.1220621233611396</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2517958200734777</v>
+        <v>0.1291821411453182</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02521894799747768</v>
+        <v>0.007311040902762737</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2508222972626071</v>
+        <v>0.05123879839379148</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03512642469026682</v>
+        <v>0.03354892165533206</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1326891677309263</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08128514988689786</v>
+        <v>0.07701822272956868</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2519015921497408</v>
+        <v>0.1298216031073875</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1284250758940261</v>
+        <v>0.1212069482729169</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2534523715213295</v>
+        <v>0.1300320236528532</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02522828604179821</v>
+        <v>0.007070242104172425</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2524616586826241</v>
+        <v>0.05120921246792078</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03524069536328793</v>
+        <v>0.03353347742904716</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1335564171932199</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08171694923754283</v>
+        <v>0.07768371748955955</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2535480077847064</v>
+        <v>0.1306701103172397</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1274782400959726</v>
+        <v>0.12195265820018</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2551089229691814</v>
+        <v>0.1308819061603882</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02323556363002952</v>
+        <v>0.006834671775726241</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2541010201026412</v>
+        <v>0.05117962654205007</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03515204319438525</v>
+        <v>0.03341828380174479</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1344236666555135</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08184200575307113</v>
+        <v>0.07714970066557469</v>
       </c>
       <c r="M220" t="n">
-        <v>0.255194423419672</v>
+        <v>0.1315186175270919</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1274207253274001</v>
+        <v>0.1207991448617385</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2567654744170332</v>
+        <v>0.1317317886679232</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02424075886566371</v>
+        <v>0.006604953855152695</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2557403815226582</v>
+        <v>0.05115004061617937</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03536043674360463</v>
+        <v>0.03340330917522615</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1352909161178072</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08166024732050858</v>
+        <v>0.07771610358266162</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2568408390546376</v>
+        <v>0.1323671247369441</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1281524163347511</v>
+        <v>0.1213462999764023</v>
       </c>
       <c r="O221" t="n">
-        <v>0.258422025864885</v>
+        <v>0.1325816711754582</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02524384985219284</v>
+        <v>0.006381712280180168</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2573797429426752</v>
+        <v>0.05112045469030866</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0352658445709919</v>
+        <v>0.03338852195129248</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1361581655801008</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08137160182688091</v>
+        <v>0.07758285756586786</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2584872546896033</v>
+        <v>0.1332156319467963</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1276731978644677</v>
+        <v>0.1208940152629808</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2600785773127369</v>
+        <v>0.1334315536829932</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02424473538827421</v>
+        <v>0.006165570988537067</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2590191043626923</v>
+        <v>0.05109086876443796</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03516823523659289</v>
+        <v>0.03327389053174494</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1370254150423944</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08177599715921391</v>
+        <v>0.07694989394024071</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2601336703245689</v>
+        <v>0.1340641391566486</v>
       </c>
       <c r="N223" t="n">
-        <v>0.128582954662992</v>
+        <v>0.120842182440284</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2617351287605887</v>
+        <v>0.1342814361905282</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02420874030544903</v>
+        <v>0.005957153917951832</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2606584657827093</v>
+        <v>0.05106128283856726</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03504425690377942</v>
+        <v>0.03335938331838477</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1378926645046881</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08149359951563642</v>
+        <v>0.07701714403082774</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2617800859595345</v>
+        <v>0.1349126463665008</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1282164797401173</v>
+        <v>0.1206906932271213</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2633916802084405</v>
+        <v>0.1351313186980632</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02411196660853687</v>
+        <v>0.005757085006152851</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2622978272027264</v>
+        <v>0.05103169691269655</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0351343818775488</v>
+        <v>0.03344496871301317</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1387599139669817</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08110978151675105</v>
+        <v>0.07678453916267633</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2634265015945002</v>
+        <v>0.1357611535763529</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1270431527392666</v>
+        <v>0.1206394393423024</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2650482316562924</v>
+        <v>0.1359812012055981</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02396124038899011</v>
+        <v>0.005565988190868572</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2639371886227434</v>
+        <v>0.05100211098682585</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0349445549862749</v>
+        <v>0.0331306151174313</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1396271634292753</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08074528350410839</v>
+        <v>0.07735201066083394</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2650729172294658</v>
+        <v>0.1366096607862052</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1273742495598361</v>
+        <v>0.1206883125046371</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2667047831041442</v>
+        <v>0.1368310837131331</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0237633877382611</v>
+        <v>0.005384487409827395</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2655765500427605</v>
+        <v>0.05097252506095515</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03468457742761281</v>
+        <v>0.03341629093344042</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.140494412891569</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08002258622021918</v>
+        <v>0.07711948985034803</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2667193328644314</v>
+        <v>0.1374581679960574</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1256456997357632</v>
+        <v>0.121537204432935</v>
       </c>
       <c r="O227" t="n">
-        <v>0.268361334551996</v>
+        <v>0.1376809662206681</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02452523474780229</v>
+        <v>0.005213206600757719</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2672159114627775</v>
+        <v>0.05094293913508444</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03446425039921762</v>
+        <v>0.0334019645628417</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1413616623538626</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0792641704075939</v>
+        <v>0.07698690805626604</v>
       </c>
       <c r="M228" t="n">
-        <v>0.268365748499397</v>
+        <v>0.1383066752059096</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1244934328009853</v>
+        <v>0.1210860068460059</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2700178859998478</v>
+        <v>0.1385308487282031</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02325360750906603</v>
+        <v>0.005052769701388016</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2688552728827945</v>
+        <v>0.05091335320921373</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03409337509874438</v>
+        <v>0.03328760440743635</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1422289118161562</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07829251680874319</v>
+        <v>0.07695419660363545</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2700121641343626</v>
+        <v>0.1391551824157618</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1240533782894401</v>
+        <v>0.1211346114626593</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2716744374476996</v>
+        <v>0.1393807312357381</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02295533211350471</v>
+        <v>0.004903800649446677</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2704946343028116</v>
+        <v>0.05088376728334303</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03338175272384823</v>
+        <v>0.03317317886902556</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1430961612784499</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07803010616617773</v>
+        <v>0.07672128681750365</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2716585797693283</v>
+        <v>0.140003689625614</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1217614657350646</v>
+        <v>0.1203829100017051</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2733309888955515</v>
+        <v>0.1402306137432731</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02163723465257077</v>
+        <v>0.00476692338266213</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2721339957228286</v>
+        <v>0.05085418135747233</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03303918447218422</v>
+        <v>0.03315865634941056</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1439634107407435</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07639941922240809</v>
+        <v>0.07738811002291815</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2733049954042939</v>
+        <v>0.1408521968354662</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1208536246717966</v>
+        <v>0.1210307941819527</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2749875403434033</v>
+        <v>0.1410804962508081</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02230614121771657</v>
+        <v>0.004642761838762784</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2737733571428456</v>
+        <v>0.05082459543160162</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03267547154140747</v>
+        <v>0.03314400525039254</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1448306602030371</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07562293671994486</v>
+        <v>0.07735459754492635</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2749514110392595</v>
+        <v>0.1417007040453184</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1190657846335735</v>
+        <v>0.120978155722212</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2766440917912552</v>
+        <v>0.1419303787583431</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02296887790039448</v>
+        <v>0.00453193995547705</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2754127185628626</v>
+        <v>0.05079500950573092</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03220041512917306</v>
+        <v>0.03322919397612559</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1456979096653308</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07422313940129865</v>
+        <v>0.07682085442977576</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2765978266742252</v>
+        <v>0.1425492112551706</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1176338751543327</v>
+        <v>0.1210251201979045</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2783006432391069</v>
+        <v>0.142780261265878</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02163227079205693</v>
+        <v>0.004435081670533365</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2770520799828797</v>
+        <v>0.05076542357986022</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03162381643313605</v>
+        <v>0.03321435899179548</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1465651591276244</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07352250800898016</v>
+        <v>0.07708737087342277</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2782442423091908</v>
+        <v>0.1433977184650228</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1151938257680115</v>
+        <v>0.120172473672433</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2799571946869588</v>
+        <v>0.143630143773413</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02030314598415631</v>
+        <v>0.004352810921660136</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2786914414028968</v>
+        <v>0.05073583765398951</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03115547665095156</v>
+        <v>0.03329965720057923</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.147432408589918</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0720435232854999</v>
+        <v>0.07665418713995126</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2798906579441564</v>
+        <v>0.144246225674875</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1141815660085476</v>
+        <v>0.1201202986626054</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2816137461348106</v>
+        <v>0.144480026280948</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.021988329568145</v>
+        <v>0.004285751646585782</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2803308028229138</v>
+        <v>0.0507062517281188</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03070519698027467</v>
+        <v>0.03308509134460082</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1482996580522117</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07120866597336847</v>
+        <v>0.07682130918904367</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2815370735791221</v>
+        <v>0.1450947328847272</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1116330254098782</v>
+        <v>0.1206686045651739</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2832702975826624</v>
+        <v>0.145329908788483</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01969464763547538</v>
+        <v>0.004234527783038726</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2819701642429308</v>
+        <v>0.0506766658022481</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03038277861876046</v>
+        <v>0.0332706641659842</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1491669075145053</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07064041681509661</v>
+        <v>0.07648874298038255</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2831834892140876</v>
+        <v>0.1459432400945794</v>
       </c>
       <c r="N237" t="n">
-        <v>0.110384133505941</v>
+        <v>0.1207174007768909</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2849268490305143</v>
+        <v>0.146179791296018</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02042541682358942</v>
+        <v>0.004199763268747388</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2836095256629479</v>
+        <v>0.0506470798763774</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03009665254824752</v>
+        <v>0.03325637840685335</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.150034156976799</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06955480442233303</v>
+        <v>0.07635649447365045</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2848299048490532</v>
+        <v>0.1467917473044316</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1092679714443408</v>
+        <v>0.1198666966945086</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2865834004783661</v>
+        <v>0.147029673803553</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01915983292446798</v>
+        <v>0.004182082041440188</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2852488870829649</v>
+        <v>0.05061749395050669</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02942180423444625</v>
+        <v>0.0329422368093322</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1509014064390926</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06828798084699181</v>
+        <v>0.07662456962852979</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2864763204840189</v>
+        <v>0.1476402545142838</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1083002977334936</v>
+        <v>0.1210165017147792</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2882399519262179</v>
+        <v>0.147879556311088</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02089323684236009</v>
+        <v>0.004179849612168302</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2868882485029819</v>
+        <v>0.050587908024636</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0292455191637712</v>
+        <v>0.03312824211554467</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1517686559013862</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06721784378100701</v>
+        <v>0.07659297440470311</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2881227361189845</v>
+        <v>0.1484887617241361</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1056273737051458</v>
+        <v>0.1200668252344549</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2898965033740697</v>
+        <v>0.148729438818623</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01962561240600199</v>
+        <v>0.004180030863953993</v>
       </c>
       <c r="G241" t="n">
-        <v>0.288527609922999</v>
+        <v>0.05055832209876529</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02876777411682162</v>
+        <v>0.03301439706761479</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1526359053636799</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06674433996666587</v>
+        <v>0.07656171476185292</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2897691517539501</v>
+        <v>0.1493372689339882</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1043491142408992</v>
+        <v>0.1209176766502883</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2915530548219216</v>
+        <v>0.1495793213261579</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01835694344412985</v>
+        <v>0.004180714043761621</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2901669713430161</v>
+        <v>0.05052873617289459</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02828854587419685</v>
+        <v>0.03300070440766646</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1535031548259735</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06606741614625575</v>
+        <v>0.07703079665966175</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2914155673889158</v>
+        <v>0.1501857761438405</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1040654342223554</v>
+        <v>0.1198690653590313</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2932096062697734</v>
+        <v>0.1504292038336929</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02008721378547993</v>
+        <v>0.004182233770272464</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2918063327630331</v>
+        <v>0.05049915024702388</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02790781121649616</v>
+        <v>0.03288716687782371</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1543704042882671</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06488701906206396</v>
+        <v>0.07650022605781207</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2930619830238814</v>
+        <v>0.1510342833536927</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1017762485311161</v>
+        <v>0.1196210007574364</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2948661577176253</v>
+        <v>0.1512790863412279</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0188164072587884</v>
+        <v>0.004184924662167799</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2934456941830501</v>
+        <v>0.05046956432115317</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02752554692431881</v>
+        <v>0.03287378722021042</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1552376537505608</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06420309545637787</v>
+        <v>0.0762700089159864</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2947083986588471</v>
+        <v>0.1518827905635449</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1008814720487832</v>
+        <v>0.1205734922422557</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2965227091654771</v>
+        <v>0.1521289688487629</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01754450769279152</v>
+        <v>0.004189121338128932</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2950850556030671</v>
+        <v>0.05043997839528247</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02724172977826415</v>
+        <v>0.03296056817695055</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.1561049032128544</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06281559207148479</v>
+        <v>0.07664015119386725</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2963548142938127</v>
+        <v>0.1527312977733971</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09948101965695821</v>
+        <v>0.1204265492102415</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2981792606133289</v>
+        <v>0.1529788513562979</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01727149891622546</v>
+        <v>0.004195158416837132</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2967244170230842</v>
+        <v>0.05041039246941176</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02675633655893143</v>
+        <v>0.03284751249016811</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1569721526751481</v>
       </c>
       <c r="L246" t="n">
-        <v>0.062724455649672</v>
+        <v>0.07651065885113711</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2980012299287783</v>
+        <v>0.1535798049832493</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09787480623724293</v>
+        <v>0.1199801810581462</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2998358120611807</v>
+        <v>0.1538287338638329</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01899736475782646</v>
+        <v>0.004203370516973684</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2983637784431012</v>
+        <v>0.05038080654354107</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02656934404691996</v>
+        <v>0.03293462290198701</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1578394021374417</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06162963293322685</v>
+        <v>0.07668153784747853</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2996476455637439</v>
+        <v>0.1544283121931015</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09616274667123897</v>
+        <v>0.1198343971827218</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3014923635090325</v>
+        <v>0.1546786163713679</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01772208904633073</v>
+        <v>0.004214092257219887</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3000031398631183</v>
+        <v>0.05035122061767036</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02628072902282905</v>
+        <v>0.03292190215453122</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1587066515997353</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0609310706644367</v>
+        <v>0.07625279414257399</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3012940611987096</v>
+        <v>0.1552768194029537</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09484475584054819</v>
+        <v>0.1203892069807208</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3031489149568843</v>
+        <v>0.1555284988789029</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01744565561047448</v>
+        <v>0.004227658256257025</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3016425012831354</v>
+        <v>0.05032163469179966</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02559046826725797</v>
+        <v>0.03280935298992474</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.159573901062029</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05982871558558892</v>
+        <v>0.07622443369610599</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3029404768336751</v>
+        <v>0.1561253266128059</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09392074862677219</v>
+        <v>0.1201446198488954</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3048054664047362</v>
+        <v>0.1563783813864379</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01616804827899392</v>
+        <v>0.004244403132766368</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3032818627031524</v>
+        <v>0.05029204876592895</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02529853856080599</v>
+        <v>0.03309697815029145</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1604411505243226</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05892251443897076</v>
+        <v>0.076096462467757</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3045868924686408</v>
+        <v>0.1569738338226581</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09239063991151286</v>
+        <v>0.1202006451839978</v>
       </c>
       <c r="O250" t="n">
-        <v>0.306462017852588</v>
+        <v>0.1572282638939728</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01788925088062528</v>
+        <v>0.004264661505429222</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3049212241231694</v>
+        <v>0.05026246284005825</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02490491668407245</v>
+        <v>0.03298478037775536</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1613083999866162</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05771241396686952</v>
+        <v>0.07606888641720963</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3062333081036064</v>
+        <v>0.1578223410325103</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09015434457637167</v>
+        <v>0.1199572923827803</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3081185693004398</v>
+        <v>0.1580781464015078</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01660924724410476</v>
+        <v>0.004288767992926858</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3065605855431864</v>
+        <v>0.05023287691418754</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02450957941765664</v>
+        <v>0.03287276241444038</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1621756494489099</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05659836091157264</v>
+        <v>0.07674171150414627</v>
       </c>
       <c r="M252" t="n">
-        <v>0.307879723738572</v>
+        <v>0.1586708482423625</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08941177750295043</v>
+        <v>0.1204145708419952</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3097751207482917</v>
+        <v>0.1589280289090428</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01632802119816858</v>
+        <v>0.004317057213940566</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3081999469632035</v>
+        <v>0.05020329098831684</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02411250354215781</v>
+        <v>0.03276092700247055</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1630428989112035</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05578030201536738</v>
+        <v>0.07591494368824953</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3095261393735377</v>
+        <v>0.1595193554522147</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08816285357285081</v>
+        <v>0.1195724899583946</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3114316721961435</v>
+        <v>0.1597779114165778</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01604555657155295</v>
+        <v>0.004349863787151638</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3098393083832205</v>
+        <v>0.05017370506244614</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02381366583817529</v>
+        <v>0.03284927688396974</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1639101483734971</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05485818402054105</v>
+        <v>0.07658858892920184</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3111725550085033</v>
+        <v>0.1603678626620669</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08590748766767464</v>
+        <v>0.1192310591287311</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3130882236439953</v>
+        <v>0.1606277939241128</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01576183719299408</v>
+        <v>0.004387522331241345</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3114786698032376</v>
+        <v>0.05014411913657543</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02331304308630834</v>
+        <v>0.03293781480106193</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1647773978357908</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05383195366938096</v>
+        <v>0.07626265318668574</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3128189706434689</v>
+        <v>0.1612163698719191</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08554559466902351</v>
+        <v>0.1189902877497566</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3147447750918472</v>
+        <v>0.1614776764316478</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0154768468912282</v>
+        <v>0.004430367464890991</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3131180312232546</v>
+        <v>0.05011453321070473</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02301061206715629</v>
+        <v>0.03292654349587111</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1656446472980844</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05360155770417455</v>
+        <v>0.07663714242038375</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3144653862784345</v>
+        <v>0.1620648770817713</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08347708945849919</v>
+        <v>0.1202501852182236</v>
       </c>
       <c r="O256" t="n">
-        <v>0.316401326539699</v>
+        <v>0.1623275589391828</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01419056949499152</v>
+        <v>0.004478733806781862</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3147573926432716</v>
+        <v>0.05008494728483402</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02240634956131843</v>
+        <v>0.03271546571052122</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.166511896760378</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05206694286720906</v>
+        <v>0.07611206258997832</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3161118019134002</v>
+        <v>0.1629133842916236</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08240188691770334</v>
+        <v>0.1189107609308841</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3180578779875508</v>
+        <v>0.1631774414467178</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01590298883302024</v>
+        <v>0.004532955975595221</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3163967540632887</v>
+        <v>0.05005536135896332</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02200023234939401</v>
+        <v>0.0327045841871362</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1673791462226717</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05162805590077182</v>
+        <v>0.07628741965515204</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3177582175483658</v>
+        <v>0.1637618915014757</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0806199019282377</v>
+        <v>0.1190720242844908</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3197144294354026</v>
+        <v>0.1640273239542528</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01561408873405057</v>
+        <v>0.004593368590012373</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3180361154833057</v>
+        <v>0.05002577543309262</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02189223721198234</v>
+        <v>0.03279390166784002</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1682463956849653</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0500848435471502</v>
+        <v>0.07586321957558731</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3194046331833314</v>
+        <v>0.164610398711328</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07953104937170402</v>
+        <v>0.1200339846757955</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3213709808832544</v>
+        <v>0.1648772064617877</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01532385302681875</v>
+        <v>0.004660306268714623</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3196754769033228</v>
+        <v>0.04999618950722191</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02128234092968273</v>
+        <v>0.03298342089475663</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.169113645147259</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04923725254863148</v>
+        <v>0.07633946831096677</v>
       </c>
       <c r="M260" t="n">
-        <v>0.321051048818297</v>
+        <v>0.1654589059211802</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07773524412970384</v>
+        <v>0.1192966515015507</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3230275323311063</v>
+        <v>0.1657270889693227</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01403226554006098</v>
+        <v>0.004734103630383214</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3213148383233398</v>
+        <v>0.04996660358135121</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0210705202830945</v>
+        <v>0.03287314461000999</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1699808946095526</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04868522964750299</v>
+        <v>0.07631617182097283</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3226974644532627</v>
+        <v>0.1663074131310324</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07613240108383917</v>
+        <v>0.1194600341585088</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3246840837789581</v>
+        <v>0.1665769714768577</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01273931010251347</v>
+        <v>0.004815095293699445</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3229541997433568</v>
+        <v>0.0499370176554805</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0203567520528169</v>
+        <v>0.03266307555572408</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1708481440718462</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04752872158605215</v>
+        <v>0.07619333606528805</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3243438800882283</v>
+        <v>0.1671559203408846</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07502243511571155</v>
+        <v>0.1187241420434216</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3263406352268099</v>
+        <v>0.1674268539843927</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01244497054291244</v>
+        <v>0.004903615877344607</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3245935611633738</v>
+        <v>0.0499074317296098</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02024101301944918</v>
+        <v>0.0328532164740228</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1717153935341399</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04676767510656615</v>
+        <v>0.07627096700359487</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3259902957231939</v>
+        <v>0.1680044275507368</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07260526110692261</v>
+        <v>0.1197889845530418</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3279971866746618</v>
+        <v>0.1682767364919277</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01214923068999411</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3262329225833909</v>
+        <v>0.04987784580373909</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01982327996359072</v>
+        <v>0.03274357010703015</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1725826429964335</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04590203695133244</v>
+        <v>0.07614907059557588</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3276367113581595</v>
+        <v>0.168852934760589</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07118079393907412</v>
+        <v>0.1190545710841215</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3296537381225136</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1691266189994627</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04986468790900225</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005307533779258029</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04986495643746627</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005612219653748619</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04986522496593029</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005913980888328368</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04986549349439431</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006212740747880224</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04986576202285833</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006508422497261059</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04986603055132234</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006800949401353569</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04986629907978636</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007090244725014863</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04986656760825037</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007376231733127403</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04986683613671439</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007658833690548553</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04986710466517841</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007937973862160483</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04986737319364243</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008213575512820863</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04986764172210644</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008485561907411551</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04986791025057046</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.00875385631079055</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04986817877903447</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009018381987839379</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0498684473074985</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009279062203416372</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04986871583596251</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009535820222402722</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04986898436442653</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009788579309657076</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04986925289289055</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01003726273005495</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04986952142135456</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01028179374847144</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04986978994981858</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01052209562976575</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0498700584782826</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01075809163881818</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04987032700674662</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01098970504048832</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04987059553521063</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01121685909965608</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04987086406367465</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01143947708118142</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04987113259213866</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01165779558505869</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04987140112060268</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01187361788683705</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0498716696490667</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.0120871805865105</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04987193817753072</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01229840694893958</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04987220670599474</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01250722023900337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04987247523445876</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01271354372156259</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04987274376292277</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01291730066149607</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04987301229138679</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01311841432366481</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0498732808198508</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01331680797294308</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04987354934831482</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01351240487420498</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04987381787677884</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01370512829231186</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04987408640524285</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0138949014921419</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04987435493370687</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01408164773855673</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04987462346217088</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0142652902964343</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04987489199063491</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01444575243063647</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04987516051909893</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01462295740604094</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04987542904756295</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01479682848750983</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04987569757602696</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01496728893992057</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04987596610449098</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01513426202813556</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04987623463295499</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01529767101703194</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04987650316141901</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01545743917147243</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04987677168988303</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01561348975633382</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04987704021834705</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01576574603647917</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04987730874681106</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01591413127678495</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04987757727527508</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04987784580373909</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04986468790900225</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01619426261477687</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04989481089180099</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01632913116959902</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04992493387459973</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01646275446548665</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04995505685739847</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01659471256134541</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04998517984019721</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01672458551608094</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05001530282299595</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01685195338859885</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05004542580579469</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01697639623780479</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05007554878859342</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01709749412260441</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05010567177139216</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01721482710190336</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0501357947541909</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01732797523460722</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05016591773698964</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01743651857962166</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05019604071978838</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01754003719585232</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05022616370258712</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01763811114220484</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05025628668538586</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01773032047758483</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0502864096681846</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01781624526089796</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05031653265098333</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01789546555104984</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05034665563378207</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01796756140694614</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0503767786165808</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01803211288749246</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05040690159937954</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01808870005159445</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05043702458217828</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01813690295815776</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05046714756497702</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01817630166608801</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05049727054777576</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01820647623429084</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0505273935305745</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0182270067216719</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05055751651337324</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01823747318713681</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05058763949617198</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01823880014593438</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05061776247897071</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01823877325870123</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05064788546176945</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01823867191451479</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05067800844456819</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01823844647540616</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05070813142736693</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01823804730340648</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05073825441016567</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01823742476054688</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05076837739296441</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01823652920885848</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05079850037576315</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01823531101037241</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05082862335856188</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01823372052711981</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05085874634136062</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01823170812113178</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05088886932415936</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01822922415443948</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05091899230695809</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01822621898907403</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05094911528975683</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01822264298706654</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05097923827255557</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01821844651044815</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05100936125535431</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01821357992124999</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05103948423815305</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01820799358150319</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05106960722095179</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01820163785323887</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05109973020375053</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01819446309848816</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05112985318654927</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0181864196792822</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.051159976169348</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0181774579576521</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05119009915214674</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.018167528295629</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05122022213494548</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01815658105524402</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05125034511774422</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01814456659852829</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05128046810054296</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01813143528751295</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0513105910833417</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01811713748422911</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05134071406614044</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01811713748422911</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05134071406614044</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01847822539625862</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05292305856737803</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01883210474226506</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05450540306861563</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01917862275424113</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05608774756985323</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01951762666417954</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05767009207109084</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01984896370407298</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05925243657232843</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02017248110591418</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06083478107356603</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02048802610169581</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06241712557480363</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02079544592341059</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06399947007604123</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02109458780305121</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06558181457727882</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02138529897261037</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06716415907851643</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02166742666408078</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06874650357975404</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02194081810945515</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07032884808099164</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02220532054072616</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07191119258222924</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02246078118988654</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07349353708346683</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02270704728892896</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07507588158470443</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02294396606984614</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07665822608594204</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02317138476463078</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07824057058717963</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02338915060527559</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07982291508841724</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02359711082377326</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08140525958965483</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02379511265211649</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08298760409089244</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02398300332229798</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08456994859213003</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02416063006631045</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08615229309336762</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02432784011614658</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08773463759460524</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02448448070379909</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08931698209584284</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02463039906126067</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09089932659708044</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02476544242052402</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09248167109831804</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02488945801358186</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09406401559955563</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02500229307242686</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09564636010079325</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02510379482905176</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09722870460203084</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02519381051544924</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09881104910326843</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02527218736361198</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.100393393604506</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0253387726055327</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1019757381057436</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02539341347320415</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1035580826069813</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02543595719861896</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1051404271082188</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02546625101376987</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1067227716094564</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02548951664563881</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.108305116110694</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02548949879010698</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1098874606119316</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02548619962813257</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1114698051131692</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02547748896000693</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1130521496144068</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02546377778154027</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1146344941156444</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02544547708854279</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.116216838616882</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02542299787682469</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1177991831181196</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02539675114219611</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1193815276193572</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02536714788046729</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1209638721205948</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02533459908744844</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1225462166218324</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02529951575894972</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1241285611230701</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02526230889078132</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1257109056243076</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02522338947875348</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1272932501255453</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02518316851867636</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1288755946267829</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02514205700636014</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1304579391280204</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02510018875824255</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.132040283629258</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02504524737945078</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1336226281304956</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02497351776589887</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1352049726317332</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02488927500877398</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1367873171329708</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02479679419926327</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1383696616342084</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02470035042855388</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1399520061354461</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02460421878783293</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1415343506366837</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02451267436828766</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1431166951379212</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02442999226110514</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1446990396391588</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02436044755747252</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1462813841403964</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.024308315348577</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1478637286416341</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02426934033846304</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02423274709495012</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1510284176441092</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02419830229599555</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1526107621453469</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02416586895103691</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1541931066465844</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02413531006951172</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1557754511478221</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02410648866085757</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1573577956490596</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02407926773451199</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1589401401502973</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02405351029991255</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1605224846515348</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02402907936649681</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1621048291527724</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02400583794370231</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1636871736540101</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02398364904096661</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1652695181552477</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0239623756677273</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1668518626564853</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0239418808334219</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1684342071577229</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02392202754748798</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1700165516589605</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0239026788193631</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1715988961601981</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0238836976584848</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1731812406614356</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02386494707429067</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1747635851626732</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02384629007621822</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1763459296639109</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02382758967370505</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1779282741651484</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0238087088761887</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1795106186663861</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02378951069310671</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1810929631676237</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02377025937686278</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1826753076688613</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02375132978318856</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1842576521700988</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02373273382156622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1858399966713364</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02371448338017668</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1874223411725741</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02369659034720081</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1890046856738117</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02367906661081952</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1905870301750492</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02366192405921369</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1921693746762869</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02364517458056423</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1937517191775245</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.023628830063052</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1953340636787621</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02361290239485789</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1969164081799997</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02359740346416282</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1984987526812373</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02358234515914767</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2000810971824749</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02356773936799332</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2016634416837124</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02355359797888067</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2032457861849501</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02353993287999061</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2048281306861877</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.023526755959504</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2064104751874253</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0235140791056018</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2079928196886629</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
